--- a/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3D3A5-D1A7-451D-98E2-D9735D6E3CBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58748E4A-488F-4EFA-AF6E-079DCECF6256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
@@ -1064,130 +1064,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>95.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>95.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82</c:v>
+                  <c:v>96.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83</c:v>
+                  <c:v>97.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83</c:v>
+                  <c:v>97.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83</c:v>
+                  <c:v>97.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83</c:v>
+                  <c:v>97.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>98.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>98.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5164,172 +5164,172 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.599999999999994</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>76</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>77</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>81</c:v>
+                  <c:v>95.7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>82</c:v>
+                  <c:v>95.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82</c:v>
+                  <c:v>96.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>82</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83</c:v>
+                  <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83</c:v>
+                  <c:v>97.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83</c:v>
+                  <c:v>97.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>83</c:v>
+                  <c:v>97.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>97.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83</c:v>
+                  <c:v>98.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83</c:v>
+                  <c:v>98.3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26298,16 +26298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>274637</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>382587</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>106360</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32840,7 +32840,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32870,7 +32870,7 @@
         <v>1995</v>
       </c>
       <c r="B2">
-        <v>74.599999999999994</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -32890,7 +32890,7 @@
         <v>1996</v>
       </c>
       <c r="B3">
-        <v>74.599999999999994</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -32910,7 +32910,7 @@
         <v>1997</v>
       </c>
       <c r="B4">
-        <v>74.599999999999994</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -32930,7 +32930,7 @@
         <v>1998</v>
       </c>
       <c r="B5">
-        <v>74.599999999999994</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -32950,7 +32950,7 @@
         <v>1999</v>
       </c>
       <c r="B6">
-        <v>74.599999999999994</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -32970,7 +32970,7 @@
         <v>2000</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -32990,7 +32990,7 @@
         <v>2001</v>
       </c>
       <c r="B8">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -33010,7 +33010,7 @@
         <v>2002</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -33030,7 +33030,7 @@
         <v>2003</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -33050,7 +33050,7 @@
         <v>2004</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>49.365658340000003</v>
@@ -33070,7 +33070,7 @@
         <v>2005</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>41.588057310000003</v>
@@ -33090,7 +33090,7 @@
         <v>2006</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>33.638416139999997</v>
@@ -33110,7 +33110,7 @@
         <v>2007</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>32.313886099999998</v>
@@ -33130,7 +33130,7 @@
         <v>2008</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>30.95939478</v>
@@ -33150,7 +33150,7 @@
         <v>2009</v>
       </c>
       <c r="B16">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>31.313555950000001</v>
@@ -33170,7 +33170,7 @@
         <v>2010</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>49.33536239</v>
@@ -33190,7 +33190,7 @@
         <v>2011</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>49.661818310000001</v>
@@ -33210,7 +33210,7 @@
         <v>2012</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>48.63711241</v>
@@ -33230,7 +33230,7 @@
         <v>2013</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>49.920500959999998</v>
@@ -33250,7 +33250,7 @@
         <v>2014</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>95.2</v>
       </c>
       <c r="C21">
         <v>50.133176429999999</v>
@@ -33270,7 +33270,7 @@
         <v>2015</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>95.5</v>
       </c>
       <c r="C22">
         <v>50.540356459999998</v>
@@ -33290,7 +33290,7 @@
         <v>2016</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>95.7</v>
       </c>
       <c r="C23">
         <v>53.417000399999999</v>
@@ -33310,7 +33310,7 @@
         <v>2017</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>95.9</v>
       </c>
       <c r="C24">
         <v>59.32333715</v>
@@ -33330,7 +33330,7 @@
         <v>2018</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>96.2</v>
       </c>
       <c r="C25">
         <v>63.600552669999999</v>
@@ -33350,7 +33350,7 @@
         <v>2019</v>
       </c>
       <c r="B26">
-        <v>82</v>
+        <v>96.4</v>
       </c>
       <c r="C26">
         <v>65.063940110000004</v>
@@ -33370,7 +33370,7 @@
         <v>2020</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>96.6</v>
       </c>
       <c r="C27">
         <v>66.726759759999993</v>
@@ -33390,7 +33390,7 @@
         <v>2021</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>96.9</v>
       </c>
       <c r="C28">
         <v>66.180844960000002</v>
@@ -33410,7 +33410,7 @@
         <v>2022</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>97.1</v>
       </c>
       <c r="C29">
         <v>65.587672920000003</v>
@@ -33430,7 +33430,7 @@
         <v>2023</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>97.4</v>
       </c>
       <c r="C30">
         <v>66.98371616</v>
@@ -33450,7 +33450,7 @@
         <v>2024</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>97.6</v>
       </c>
       <c r="C31">
         <v>68.784939679999994</v>
@@ -33470,7 +33470,7 @@
         <v>2025</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>97.8</v>
       </c>
       <c r="C32">
         <v>69.379740209999994</v>
@@ -33490,7 +33490,7 @@
         <v>2026</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>98.1</v>
       </c>
       <c r="C33">
         <v>69.848360650000004</v>
@@ -33510,7 +33510,7 @@
         <v>2027</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>98.3</v>
       </c>
       <c r="C34">
         <v>70.190564620000004</v>
@@ -33530,7 +33530,7 @@
         <v>2028</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>98.5</v>
       </c>
       <c r="C35">
         <v>70.655697110000006</v>
@@ -33550,7 +33550,7 @@
         <v>2029</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>98.8</v>
       </c>
       <c r="C36">
         <v>71.125574380000003</v>
@@ -33570,7 +33570,7 @@
         <v>2030</v>
       </c>
       <c r="B37">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>71.600236780000003</v>
@@ -33590,7 +33590,7 @@
         <v>2031</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>71.600236780000003</v>
@@ -33610,7 +33610,7 @@
         <v>2032</v>
       </c>
       <c r="B39">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <v>71.600236780000003</v>
@@ -33630,7 +33630,7 @@
         <v>2033</v>
       </c>
       <c r="B40">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>71.600236780000003</v>
@@ -33650,7 +33650,7 @@
         <v>2034</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>71.600236780000003</v>
@@ -33670,7 +33670,7 @@
         <v>2035</v>
       </c>
       <c r="B42">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>71.600236780000003</v>
@@ -33690,7 +33690,7 @@
         <v>2036</v>
       </c>
       <c r="B43">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>71.600236780000003</v>
@@ -33710,7 +33710,7 @@
         <v>2037</v>
       </c>
       <c r="B44">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C44">
         <v>71.600236780000003</v>
@@ -33730,7 +33730,7 @@
         <v>2038</v>
       </c>
       <c r="B45">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C45">
         <v>71.600236780000003</v>
@@ -33750,7 +33750,7 @@
         <v>2039</v>
       </c>
       <c r="B46">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>71.600236780000003</v>
@@ -33770,7 +33770,7 @@
         <v>2040</v>
       </c>
       <c r="B47">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>71.600236780000003</v>
@@ -33790,7 +33790,7 @@
         <v>2041</v>
       </c>
       <c r="B48">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C48">
         <v>71.600236780000003</v>
@@ -33810,7 +33810,7 @@
         <v>2042</v>
       </c>
       <c r="B49">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>71.600236780000003</v>
@@ -33830,7 +33830,7 @@
         <v>2043</v>
       </c>
       <c r="B50">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>71.600236780000003</v>
@@ -33850,7 +33850,7 @@
         <v>2044</v>
       </c>
       <c r="B51">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C51">
         <v>71.600236780000003</v>
@@ -33870,7 +33870,7 @@
         <v>2045</v>
       </c>
       <c r="B52">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>71.600236780000003</v>
@@ -33890,7 +33890,7 @@
         <v>2046</v>
       </c>
       <c r="B53">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C53">
         <v>71.600236780000003</v>
@@ -33910,7 +33910,7 @@
         <v>2047</v>
       </c>
       <c r="B54">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C54">
         <v>71.600236780000003</v>
@@ -33930,7 +33930,7 @@
         <v>2048</v>
       </c>
       <c r="B55">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C55">
         <v>71.600236780000003</v>
@@ -33950,7 +33950,7 @@
         <v>2049</v>
       </c>
       <c r="B56">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>71.600236780000003</v>
@@ -33970,7 +33970,7 @@
         <v>2050</v>
       </c>
       <c r="B57">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C57">
         <v>71.600236780000003</v>

--- a/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9F9073-521C-46A4-A955-89DFE0F80845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5E446E-554B-4769-BD37-34DF2E386981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -272,9 +272,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -282,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11878,169 +11878,169 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.666666699999993</c:v>
+                  <c:v>99.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.333333300000007</c:v>
+                  <c:v>99.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.166666700000007</c:v>
+                  <c:v>98.1666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.333333300000007</c:v>
+                  <c:v>97.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.666666700000007</c:v>
+                  <c:v>95.6666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.833333300000007</c:v>
+                  <c:v>94.8333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>86.082000000000008</c:v>
+                  <c:v>93.768129340000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>78.164000000000001</c:v>
+                  <c:v>93.536258679999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.245999999999995</c:v>
+                  <c:v>93.30438801999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.327999999999996</c:v>
+                  <c:v>93.072517359999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.410000000000004</c:v>
+                  <c:v>92.840646699999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.29</c:v>
+                  <c:v>84.828496000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75.63</c:v>
+                  <c:v>92.755418000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.11</c:v>
+                  <c:v>90.832328099999899</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.019999999999996</c:v>
+                  <c:v>84.717097199999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.98</c:v>
+                  <c:v>59.613632199999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81.069999999999993</c:v>
+                  <c:v>91.116584599999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>77.02</c:v>
+                  <c:v>85.439676300000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>76.92</c:v>
+                  <c:v>89.2007105</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72.27</c:v>
+                  <c:v>87.078198799999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>72.27</c:v>
+                  <c:v>81.800867599999904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12800,7 +12800,7 @@
                   <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -39217,7 +39217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
   <dimension ref="A1:AI73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
@@ -39231,21 +39231,21 @@
     <col min="7" max="7" width="11.81640625" customWidth="1"/>
     <col min="8" max="8" width="10.26953125" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.453125" style="9" customWidth="1"/>
     <col min="11" max="12" width="8.26953125" customWidth="1"/>
     <col min="13" max="19" width="11.81640625" customWidth="1"/>
-    <col min="20" max="20" width="2.26953125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="2.26953125" style="9" customWidth="1"/>
     <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
@@ -39253,8 +39253,8 @@
         <v>41</v>
       </c>
       <c r="I1" s="4"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="4"/>
@@ -39265,24 +39265,24 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="7" t="s">
+      <c r="T1" s="8"/>
+      <c r="U1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="1" t="s">
         <v>18</v>
       </c>
@@ -39542,7 +39542,7 @@
         <f>AC18*1000/100</f>
         <v>125</v>
       </c>
-      <c r="J18" s="11"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="6">
         <f>H18/I18</f>
         <v>103.96497172550401</v>
@@ -39557,25 +39557,25 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="11"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="6">
-        <f>B18/$G18*100</f>
+        <f t="shared" ref="U18:U49" si="1">B18/$G18*100</f>
         <v>66.483930936369333</v>
       </c>
       <c r="V18" s="6">
-        <f>C18/$G18*100</f>
+        <f t="shared" ref="V18:V49" si="2">C18/$G18*100</f>
         <v>7.0507989579972774</v>
       </c>
       <c r="W18" s="6">
-        <f>D18/$G18*100</f>
+        <f t="shared" ref="W18:W49" si="3">D18/$G18*100</f>
         <v>25.689269663744067</v>
       </c>
       <c r="X18" s="6">
-        <f>E18/$G18*100</f>
+        <f t="shared" ref="X18:X49" si="4">E18/$G18*100</f>
         <v>4.4677201589240205E-2</v>
       </c>
       <c r="Y18" s="6">
-        <f>F18/$G18*100</f>
+        <f t="shared" ref="Y18:Y49" si="5">F18/$G18*100</f>
         <v>0.73132324030006279</v>
       </c>
       <c r="AC18">
@@ -39618,16 +39618,16 @@
         <v>11939.14968887</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" ref="H19:H73" si="1">G19*1.08</f>
+        <f t="shared" ref="H19:H73" si="6">G19*1.08</f>
         <v>12894.281663979602</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I19:I73" si="2">AC19*1000/100</f>
+        <f t="shared" ref="I19:I73" si="7">AC19*1000/100</f>
         <v>127</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="6">
-        <f t="shared" ref="K19:K73" si="3">H19/I19</f>
+        <f t="shared" ref="K19:K73" si="8">H19/I19</f>
         <v>101.52977688172915</v>
       </c>
       <c r="L19" s="6">
@@ -39640,25 +39640,25 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="11"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="6">
-        <f>B19/$G19*100</f>
+        <f t="shared" si="1"/>
         <v>67.006446928610146</v>
       </c>
       <c r="V19" s="6">
-        <f>C19/$G19*100</f>
+        <f t="shared" si="2"/>
         <v>6.9668756651523793</v>
       </c>
       <c r="W19" s="6">
-        <f>D19/$G19*100</f>
+        <f t="shared" si="3"/>
         <v>25.273295206382389</v>
       </c>
       <c r="X19" s="6">
-        <f>E19/$G19*100</f>
+        <f t="shared" si="4"/>
         <v>4.5028332336026024E-2</v>
       </c>
       <c r="Y19" s="6">
-        <f>F19/$G19*100</f>
+        <f t="shared" si="5"/>
         <v>0.70835386751905605</v>
       </c>
       <c r="AC19">
@@ -39701,16 +39701,16 @@
         <v>11601.668857139999</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12529.802365711199</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>128.80000000000001</v>
       </c>
-      <c r="J20" s="11"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>97.281074267944078</v>
       </c>
       <c r="L20" s="6">
@@ -39723,25 +39723,25 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="11"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="6">
-        <f>B20/$G20*100</f>
+        <f t="shared" si="1"/>
         <v>68.955596806890156</v>
       </c>
       <c r="V20" s="6">
-        <f>C20/$G20*100</f>
+        <f t="shared" si="2"/>
         <v>7.0261443421420644</v>
       </c>
       <c r="W20" s="6">
-        <f>D20/$G20*100</f>
+        <f t="shared" si="3"/>
         <v>23.27251392232543</v>
       </c>
       <c r="X20" s="6">
-        <f>E20/$G20*100</f>
+        <f t="shared" si="4"/>
         <v>4.6338161054230192E-2</v>
       </c>
       <c r="Y20" s="6">
-        <f>F20/$G20*100</f>
+        <f t="shared" si="5"/>
         <v>0.69940676758811615</v>
       </c>
       <c r="AC20">
@@ -39784,16 +39784,16 @@
         <v>11421.977242410001</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12335.735421802801</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>130.6</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>94.454329416560498</v>
       </c>
       <c r="L21" s="6">
@@ -39806,25 +39806,25 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="11"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="6">
-        <f>B21/$G21*100</f>
+        <f t="shared" si="1"/>
         <v>70.040412708019232</v>
       </c>
       <c r="V21" s="6">
-        <f>C21/$G21*100</f>
+        <f t="shared" si="2"/>
         <v>6.9910337654596475</v>
       </c>
       <c r="W21" s="6">
-        <f>D21/$G21*100</f>
+        <f t="shared" si="3"/>
         <v>22.24109378862665</v>
       </c>
       <c r="X21" s="6">
-        <f>E21/$G21*100</f>
+        <f t="shared" si="4"/>
         <v>4.7067157339788931E-2</v>
       </c>
       <c r="Y21" s="6">
-        <f>F21/$G21*100</f>
+        <f t="shared" si="5"/>
         <v>0.68039258055466523</v>
       </c>
       <c r="AC21">
@@ -39867,16 +39867,16 @@
         <v>11346.239199690001</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12253.938335665202</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>132.4</v>
       </c>
-      <c r="J22" s="11"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>92.55240434792448</v>
       </c>
       <c r="L22" s="6">
@@ -39889,25 +39889,25 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="11"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="6">
-        <f>B22/$G22*100</f>
+        <f t="shared" si="1"/>
         <v>70.507944167249477</v>
       </c>
       <c r="V22" s="6">
-        <f>C22/$G22*100</f>
+        <f t="shared" si="2"/>
         <v>6.8910813322299997</v>
       </c>
       <c r="W22" s="6">
-        <f>D22/$G22*100</f>
+        <f t="shared" si="3"/>
         <v>21.89887653759218</v>
       </c>
       <c r="X22" s="6">
-        <f>E22/$G22*100</f>
+        <f t="shared" si="4"/>
         <v>4.7381338480391652E-2</v>
       </c>
       <c r="Y22" s="6">
-        <f>F22/$G22*100</f>
+        <f t="shared" si="5"/>
         <v>0.65471662444794587</v>
       </c>
       <c r="AC22">
@@ -39950,16 +39950,16 @@
         <v>11249.92969253</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12149.924067932401</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>134.19999999999999</v>
       </c>
-      <c r="J23" s="11"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>90.535946854935929</v>
       </c>
       <c r="L23" s="6">
@@ -39974,25 +39974,25 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="11"/>
+      <c r="T23" s="10"/>
       <c r="U23" s="6">
-        <f>B23/$G23*100</f>
+        <f t="shared" si="1"/>
         <v>71.111555526538382</v>
       </c>
       <c r="V23" s="6">
-        <f>C23/$G23*100</f>
+        <f t="shared" si="2"/>
         <v>6.8022012404941909</v>
       </c>
       <c r="W23" s="6">
-        <f>D23/$G23*100</f>
+        <f t="shared" si="3"/>
         <v>21.635355335741881</v>
       </c>
       <c r="X23" s="6">
-        <f>E23/$G23*100</f>
+        <f t="shared" si="4"/>
         <v>4.77869653138338E-2</v>
       </c>
       <c r="Y23" s="6">
-        <f>F23/$G23*100</f>
+        <f t="shared" si="5"/>
         <v>0.40310093191170465</v>
       </c>
       <c r="AC23">
@@ -40035,16 +40035,16 @@
         <v>11184.671303610001</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12079.445007898801</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="J24" s="11"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>88.819448587491181</v>
       </c>
       <c r="L24" s="6">
@@ -40059,25 +40059,25 @@
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="11"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="6">
-        <f>B24/$G24*100</f>
+        <f t="shared" si="1"/>
         <v>71.526464952241327</v>
       </c>
       <c r="V24" s="6">
-        <f>C24/$G24*100</f>
+        <f t="shared" si="2"/>
         <v>6.6931528212042952</v>
       </c>
       <c r="W24" s="6">
-        <f>D24/$G24*100</f>
+        <f t="shared" si="3"/>
         <v>21.346482254059556</v>
       </c>
       <c r="X24" s="6">
-        <f>E24/$G24*100</f>
+        <f t="shared" si="4"/>
         <v>4.8065784447906171E-2</v>
       </c>
       <c r="Y24" s="6">
-        <f>F24/$G24*100</f>
+        <f t="shared" si="5"/>
         <v>0.38583418804691544</v>
       </c>
       <c r="AC24">
@@ -40120,16 +40120,16 @@
         <v>11123.194776599999</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12013.050358728</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>137.2222222</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>87.544496555514897</v>
       </c>
       <c r="L25" s="6">
@@ -40144,25 +40144,25 @@
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="11"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="6">
-        <f>B25/$G25*100</f>
+        <f t="shared" si="1"/>
         <v>71.92178291105445</v>
       </c>
       <c r="V25" s="6">
-        <f>C25/$G25*100</f>
+        <f t="shared" si="2"/>
         <v>6.5805862731079499</v>
       </c>
       <c r="W25" s="6">
-        <f>D25/$G25*100</f>
+        <f t="shared" si="3"/>
         <v>21.081059849216778</v>
       </c>
       <c r="X25" s="6">
-        <f>E25/$G25*100</f>
+        <f t="shared" si="4"/>
         <v>4.8331438116228594E-2</v>
       </c>
       <c r="Y25" s="6">
-        <f>F25/$G25*100</f>
+        <f t="shared" si="5"/>
         <v>0.36823952850459885</v>
       </c>
       <c r="AC25">
@@ -40205,16 +40205,16 @@
         <v>11077.36948159</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11963.559040117201</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>138.44444439999998</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>86.414150397769248</v>
       </c>
       <c r="L26" s="6">
@@ -40231,25 +40231,25 @@
         <v>102.7</v>
       </c>
       <c r="S26" s="6"/>
-      <c r="T26" s="11"/>
+      <c r="T26" s="10"/>
       <c r="U26" s="6">
-        <f>B26/$G26*100</f>
+        <f t="shared" si="1"/>
         <v>72.219311753531159</v>
       </c>
       <c r="V26" s="6">
-        <f>C26/$G26*100</f>
+        <f t="shared" si="2"/>
         <v>6.4576316199333235</v>
       </c>
       <c r="W26" s="6">
-        <f>D26/$G26*100</f>
+        <f t="shared" si="3"/>
         <v>20.92457109832992</v>
       </c>
       <c r="X26" s="6">
-        <f>E26/$G26*100</f>
+        <f t="shared" si="4"/>
         <v>4.8531377498372941E-2</v>
       </c>
       <c r="Y26" s="6">
-        <f>F26/$G26*100</f>
+        <f t="shared" si="5"/>
         <v>0.34995415070722846</v>
       </c>
       <c r="AC26">
@@ -40292,16 +40292,16 @@
         <v>10996.66669057</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11876.400025815601</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>139.66666670000001</v>
       </c>
-      <c r="J27" s="11"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>85.03389037933988</v>
       </c>
       <c r="L27" s="6">
@@ -40318,25 +40318,25 @@
         <v>102.7</v>
       </c>
       <c r="S27" s="6"/>
-      <c r="T27" s="11"/>
+      <c r="T27" s="10"/>
       <c r="U27" s="6">
-        <f>B27/$G27*100</f>
+        <f t="shared" si="1"/>
         <v>72.749317817009583</v>
       </c>
       <c r="V27" s="6">
-        <f>C27/$G27*100</f>
+        <f t="shared" si="2"/>
         <v>6.3537435448430752</v>
       </c>
       <c r="W27" s="6">
-        <f>D27/$G27*100</f>
+        <f t="shared" si="3"/>
         <v>20.515482786566679</v>
       </c>
       <c r="X27" s="6">
-        <f>E27/$G27*100</f>
+        <f t="shared" si="4"/>
         <v>4.8887541573030449E-2</v>
       </c>
       <c r="Y27" s="6">
-        <f>F27/$G27*100</f>
+        <f t="shared" si="5"/>
         <v>0.33256831000762432</v>
       </c>
       <c r="AC27">
@@ -40379,16 +40379,16 @@
         <v>10735.835995859999</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11594.702875528799</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>140.88888890000001</v>
       </c>
-      <c r="J28" s="11"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>82.296786964928629</v>
       </c>
       <c r="L28" s="6">
@@ -40409,25 +40409,25 @@
         <v>102.7</v>
       </c>
       <c r="S28" s="6"/>
-      <c r="T28" s="11"/>
+      <c r="T28" s="10"/>
       <c r="U28" s="6">
-        <f>B28/$G28*100</f>
+        <f t="shared" si="1"/>
         <v>74.516786611540965</v>
       </c>
       <c r="V28" s="6">
-        <f>C28/$G28*100</f>
+        <f t="shared" si="2"/>
         <v>5.4234248755712162</v>
       </c>
       <c r="W28" s="6">
-        <f>D28/$G28*100</f>
+        <f t="shared" si="3"/>
         <v>19.68950395493323</v>
       </c>
       <c r="X28" s="6">
-        <f>E28/$G28*100</f>
+        <f t="shared" si="4"/>
         <v>5.0075280602955533E-2</v>
       </c>
       <c r="Y28" s="6">
-        <f>F28/$G28*100</f>
+        <f t="shared" si="5"/>
         <v>0.3202092773516349</v>
       </c>
       <c r="AC28">
@@ -40470,16 +40470,16 @@
         <v>10586.83833814</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11433.7854051912</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>142.11111109999999</v>
       </c>
-      <c r="J29" s="11"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>80.456660402475748</v>
       </c>
       <c r="L29" s="6">
@@ -40498,25 +40498,25 @@
         <v>102.7</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="11"/>
+      <c r="T29" s="10"/>
       <c r="U29" s="6">
-        <f>B29/$G29*100</f>
+        <f t="shared" si="1"/>
         <v>75.565525272822086</v>
       </c>
       <c r="V29" s="6">
-        <f>C29/$G29*100</f>
+        <f t="shared" si="2"/>
         <v>4.3998027090100669</v>
       </c>
       <c r="W29" s="6">
-        <f>D29/$G29*100</f>
+        <f t="shared" si="3"/>
         <v>19.679902672113968</v>
       </c>
       <c r="X29" s="6">
-        <f>E29/$G29*100</f>
+        <f t="shared" si="4"/>
         <v>5.078003298333645E-2</v>
       </c>
       <c r="Y29" s="6">
-        <f>F29/$G29*100</f>
+        <f t="shared" si="5"/>
         <v>0.30398931307053662</v>
       </c>
       <c r="AC29">
@@ -40559,16 +40559,16 @@
         <v>10532.556731430001</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11375.161269944401</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>143.33333329999999</v>
       </c>
-      <c r="J30" s="11"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.361590273882243</v>
       </c>
       <c r="L30" s="6">
@@ -40589,25 +40589,25 @@
         <v>102.7</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="11"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="6">
-        <f>B30/$G30*100</f>
+        <f t="shared" si="1"/>
         <v>75.954967098609146</v>
       </c>
       <c r="V30" s="6">
-        <f>C30/$G30*100</f>
+        <f t="shared" si="2"/>
         <v>4.201354061350691</v>
       </c>
       <c r="W30" s="6">
-        <f>D30/$G30*100</f>
+        <f t="shared" si="3"/>
         <v>19.507914482612396</v>
       </c>
       <c r="X30" s="6">
-        <f>E30/$G30*100</f>
+        <f t="shared" si="4"/>
         <v>5.1041737890265351E-2</v>
       </c>
       <c r="Y30" s="6">
-        <f>F30/$G30*100</f>
+        <f t="shared" si="5"/>
         <v>0.28472261953749256</v>
       </c>
       <c r="AC30">
@@ -40650,16 +40650,16 @@
         <v>10479.71451071</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11318.091671566801</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>144.55555560000002</v>
       </c>
-      <c r="J31" s="11"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>78.295791708518735</v>
       </c>
       <c r="L31" s="6">
@@ -40680,25 +40680,25 @@
         <v>102.7</v>
       </c>
       <c r="S31" s="6"/>
-      <c r="T31" s="11"/>
+      <c r="T31" s="10"/>
       <c r="U31" s="6">
-        <f>B31/$G31*100</f>
+        <f t="shared" si="1"/>
         <v>76.337957411189066</v>
       </c>
       <c r="V31" s="6">
-        <f>C31/$G31*100</f>
+        <f t="shared" si="2"/>
         <v>4.0002998132398346</v>
       </c>
       <c r="W31" s="6">
-        <f>D31/$G31*100</f>
+        <f t="shared" si="3"/>
         <v>19.345223793340232</v>
       </c>
       <c r="X31" s="6">
-        <f>E31/$G31*100</f>
+        <f t="shared" si="4"/>
         <v>5.1299107380319051E-2</v>
       </c>
       <c r="Y31" s="6">
-        <f>F31/$G31*100</f>
+        <f t="shared" si="5"/>
         <v>0.2652198748505501</v>
       </c>
       <c r="AC31">
@@ -40741,16 +40741,16 @@
         <v>10451.49639</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11287.616101200001</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>145.7777778</v>
       </c>
-      <c r="J32" s="11"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>77.430293365330755</v>
       </c>
       <c r="L32" s="6">
@@ -40771,25 +40771,25 @@
         <v>102.7</v>
       </c>
       <c r="S32" s="6"/>
-      <c r="T32" s="11"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="6">
-        <f>B32/$G32*100</f>
+        <f t="shared" si="1"/>
         <v>76.544063179837167</v>
       </c>
       <c r="V32" s="6">
-        <f>C32/$G32*100</f>
+        <f t="shared" si="2"/>
         <v>4.0111002707814167</v>
       </c>
       <c r="W32" s="6">
-        <f>D32/$G32*100</f>
+        <f t="shared" si="3"/>
         <v>19.148457936749093</v>
       </c>
       <c r="X32" s="6">
-        <f>E32/$G32*100</f>
+        <f t="shared" si="4"/>
         <v>5.1437610456850573E-2</v>
       </c>
       <c r="Y32" s="6">
-        <f>F32/$G32*100</f>
+        <f t="shared" si="5"/>
         <v>0.24494100217547893</v>
       </c>
       <c r="AC32">
@@ -40831,20 +40831,20 @@
         <v>12.327416169999999</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33:G73" si="4">SUM(B33:F33)</f>
+        <f t="shared" ref="G33:G73" si="9">SUM(B33:F33)</f>
         <v>10424.07407517</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11258.0000011836</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
-      <c r="J33" s="11"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>76.585034021657137</v>
       </c>
       <c r="L33" s="6">
@@ -40867,25 +40867,25 @@
         <v>102.7</v>
       </c>
       <c r="S33" s="6"/>
-      <c r="T33" s="11"/>
+      <c r="T33" s="10"/>
       <c r="U33" s="6">
-        <f>B33/$G33*100</f>
+        <f t="shared" si="1"/>
         <v>76.745425467149062</v>
       </c>
       <c r="V33" s="6">
-        <f>C33/$G33*100</f>
+        <f t="shared" si="2"/>
         <v>4.0216521580422793</v>
       </c>
       <c r="W33" s="6">
-        <f>D33/$G33*100</f>
+        <f t="shared" si="3"/>
         <v>19.063090349035079</v>
       </c>
       <c r="X33" s="6">
-        <f>E33/$G33*100</f>
+        <f t="shared" si="4"/>
         <v>5.1572925913924178E-2</v>
       </c>
       <c r="Y33" s="6">
-        <f>F33/$G33*100</f>
+        <f t="shared" si="5"/>
         <v>0.11825909985965789</v>
       </c>
       <c r="AC33">
@@ -40930,20 +40930,20 @@
         <v>10.272846810000001</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10401.461976809998</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11233.578934954799</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
-      <c r="J34" s="11"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>74.394562483144369</v>
       </c>
       <c r="L34" s="6">
@@ -40964,25 +40964,25 @@
         <v>102.7</v>
       </c>
       <c r="S34" s="6"/>
-      <c r="T34" s="11"/>
+      <c r="T34" s="10"/>
       <c r="U34" s="6">
-        <f>B34/$G34*100</f>
+        <f t="shared" si="1"/>
         <v>76.912265005015215</v>
       </c>
       <c r="V34" s="6">
-        <f>C34/$G34*100</f>
+        <f t="shared" si="2"/>
         <v>4.0303949669253107</v>
       </c>
       <c r="W34" s="6">
-        <f>D34/$G34*100</f>
+        <f t="shared" si="3"/>
         <v>18.906891496450292</v>
       </c>
       <c r="X34" s="6">
-        <f>E34/$G34*100</f>
+        <f t="shared" si="4"/>
         <v>5.1685042083370235E-2</v>
       </c>
       <c r="Y34" s="6">
-        <f>F34/$G34*100</f>
+        <f t="shared" si="5"/>
         <v>9.8763489525830653E-2</v>
       </c>
       <c r="AC34">
@@ -41024,20 +41024,20 @@
         <v>8.2182774490000003</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10475.800475448999</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11313.864513484919</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="J35" s="11"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>73.466652684967002</v>
       </c>
       <c r="L35" s="6">
@@ -41062,25 +41062,25 @@
         <v>102.7</v>
       </c>
       <c r="S35" s="6"/>
-      <c r="T35" s="11"/>
+      <c r="T35" s="10"/>
       <c r="U35" s="6">
-        <f>B35/$G35*100</f>
+        <f t="shared" si="1"/>
         <v>77.130144077640864</v>
       </c>
       <c r="V35" s="6">
-        <f>C35/$G35*100</f>
+        <f t="shared" si="2"/>
         <v>4.001794430721362</v>
       </c>
       <c r="W35" s="6">
-        <f>D35/$G35*100</f>
+        <f t="shared" si="3"/>
         <v>18.73829310323768</v>
       </c>
       <c r="X35" s="6">
-        <f>E35/$G35*100</f>
+        <f t="shared" si="4"/>
         <v>5.131827407938086E-2</v>
       </c>
       <c r="Y35" s="6">
-        <f>F35/$G35*100</f>
+        <f t="shared" si="5"/>
         <v>7.845011432071744E-2</v>
       </c>
       <c r="AC35">
@@ -41122,20 +41122,20 @@
         <v>5.7527942139999997</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10209.806922214</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11026.591475991121</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="10"/>
       <c r="K36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>68.916196724944513</v>
       </c>
       <c r="L36" s="6">
@@ -41158,25 +41158,25 @@
         <v>102.7</v>
       </c>
       <c r="S36" s="6"/>
-      <c r="T36" s="11"/>
+      <c r="T36" s="10"/>
       <c r="U36" s="6">
-        <f>B36/$G36*100</f>
+        <f t="shared" si="1"/>
         <v>79.923156844874995</v>
       </c>
       <c r="V36" s="6">
-        <f>C36/$G36*100</f>
+        <f t="shared" si="2"/>
         <v>4.1060521829054526</v>
       </c>
       <c r="W36" s="6">
-        <f>D36/$G36*100</f>
+        <f t="shared" si="3"/>
         <v>15.861789947040645</v>
       </c>
       <c r="X36" s="6">
-        <f>E36/$G36*100</f>
+        <f t="shared" si="4"/>
         <v>5.2655256274270583E-2</v>
       </c>
       <c r="Y36" s="6">
-        <f>F36/$G36*100</f>
+        <f t="shared" si="5"/>
         <v>5.634576890463374E-2</v>
       </c>
       <c r="AC36">
@@ -41218,20 +41218,20 @@
         <v>5.3418803419999996</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10315.377606342001</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11140.607814849362</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="10"/>
       <c r="K37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>68.347287207664792</v>
       </c>
       <c r="L37" s="6">
@@ -41254,25 +41254,25 @@
         <v>102.7</v>
       </c>
       <c r="S37" s="6"/>
-      <c r="T37" s="11"/>
+      <c r="T37" s="10"/>
       <c r="U37" s="6">
-        <f>B37/$G37*100</f>
+        <f t="shared" si="1"/>
         <v>80.391628076722682</v>
       </c>
       <c r="V37" s="6">
-        <f>C37/$G37*100</f>
+        <f t="shared" si="2"/>
         <v>4.0640296070427828</v>
       </c>
       <c r="W37" s="6">
-        <f>D37/$G37*100</f>
+        <f t="shared" si="3"/>
         <v>15.440440348211462</v>
       </c>
       <c r="X37" s="6">
-        <f>E37/$G37*100</f>
+        <f t="shared" si="4"/>
         <v>5.2116366507948091E-2</v>
       </c>
       <c r="Y37" s="6">
-        <f>F37/$G37*100</f>
+        <f t="shared" si="5"/>
         <v>5.1785601515118136E-2</v>
       </c>
       <c r="AC37">
@@ -41314,20 +41314,20 @@
         <v>4.5200525970000003</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10150.433136596999</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10962.46778752476</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="10"/>
       <c r="K38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>64.48510463249859</v>
       </c>
       <c r="L38" s="6">
@@ -41352,25 +41352,25 @@
         <v>102.7</v>
       </c>
       <c r="S38" s="6"/>
-      <c r="T38" s="11"/>
+      <c r="T38" s="10"/>
       <c r="U38" s="6">
-        <f>B38/$G38*100</f>
+        <f t="shared" si="1"/>
         <v>81.037551691687796</v>
       </c>
       <c r="V38" s="6">
-        <f>C38/$G38*100</f>
+        <f t="shared" si="2"/>
         <v>4.1300700606412377</v>
       </c>
       <c r="W38" s="6">
-        <f>D38/$G38*100</f>
+        <f t="shared" si="3"/>
         <v>14.73082383656083</v>
       </c>
       <c r="X38" s="6">
-        <f>E38/$G38*100</f>
+        <f t="shared" si="4"/>
         <v>5.7023773489340179E-2</v>
       </c>
       <c r="Y38" s="6">
-        <f>F38/$G38*100</f>
+        <f t="shared" si="5"/>
         <v>4.4530637620803816E-2</v>
       </c>
       <c r="AC38">
@@ -41415,20 +41415,20 @@
         <v>4.0997570090000002</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10000.933893009</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10801.00860444972</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="J39" s="11"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>61.720049168284113</v>
       </c>
       <c r="L39" s="6">
@@ -41451,25 +41451,25 @@
         <v>102.7</v>
       </c>
       <c r="S39" s="6"/>
-      <c r="T39" s="11"/>
+      <c r="T39" s="10"/>
       <c r="U39" s="6">
-        <f>B39/$G39*100</f>
+        <f t="shared" si="1"/>
         <v>81.581256183518477</v>
       </c>
       <c r="V39" s="6">
-        <f>C39/$G39*100</f>
+        <f t="shared" si="2"/>
         <v>4.1918085299318832</v>
       </c>
       <c r="W39" s="6">
-        <f>D39/$G39*100</f>
+        <f t="shared" si="3"/>
         <v>14.123944134731307</v>
       </c>
       <c r="X39" s="6">
-        <f>E39/$G39*100</f>
+        <f t="shared" si="4"/>
         <v>6.1997410105212668E-2</v>
       </c>
       <c r="Y39" s="6">
-        <f>F39/$G39*100</f>
+        <f t="shared" si="5"/>
         <v>4.099374171312014E-2</v>
       </c>
       <c r="AC39">
@@ -41511,20 +41511,20 @@
         <v>4.079110301</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10100.073846300998</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10908.079754005079</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
-      <c r="J40" s="11"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>61.62756923166711</v>
       </c>
       <c r="L40" s="6">
@@ -41547,25 +41547,25 @@
         <v>102.7</v>
       </c>
       <c r="S40" s="6"/>
-      <c r="T40" s="11"/>
+      <c r="T40" s="10"/>
       <c r="U40" s="6">
-        <f>B40/$G40*100</f>
+        <f t="shared" si="1"/>
         <v>82.076132572396958</v>
       </c>
       <c r="V40" s="6">
-        <f>C40/$G40*100</f>
+        <f t="shared" si="2"/>
         <v>4.1506627216743874</v>
       </c>
       <c r="W40" s="6">
-        <f>D40/$G40*100</f>
+        <f t="shared" si="3"/>
         <v>13.661493143491606</v>
       </c>
       <c r="X40" s="6">
-        <f>E40/$G40*100</f>
+        <f t="shared" si="4"/>
         <v>7.1324627023774678E-2</v>
       </c>
       <c r="Y40" s="6">
-        <f>F40/$G40*100</f>
+        <f t="shared" si="5"/>
         <v>4.0386935413288229E-2</v>
       </c>
       <c r="AC40">
@@ -41607,20 +41607,20 @@
         <v>4.3128338230000001</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10134.439229122998</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>10945.194367452839</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
-      <c r="J41" s="11"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>59.484751997026301</v>
       </c>
       <c r="L41" s="6">
@@ -41643,25 +41643,25 @@
         <v>102.7</v>
       </c>
       <c r="S41" s="6"/>
-      <c r="T41" s="11"/>
+      <c r="T41" s="10"/>
       <c r="U41" s="6">
-        <f>B41/$G41*100</f>
+        <f t="shared" si="1"/>
         <v>82.393804049901973</v>
       </c>
       <c r="V41" s="6">
-        <f>C41/$G41*100</f>
+        <f t="shared" si="2"/>
         <v>4.0540477772005357</v>
       </c>
       <c r="W41" s="6">
-        <f>D41/$G41*100</f>
+        <f t="shared" si="3"/>
         <v>13.436033669105482</v>
       </c>
       <c r="X41" s="6">
-        <f>E41/$G41*100</f>
+        <f t="shared" si="4"/>
         <v>7.3558288045949521E-2</v>
       </c>
       <c r="Y41" s="6">
-        <f>F41/$G41*100</f>
+        <f t="shared" si="5"/>
         <v>4.255621574607063E-2</v>
       </c>
       <c r="AC41">
@@ -41703,20 +41703,20 @@
         <v>4.1473098100000003</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10365.696155509999</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11194.951847950799</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
-      <c r="J42" s="11"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>58.307040874743741</v>
       </c>
       <c r="L42" s="6">
@@ -41739,25 +41739,25 @@
         <v>102.7</v>
       </c>
       <c r="S42" s="6"/>
-      <c r="T42" s="11"/>
+      <c r="T42" s="10"/>
       <c r="U42" s="6">
-        <f>B42/$G42*100</f>
+        <f t="shared" si="1"/>
         <v>83.038320541786177</v>
       </c>
       <c r="V42" s="6">
-        <f>C42/$G42*100</f>
+        <f t="shared" si="2"/>
         <v>3.8795336142111183</v>
       </c>
       <c r="W42" s="6">
-        <f>D42/$G42*100</f>
+        <f t="shared" si="3"/>
         <v>12.962439172845809</v>
       </c>
       <c r="X42" s="6">
-        <f>E42/$G42*100</f>
+        <f t="shared" si="4"/>
         <v>7.9696721532867928E-2</v>
       </c>
       <c r="Y42" s="6">
-        <f>F42/$G42*100</f>
+        <f t="shared" si="5"/>
         <v>4.0009949624034202E-2</v>
       </c>
       <c r="AC42">
@@ -41799,20 +41799,20 @@
         <v>3.5949654450000001</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10605.058052745</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11453.462696964601</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>202.52588490000002</v>
       </c>
-      <c r="J43" s="11"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>56.553080622854253</v>
       </c>
       <c r="L43" s="6">
@@ -41839,25 +41839,25 @@
       <c r="S43" s="6">
         <v>76</v>
       </c>
-      <c r="T43" s="11"/>
+      <c r="T43" s="10"/>
       <c r="U43" s="6">
-        <f>B43/$G43*100</f>
+        <f t="shared" si="1"/>
         <v>83.90453834146453</v>
       </c>
       <c r="V43" s="6">
-        <f>C43/$G43*100</f>
+        <f t="shared" si="2"/>
         <v>3.5837048831772056</v>
       </c>
       <c r="W43" s="6">
-        <f>D43/$G43*100</f>
+        <f t="shared" si="3"/>
         <v>12.400298211093826</v>
       </c>
       <c r="X43" s="6">
-        <f>E43/$G43*100</f>
+        <f t="shared" si="4"/>
         <v>7.7559971469189443E-2</v>
       </c>
       <c r="Y43" s="6">
-        <f>F43/$G43*100</f>
+        <f t="shared" si="5"/>
         <v>3.3898592795250981E-2</v>
       </c>
       <c r="AC43">
@@ -41902,20 +41902,20 @@
         <v>3.3412788689999999</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10597.359347469001</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11445.148095266521</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>208.94864799999999</v>
       </c>
-      <c r="J44" s="11"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>54.774932524409159</v>
       </c>
       <c r="L44" s="6">
@@ -41940,25 +41940,25 @@
       <c r="S44" s="6">
         <v>76</v>
       </c>
-      <c r="T44" s="11"/>
+      <c r="T44" s="10"/>
       <c r="U44" s="6">
-        <f>B44/$G44*100</f>
+        <f t="shared" si="1"/>
         <v>84.21673463523274</v>
       </c>
       <c r="V44" s="6">
-        <f>C44/$G44*100</f>
+        <f t="shared" si="2"/>
         <v>3.4667159011432651</v>
       </c>
       <c r="W44" s="6">
-        <f>D44/$G44*100</f>
+        <f t="shared" si="3"/>
         <v>12.206981046735558</v>
       </c>
       <c r="X44" s="6">
-        <f>E44/$G44*100</f>
+        <f t="shared" si="4"/>
         <v>7.80390635896967E-2</v>
       </c>
       <c r="Y44" s="6">
-        <f>F44/$G44*100</f>
+        <f t="shared" si="5"/>
         <v>3.1529353298734818E-2</v>
       </c>
       <c r="AC44">
@@ -42000,20 +42000,20 @@
         <v>3.0936340219999998</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10588.791685022001</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11435.895019823762</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>213.6288232</v>
       </c>
-      <c r="J45" s="11"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>53.531610802899195</v>
       </c>
       <c r="L45" s="6">
@@ -42038,25 +42038,25 @@
       <c r="S45" s="6">
         <v>76</v>
       </c>
-      <c r="T45" s="11"/>
+      <c r="T45" s="10"/>
       <c r="U45" s="6">
-        <f>B45/$G45*100</f>
+        <f t="shared" si="1"/>
         <v>84.528058217073166</v>
       </c>
       <c r="V45" s="6">
-        <f>C45/$G45*100</f>
+        <f t="shared" si="2"/>
         <v>3.3498316951662934</v>
       </c>
       <c r="W45" s="6">
-        <f>D45/$G45*100</f>
+        <f t="shared" si="3"/>
         <v>12.01436867248519</v>
       </c>
       <c r="X45" s="6">
-        <f>E45/$G45*100</f>
+        <f t="shared" si="4"/>
         <v>7.8525295872630296E-2</v>
       </c>
       <c r="Y45" s="6">
-        <f>F45/$G45*100</f>
+        <f t="shared" si="5"/>
         <v>2.9216119402707581E-2</v>
       </c>
       <c r="AC45">
@@ -42098,20 +42098,20 @@
         <v>2.8988638820000001</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10529.900575282001</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11372.292621304561</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>217.3311205</v>
       </c>
-      <c r="J46" s="11"/>
+      <c r="J46" s="10"/>
       <c r="K46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>52.327032571962292</v>
       </c>
       <c r="L46" s="6">
@@ -42136,25 +42136,25 @@
       <c r="S46" s="6">
         <v>76</v>
       </c>
-      <c r="T46" s="11"/>
+      <c r="T46" s="10"/>
       <c r="U46" s="6">
-        <f>B46/$G46*100</f>
+        <f t="shared" si="1"/>
         <v>84.908921371848351</v>
       </c>
       <c r="V46" s="6">
-        <f>C46/$G46*100</f>
+        <f t="shared" si="2"/>
         <v>3.3095852226569278</v>
       </c>
       <c r="W46" s="6">
-        <f>D46/$G46*100</f>
+        <f t="shared" si="3"/>
         <v>11.674318377570039</v>
       </c>
       <c r="X46" s="6">
-        <f>E46/$G46*100</f>
+        <f t="shared" si="4"/>
         <v>7.9645196457853534E-2</v>
       </c>
       <c r="Y46" s="6">
-        <f>F46/$G46*100</f>
+        <f t="shared" si="5"/>
         <v>2.7529831466830974E-2</v>
       </c>
       <c r="AC46">
@@ -42196,20 +42196,20 @@
         <v>2.692895407</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10467.848267107001</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11305.276128475562</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>220.40369699999999</v>
       </c>
-      <c r="J47" s="11"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>51.293495900277762</v>
       </c>
       <c r="L47" s="6">
@@ -42234,25 +42234,25 @@
       <c r="S47" s="6">
         <v>76</v>
       </c>
-      <c r="T47" s="11"/>
+      <c r="T47" s="10"/>
       <c r="U47" s="6">
-        <f>B47/$G47*100</f>
+        <f t="shared" si="1"/>
         <v>85.289734548926845</v>
       </c>
       <c r="V47" s="6">
-        <f>C47/$G47*100</f>
+        <f t="shared" si="2"/>
         <v>3.269873215258186</v>
       </c>
       <c r="W47" s="6">
-        <f>D47/$G47*100</f>
+        <f t="shared" si="3"/>
         <v>11.333864751632367</v>
       </c>
       <c r="X47" s="6">
-        <f>E47/$G47*100</f>
+        <f t="shared" si="4"/>
         <v>8.0802088300976141E-2</v>
       </c>
       <c r="Y47" s="6">
-        <f>F47/$G47*100</f>
+        <f t="shared" si="5"/>
         <v>2.5725395881614505E-2</v>
       </c>
       <c r="AC47">
@@ -42294,20 +42294,20 @@
         <v>2.542951049</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10450.506525882</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11286.547047952561</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>223.03538889999999</v>
       </c>
-      <c r="J48" s="11"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>50.604287972492969</v>
       </c>
       <c r="L48" s="6">
@@ -42334,25 +42334,25 @@
       <c r="S48" s="6">
         <v>76</v>
       </c>
-      <c r="T48" s="11"/>
+      <c r="T48" s="10"/>
       <c r="U48" s="6">
-        <f>B48/$G48*100</f>
+        <f t="shared" si="1"/>
         <v>85.602868251833215</v>
       </c>
       <c r="V48" s="6">
-        <f>C48/$G48*100</f>
+        <f t="shared" si="2"/>
         <v>3.2152632857347685</v>
       </c>
       <c r="W48" s="6">
-        <f>D48/$G48*100</f>
+        <f t="shared" si="3"/>
         <v>11.079113975313099</v>
       </c>
       <c r="X48" s="6">
-        <f>E48/$G48*100</f>
+        <f t="shared" si="4"/>
         <v>7.8421206787470277E-2</v>
       </c>
       <c r="Y48" s="6">
-        <f>F48/$G48*100</f>
+        <f t="shared" si="5"/>
         <v>2.4333280331456285E-2</v>
       </c>
       <c r="AC48">
@@ -42397,20 +42397,20 @@
         <v>2.4012622069999998</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10432.239708074001</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11266.818884719922</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>225.34045020000002</v>
       </c>
-      <c r="J49" s="11"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>49.999096366054566</v>
       </c>
       <c r="L49" s="6">
@@ -42435,25 +42435,25 @@
       <c r="S49" s="6">
         <v>76</v>
       </c>
-      <c r="T49" s="11"/>
+      <c r="T49" s="10"/>
       <c r="U49" s="6">
-        <f>B49/$G49*100</f>
+        <f t="shared" si="1"/>
         <v>85.915714974064144</v>
       </c>
       <c r="V49" s="6">
-        <f>C49/$G49*100</f>
+        <f t="shared" si="2"/>
         <v>3.160752066929605</v>
       </c>
       <c r="W49" s="6">
-        <f>D49/$G49*100</f>
+        <f t="shared" si="3"/>
         <v>10.824476101004771</v>
       </c>
       <c r="X49" s="6">
-        <f>E49/$G49*100</f>
+        <f t="shared" si="4"/>
         <v>7.6039152559546713E-2</v>
       </c>
       <c r="Y49" s="6">
-        <f>F49/$G49*100</f>
+        <f t="shared" si="5"/>
         <v>2.3017705441924899E-2</v>
       </c>
       <c r="AC49">
@@ -42495,20 +42495,20 @@
         <v>2.2668844890000002</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10413.046868489</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11246.090617968121</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>227.39342440000001</v>
       </c>
-      <c r="J50" s="11"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>49.456533968130522</v>
       </c>
       <c r="L50" s="6">
@@ -42533,25 +42533,25 @@
       <c r="S50" s="6">
         <v>76</v>
       </c>
-      <c r="T50" s="11"/>
+      <c r="T50" s="10"/>
       <c r="U50" s="6">
-        <f>B50/$G50*100</f>
+        <f t="shared" ref="U50:U73" si="10">B50/$G50*100</f>
         <v>86.228364410530219</v>
       </c>
       <c r="V50" s="6">
-        <f>C50/$G50*100</f>
+        <f t="shared" ref="V50:V73" si="11">C50/$G50*100</f>
         <v>3.1063258341690014</v>
       </c>
       <c r="W50" s="6">
-        <f>D50/$G50*100</f>
+        <f t="shared" ref="W50:W73" si="12">D50/$G50*100</f>
         <v>10.569884807977541</v>
       </c>
       <c r="X50" s="6">
-        <f>E50/$G50*100</f>
+        <f t="shared" ref="X50:X73" si="13">E50/$G50*100</f>
         <v>7.3655291259751454E-2</v>
       </c>
       <c r="Y50" s="6">
-        <f>F50/$G50*100</f>
+        <f t="shared" ref="Y50:Y73" si="14">F50/$G50*100</f>
         <v>2.176965606348932E-2</v>
       </c>
       <c r="AC50">
@@ -42593,20 +42593,20 @@
         <v>2.1296348279999999</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10451.590593794999</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11287.7178412986</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>229.24571610000004</v>
       </c>
-      <c r="J51" s="11"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>49.238511555761185</v>
       </c>
       <c r="L51" s="6">
@@ -42631,25 +42631,25 @@
       <c r="S51" s="6">
         <v>76</v>
       </c>
-      <c r="T51" s="11"/>
+      <c r="T51" s="10"/>
       <c r="U51" s="6">
-        <f>B51/$G51*100</f>
+        <f t="shared" si="10"/>
         <v>86.494676220545756</v>
       </c>
       <c r="V51" s="6">
-        <f>C51/$G51*100</f>
+        <f t="shared" si="11"/>
         <v>3.0656414487783619</v>
       </c>
       <c r="W51" s="6">
-        <f>D51/$G51*100</f>
+        <f t="shared" si="12"/>
         <v>10.34855149839229</v>
       </c>
       <c r="X51" s="6">
-        <f>E51/$G51*100</f>
+        <f t="shared" si="13"/>
         <v>7.0754653089744324E-2</v>
       </c>
       <c r="Y51" s="6">
-        <f>F51/$G51*100</f>
+        <f t="shared" si="14"/>
         <v>2.0376179193857268E-2</v>
       </c>
       <c r="AC51">
@@ -42691,20 +42691,20 @@
         <v>1.9927764130000001</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10489.356934446001</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11328.505489201681</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>230.93431240000001</v>
       </c>
-      <c r="J52" s="11"/>
+      <c r="J52" s="10"/>
       <c r="K52" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>49.055098705209474</v>
       </c>
       <c r="L52" s="6">
@@ -42729,25 +42729,25 @@
       <c r="S52" s="6">
         <v>76</v>
       </c>
-      <c r="T52" s="11"/>
+      <c r="T52" s="10"/>
       <c r="U52" s="6">
-        <f>B52/$G52*100</f>
+        <f t="shared" si="10"/>
         <v>86.75804596862676</v>
       </c>
       <c r="V52" s="6">
-        <f>C52/$G52*100</f>
+        <f t="shared" si="11"/>
         <v>3.0254802432915886</v>
       </c>
       <c r="W52" s="6">
-        <f>D52/$G52*100</f>
+        <f t="shared" si="12"/>
         <v>10.129595347363569</v>
       </c>
       <c r="X52" s="6">
-        <f>E52/$G52*100</f>
+        <f t="shared" si="13"/>
         <v>6.7880360802843209E-2</v>
       </c>
       <c r="Y52" s="6">
-        <f>F52/$G52*100</f>
+        <f t="shared" si="14"/>
         <v>1.8998079915232183E-2</v>
       </c>
       <c r="AC52">
@@ -42789,20 +42789,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>232.48673840000001</v>
       </c>
-      <c r="J53" s="11"/>
+      <c r="J53" s="10"/>
       <c r="K53" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>48.89936363073739</v>
       </c>
       <c r="L53" s="6">
@@ -42829,25 +42829,25 @@
       <c r="S53" s="6">
         <v>76</v>
       </c>
-      <c r="T53" s="11"/>
+      <c r="T53" s="10"/>
       <c r="U53" s="6">
-        <f>B53/$G53*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V53" s="6">
-        <f>C53/$G53*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W53" s="6">
-        <f>D53/$G53*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X53" s="6">
-        <f>E53/$G53*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y53" s="6">
-        <f>F53/$G53*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC53">
@@ -42892,20 +42892,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>233.92404590000001</v>
       </c>
-      <c r="J54" s="11"/>
+      <c r="J54" s="10"/>
       <c r="K54" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>48.598909601647406</v>
       </c>
       <c r="L54" s="6">
@@ -42926,25 +42926,25 @@
       <c r="S54" s="6">
         <v>76</v>
       </c>
-      <c r="T54" s="11"/>
+      <c r="T54" s="10"/>
       <c r="U54" s="6">
-        <f>B54/$G54*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V54" s="6">
-        <f>C54/$G54*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W54" s="6">
-        <f>D54/$G54*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X54" s="6">
-        <f>E54/$G54*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y54" s="6">
-        <f>F54/$G54*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC54">
@@ -42986,20 +42986,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>235.2627057</v>
       </c>
-      <c r="J55" s="11"/>
+      <c r="J55" s="10"/>
       <c r="K55" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>48.322378706476464</v>
       </c>
       <c r="L55" s="6">
@@ -43020,25 +43020,25 @@
       <c r="S55" s="6">
         <v>76</v>
       </c>
-      <c r="T55" s="11"/>
+      <c r="T55" s="10"/>
       <c r="U55" s="6">
-        <f>B55/$G55*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V55" s="6">
-        <f>C55/$G55*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W55" s="6">
-        <f>D55/$G55*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X55" s="6">
-        <f>E55/$G55*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y55" s="6">
-        <f>F55/$G55*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC55">
@@ -43080,20 +43080,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>236.51585300000002</v>
       </c>
-      <c r="J56" s="11"/>
+      <c r="J56" s="10"/>
       <c r="K56" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>48.066349109992714</v>
       </c>
       <c r="L56" s="6">
@@ -43114,25 +43114,25 @@
       <c r="S56" s="6">
         <v>76</v>
       </c>
-      <c r="T56" s="11"/>
+      <c r="T56" s="10"/>
       <c r="U56" s="6">
-        <f>B56/$G56*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V56" s="6">
-        <f>C56/$G56*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W56" s="6">
-        <f>D56/$G56*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X56" s="6">
-        <f>E56/$G56*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y56" s="6">
-        <f>F56/$G56*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC56">
@@ -43174,20 +43174,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>237.69413579999997</v>
       </c>
-      <c r="J57" s="11"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>47.828077550517847</v>
       </c>
       <c r="L57" s="6">
@@ -43208,25 +43208,25 @@
       <c r="S57" s="6">
         <v>76</v>
       </c>
-      <c r="T57" s="11"/>
+      <c r="T57" s="10"/>
       <c r="U57" s="6">
-        <f>B57/$G57*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V57" s="6">
-        <f>C57/$G57*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W57" s="6">
-        <f>D57/$G57*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X57" s="6">
-        <f>E57/$G57*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y57" s="6">
-        <f>F57/$G57*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC57">
@@ -43268,20 +43268,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>238.80630870000002</v>
       </c>
-      <c r="J58" s="11"/>
+      <c r="J58" s="10"/>
       <c r="K58" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>47.605331794761412</v>
       </c>
       <c r="L58" s="6">
@@ -43302,25 +43302,25 @@
       <c r="S58" s="6">
         <v>76</v>
       </c>
-      <c r="T58" s="11"/>
+      <c r="T58" s="10"/>
       <c r="U58" s="6">
-        <f>B58/$G58*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V58" s="6">
-        <f>C58/$G58*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W58" s="6">
-        <f>D58/$G58*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X58" s="6">
-        <f>E58/$G58*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y58" s="6">
-        <f>F58/$G58*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC58">
@@ -43365,20 +43365,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>239.85965880000001</v>
       </c>
-      <c r="J59" s="11"/>
+      <c r="J59" s="10"/>
       <c r="K59" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>47.396271708303281</v>
       </c>
       <c r="L59" s="6">
@@ -43399,25 +43399,25 @@
       <c r="S59" s="6">
         <v>76</v>
       </c>
-      <c r="T59" s="11"/>
+      <c r="T59" s="10"/>
       <c r="U59" s="6">
-        <f>B59/$G59*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V59" s="6">
-        <f>C59/$G59*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W59" s="6">
-        <f>D59/$G59*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X59" s="6">
-        <f>E59/$G59*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y59" s="6">
-        <f>F59/$G59*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC59">
@@ -43459,20 +43459,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>240.86031829999999</v>
       </c>
-      <c r="J60" s="11"/>
+      <c r="J60" s="10"/>
       <c r="K60" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>47.199362853062041</v>
       </c>
       <c r="L60" s="6">
@@ -43493,25 +43493,25 @@
       <c r="S60" s="6">
         <v>76</v>
       </c>
-      <c r="T60" s="11"/>
+      <c r="T60" s="10"/>
       <c r="U60" s="6">
-        <f>B60/$G60*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V60" s="6">
-        <f>C60/$G60*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W60" s="6">
-        <f>D60/$G60*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X60" s="6">
-        <f>E60/$G60*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y60" s="6">
-        <f>F60/$G60*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC60">
@@ -43553,20 +43553,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>241.81349740000002</v>
       </c>
-      <c r="J61" s="11"/>
+      <c r="J61" s="10"/>
       <c r="K61" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>47.013312666912029</v>
       </c>
       <c r="L61" s="6">
@@ -43587,25 +43587,25 @@
       <c r="S61" s="6">
         <v>76</v>
       </c>
-      <c r="T61" s="11"/>
+      <c r="T61" s="10"/>
       <c r="U61" s="6">
-        <f>B61/$G61*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V61" s="6">
-        <f>C61/$G61*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W61" s="6">
-        <f>D61/$G61*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X61" s="6">
-        <f>E61/$G61*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y61" s="6">
-        <f>F61/$G61*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC61">
@@ -43647,20 +43647,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>242.72366120000004</v>
       </c>
-      <c r="J62" s="11"/>
+      <c r="J62" s="10"/>
       <c r="K62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.837022415290257</v>
       </c>
       <c r="L62" s="6">
@@ -43681,25 +43681,25 @@
       <c r="S62" s="6">
         <v>76</v>
       </c>
-      <c r="T62" s="11"/>
+      <c r="T62" s="10"/>
       <c r="U62" s="6">
-        <f>B62/$G62*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V62" s="6">
-        <f>C62/$G62*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W62" s="6">
-        <f>D62/$G62*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X62" s="6">
-        <f>E62/$G62*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y62" s="6">
-        <f>F62/$G62*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC62">
@@ -43741,20 +43741,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>243.59466650000002</v>
       </c>
-      <c r="J63" s="11"/>
+      <c r="J63" s="10"/>
       <c r="K63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.669550379280238</v>
       </c>
       <c r="L63" s="6">
@@ -43775,25 +43775,25 @@
       <c r="S63" s="6">
         <v>76</v>
       </c>
-      <c r="T63" s="11"/>
+      <c r="T63" s="10"/>
       <c r="U63" s="6">
-        <f>B63/$G63*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V63" s="6">
-        <f>C63/$G63*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W63" s="6">
-        <f>D63/$G63*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X63" s="6">
-        <f>E63/$G63*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y63" s="6">
-        <f>F63/$G63*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC63">
@@ -43838,20 +43838,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>244.42986730000001</v>
       </c>
-      <c r="J64" s="11"/>
+      <c r="J64" s="10"/>
       <c r="K64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.510083591350536</v>
       </c>
       <c r="L64" s="6">
@@ -43872,25 +43872,25 @@
       <c r="S64" s="6">
         <v>76</v>
       </c>
-      <c r="T64" s="11"/>
+      <c r="T64" s="10"/>
       <c r="U64" s="6">
-        <f>B64/$G64*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V64" s="6">
-        <f>C64/$G64*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W64" s="6">
-        <f>D64/$G64*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X64" s="6">
-        <f>E64/$G64*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y64" s="6">
-        <f>F64/$G64*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC64">
@@ -43932,20 +43932,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>245.23219999999998</v>
       </c>
-      <c r="J65" s="11"/>
+      <c r="J65" s="10"/>
       <c r="K65" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.357915315956554</v>
       </c>
       <c r="L65" s="6">
@@ -43966,25 +43966,25 @@
       <c r="S65" s="6">
         <v>76</v>
       </c>
-      <c r="T65" s="11"/>
+      <c r="T65" s="10"/>
       <c r="U65" s="6">
-        <f>B65/$G65*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V65" s="6">
-        <f>C65/$G65*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W65" s="6">
-        <f>D65/$G65*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X65" s="6">
-        <f>E65/$G65*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y65" s="6">
-        <f>F65/$G65*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC65">
@@ -44026,20 +44026,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>246.00424960000001</v>
       </c>
-      <c r="J66" s="11"/>
+      <c r="J66" s="10"/>
       <c r="K66" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.212427544770833</v>
       </c>
       <c r="L66" s="6">
@@ -44060,25 +44060,25 @@
       <c r="S66" s="6">
         <v>76</v>
       </c>
-      <c r="T66" s="11"/>
+      <c r="T66" s="10"/>
       <c r="U66" s="6">
-        <f>B66/$G66*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V66" s="6">
-        <f>C66/$G66*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W66" s="6">
-        <f>D66/$G66*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X66" s="6">
-        <f>E66/$G66*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y66" s="6">
-        <f>F66/$G66*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC66">
@@ -44120,20 +44120,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>246.74830409999998</v>
       </c>
-      <c r="J67" s="11"/>
+      <c r="J67" s="10"/>
       <c r="K67" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>46.073076780857676</v>
       </c>
       <c r="L67" s="6">
@@ -44154,25 +44154,25 @@
       <c r="S67" s="6">
         <v>76</v>
       </c>
-      <c r="T67" s="11"/>
+      <c r="T67" s="10"/>
       <c r="U67" s="6">
-        <f>B67/$G67*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V67" s="6">
-        <f>C67/$G67*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W67" s="6">
-        <f>D67/$G67*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X67" s="6">
-        <f>E67/$G67*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y67" s="6">
-        <f>F67/$G67*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC67">
@@ -44214,20 +44214,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>247.46639890000003</v>
       </c>
-      <c r="J68" s="11"/>
+      <c r="J68" s="10"/>
       <c r="K68" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45.93938252174452</v>
       </c>
       <c r="L68" s="6">
@@ -44248,25 +44248,25 @@
       <c r="S68" s="6">
         <v>76</v>
       </c>
-      <c r="T68" s="11"/>
+      <c r="T68" s="10"/>
       <c r="U68" s="6">
-        <f>B68/$G68*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V68" s="6">
-        <f>C68/$G68*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W68" s="6">
-        <f>D68/$G68*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X68" s="6">
-        <f>E68/$G68*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y68" s="6">
-        <f>F68/$G68*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC68">
@@ -44311,20 +44311,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>248.16035240000002</v>
       </c>
-      <c r="J69" s="11"/>
+      <c r="J69" s="10"/>
       <c r="K69" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45.810918022961822</v>
       </c>
       <c r="L69" s="6">
@@ -44345,25 +44345,25 @@
       <c r="S69" s="6">
         <v>76</v>
       </c>
-      <c r="T69" s="11"/>
+      <c r="T69" s="10"/>
       <c r="U69" s="6">
-        <f>B69/$G69*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V69" s="6">
-        <f>C69/$G69*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W69" s="6">
-        <f>D69/$G69*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X69" s="6">
-        <f>E69/$G69*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y69" s="6">
-        <f>F69/$G69*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC69">
@@ -44405,20 +44405,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>248.83179619999999</v>
       </c>
-      <c r="J70" s="11"/>
+      <c r="J70" s="10"/>
       <c r="K70" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45.687302563247421</v>
       </c>
       <c r="L70" s="6">
@@ -44439,25 +44439,25 @@
       <c r="S70" s="6">
         <v>76</v>
       </c>
-      <c r="T70" s="11"/>
+      <c r="T70" s="10"/>
       <c r="U70" s="6">
-        <f>B70/$G70*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V70" s="6">
-        <f>C70/$G70*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W70" s="6">
-        <f>D70/$G70*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X70" s="6">
-        <f>E70/$G70*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y70" s="6">
-        <f>F70/$G70*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC70">
@@ -44499,20 +44499,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>249.4822001</v>
       </c>
-      <c r="J71" s="11"/>
+      <c r="J71" s="10"/>
       <c r="K71" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45.56819506878206</v>
       </c>
       <c r="L71" s="6">
@@ -44533,25 +44533,25 @@
       <c r="S71" s="6">
         <v>76</v>
       </c>
-      <c r="T71" s="11"/>
+      <c r="T71" s="10"/>
       <c r="U71" s="6">
-        <f>B71/$G71*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V71" s="6">
-        <f>C71/$G71*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W71" s="6">
-        <f>D71/$G71*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X71" s="6">
-        <f>E71/$G71*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y71" s="6">
-        <f>F71/$G71*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC71">
@@ -44593,20 +44593,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I72" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>250.11289269999997</v>
       </c>
-      <c r="J72" s="11"/>
+      <c r="J72" s="10"/>
       <c r="K72" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45.453288863368215</v>
       </c>
       <c r="L72" s="6">
@@ -44627,25 +44627,25 @@
       <c r="S72" s="6">
         <v>76</v>
       </c>
-      <c r="T72" s="11"/>
+      <c r="T72" s="10"/>
       <c r="U72" s="6">
-        <f>B72/$G72*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V72" s="6">
-        <f>C72/$G72*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W72" s="6">
-        <f>D72/$G72*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X72" s="6">
-        <f>E72/$G72*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y72" s="6">
-        <f>F72/$G72*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC72">
@@ -44687,20 +44687,20 @@
         <v>1.856311209</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>10526.345889208998</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11368.453560345719</v>
       </c>
       <c r="I73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>250.72507910000002</v>
       </c>
-      <c r="J73" s="11"/>
+      <c r="J73" s="10"/>
       <c r="K73" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>45.342307204184735</v>
       </c>
       <c r="L73" s="6">
@@ -44723,25 +44723,25 @@
       <c r="S73" s="6">
         <v>76</v>
       </c>
-      <c r="T73" s="11"/>
+      <c r="T73" s="10"/>
       <c r="U73" s="6">
-        <f>B73/$G73*100</f>
+        <f t="shared" si="10"/>
         <v>87.018563672605282</v>
       </c>
       <c r="V73" s="6">
-        <f>C73/$G73*100</f>
+        <f t="shared" si="11"/>
         <v>2.9858276871008078</v>
       </c>
       <c r="W73" s="6">
-        <f>D73/$G73*100</f>
+        <f t="shared" si="12"/>
         <v>9.912942240190926</v>
       </c>
       <c r="X73" s="6">
-        <f>E73/$G73*100</f>
+        <f t="shared" si="13"/>
         <v>6.5031494044078014E-2</v>
       </c>
       <c r="Y73" s="6">
-        <f>F73/$G73*100</f>
+        <f t="shared" si="14"/>
         <v>1.7634906058929554E-2</v>
       </c>
       <c r="AC73">
@@ -44796,19 +44796,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -49482,28 +49482,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF334EA-9A50-43B1-8DC3-AE424E8C06D6}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -49574,7 +49574,7 @@
         <v>1996</v>
       </c>
       <c r="B4">
-        <v>99.666666699999993</v>
+        <v>99.6666666666666</v>
       </c>
       <c r="H4">
         <v>92</v>
@@ -49591,7 +49591,7 @@
         <v>1997</v>
       </c>
       <c r="B5">
-        <v>99.333333300000007</v>
+        <v>99.3333333333333</v>
       </c>
       <c r="H5">
         <v>92</v>
@@ -49628,7 +49628,7 @@
         <v>1999</v>
       </c>
       <c r="B7">
-        <v>98.166666700000007</v>
+        <v>98.1666666666666</v>
       </c>
       <c r="H7">
         <v>92</v>
@@ -49645,7 +49645,7 @@
         <v>2000</v>
       </c>
       <c r="B8">
-        <v>97.333333300000007</v>
+        <v>97.3333333333333</v>
       </c>
       <c r="H8">
         <v>92</v>
@@ -49691,7 +49691,7 @@
         <v>2002</v>
       </c>
       <c r="B10">
-        <v>95.666666700000007</v>
+        <v>95.6666666666666</v>
       </c>
       <c r="H10">
         <v>92</v>
@@ -49714,7 +49714,7 @@
         <v>2003</v>
       </c>
       <c r="B11">
-        <v>94.833333300000007</v>
+        <v>94.8333333333333</v>
       </c>
       <c r="H11">
         <v>92</v>
@@ -49763,7 +49763,7 @@
         <v>2005</v>
       </c>
       <c r="B13">
-        <v>86.082000000000008</v>
+        <v>93.768129340000002</v>
       </c>
       <c r="H13">
         <v>92</v>
@@ -49786,7 +49786,7 @@
         <v>2006</v>
       </c>
       <c r="B14">
-        <v>78.164000000000001</v>
+        <v>93.536258679999989</v>
       </c>
       <c r="H14">
         <v>92</v>
@@ -49809,7 +49809,7 @@
         <v>2007</v>
       </c>
       <c r="B15">
-        <v>70.245999999999995</v>
+        <v>93.30438801999999</v>
       </c>
       <c r="H15">
         <v>92</v>
@@ -49832,7 +49832,7 @@
         <v>2008</v>
       </c>
       <c r="B16">
-        <v>62.327999999999996</v>
+        <v>93.072517359999992</v>
       </c>
       <c r="H16">
         <v>92</v>
@@ -49858,7 +49858,7 @@
         <v>2009</v>
       </c>
       <c r="B17">
-        <v>54.410000000000004</v>
+        <v>92.840646699999994</v>
       </c>
       <c r="C17">
         <v>54.410000000000004</v>
@@ -49887,7 +49887,7 @@
         <v>2010</v>
       </c>
       <c r="B18">
-        <v>34.29</v>
+        <v>84.828496000000001</v>
       </c>
       <c r="C18">
         <v>34.29</v>
@@ -49916,7 +49916,7 @@
         <v>2011</v>
       </c>
       <c r="B19">
-        <v>75.63</v>
+        <v>92.755418000000006</v>
       </c>
       <c r="C19">
         <v>75.63</v>
@@ -49945,7 +49945,7 @@
         <v>2012</v>
       </c>
       <c r="B20">
-        <v>75.11</v>
+        <v>90.832328099999899</v>
       </c>
       <c r="C20">
         <v>75.11</v>
@@ -49974,7 +49974,7 @@
         <v>2013</v>
       </c>
       <c r="B21">
-        <v>63.019999999999996</v>
+        <v>84.717097199999998</v>
       </c>
       <c r="C21">
         <v>63.019999999999996</v>
@@ -50003,7 +50003,7 @@
         <v>2014</v>
       </c>
       <c r="B22">
-        <v>29.98</v>
+        <v>59.613632199999998</v>
       </c>
       <c r="C22">
         <v>29.98</v>
@@ -50032,7 +50032,7 @@
         <v>2015</v>
       </c>
       <c r="B23">
-        <v>81.069999999999993</v>
+        <v>91.116584599999996</v>
       </c>
       <c r="C23">
         <v>81.069999999999993</v>
@@ -50058,7 +50058,7 @@
         <v>2016</v>
       </c>
       <c r="B24">
-        <v>77.02</v>
+        <v>85.439676300000002</v>
       </c>
       <c r="C24">
         <v>77.02</v>
@@ -50084,7 +50084,7 @@
         <v>2017</v>
       </c>
       <c r="B25">
-        <v>76.92</v>
+        <v>89.2007105</v>
       </c>
       <c r="C25">
         <v>76.92</v>
@@ -50110,7 +50110,7 @@
         <v>2018</v>
       </c>
       <c r="B26">
-        <v>72.27</v>
+        <v>87.078198799999996</v>
       </c>
       <c r="C26">
         <v>72.27</v>
@@ -50133,7 +50133,7 @@
         <v>2019</v>
       </c>
       <c r="B27">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H27">
         <v>92</v>
@@ -50150,7 +50150,7 @@
         <v>2020</v>
       </c>
       <c r="B28">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="G28">
         <v>73.3</v>
@@ -50170,7 +50170,7 @@
         <v>2021</v>
       </c>
       <c r="B29">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H29">
         <v>92</v>
@@ -50184,7 +50184,7 @@
         <v>2022</v>
       </c>
       <c r="B30">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H30">
         <v>92</v>
@@ -50198,7 +50198,7 @@
         <v>2023</v>
       </c>
       <c r="B31">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H31">
         <v>92</v>
@@ -50212,7 +50212,7 @@
         <v>2024</v>
       </c>
       <c r="B32">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H32">
         <v>92</v>
@@ -50226,7 +50226,7 @@
         <v>2025</v>
       </c>
       <c r="B33">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H33">
         <v>92</v>
@@ -50240,7 +50240,7 @@
         <v>2026</v>
       </c>
       <c r="B34">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H34">
         <v>92</v>
@@ -50254,7 +50254,7 @@
         <v>2027</v>
       </c>
       <c r="B35">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H35">
         <v>92</v>
@@ -50268,7 +50268,7 @@
         <v>2028</v>
       </c>
       <c r="B36">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H36">
         <v>92</v>
@@ -50282,7 +50282,7 @@
         <v>2029</v>
       </c>
       <c r="B37">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H37">
         <v>92</v>
@@ -50296,7 +50296,7 @@
         <v>2030</v>
       </c>
       <c r="B38">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="G38">
         <v>44.8</v>
@@ -50316,7 +50316,7 @@
         <v>2031</v>
       </c>
       <c r="B39">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H39">
         <v>92</v>
@@ -50330,7 +50330,7 @@
         <v>2032</v>
       </c>
       <c r="B40">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H40">
         <v>92</v>
@@ -50344,7 +50344,7 @@
         <v>2033</v>
       </c>
       <c r="B41">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H41">
         <v>92</v>
@@ -50358,7 +50358,7 @@
         <v>2034</v>
       </c>
       <c r="B42">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H42">
         <v>92</v>
@@ -50372,7 +50372,7 @@
         <v>2035</v>
       </c>
       <c r="B43">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H43">
         <v>92</v>
@@ -50386,7 +50386,7 @@
         <v>2036</v>
       </c>
       <c r="B44">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H44">
         <v>92</v>
@@ -50400,7 +50400,7 @@
         <v>2037</v>
       </c>
       <c r="B45">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H45">
         <v>92</v>
@@ -50414,7 +50414,7 @@
         <v>2038</v>
       </c>
       <c r="B46">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H46">
         <v>92</v>
@@ -50428,7 +50428,7 @@
         <v>2039</v>
       </c>
       <c r="B47">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H47">
         <v>92</v>
@@ -50442,7 +50442,7 @@
         <v>2040</v>
       </c>
       <c r="B48">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H48">
         <v>92</v>
@@ -50456,7 +50456,7 @@
         <v>2041</v>
       </c>
       <c r="B49">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H49">
         <v>92</v>
@@ -50470,7 +50470,7 @@
         <v>2042</v>
       </c>
       <c r="B50">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H50">
         <v>92</v>
@@ -50484,7 +50484,7 @@
         <v>2043</v>
       </c>
       <c r="B51">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H51">
         <v>92</v>
@@ -50498,7 +50498,7 @@
         <v>2044</v>
       </c>
       <c r="B52">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H52">
         <v>92</v>
@@ -50512,7 +50512,7 @@
         <v>2045</v>
       </c>
       <c r="B53">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H53">
         <v>92</v>
@@ -50526,7 +50526,7 @@
         <v>2046</v>
       </c>
       <c r="B54">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H54">
         <v>92</v>
@@ -50540,7 +50540,7 @@
         <v>2047</v>
       </c>
       <c r="B55">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H55">
         <v>92</v>
@@ -50554,7 +50554,7 @@
         <v>2048</v>
       </c>
       <c r="B56">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H56">
         <v>92</v>
@@ -50568,7 +50568,7 @@
         <v>2049</v>
       </c>
       <c r="B57">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H57">
         <v>92</v>
@@ -50582,7 +50582,7 @@
         <v>2050</v>
       </c>
       <c r="B58">
-        <v>72.27</v>
+        <v>81.800867599999904</v>
       </c>
       <c r="H58">
         <v>92</v>

--- a/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06108D21-E40C-4A26-B273-EBD69C9FE237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13F1E7-E4EB-470A-866D-76B25C4CCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="MFG Eff" sheetId="3" r:id="rId3"/>
     <sheet name="SF-all on one" sheetId="2" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -126,12 +123,6 @@
     <t>Module Lifetime</t>
   </si>
   <si>
-    <t>Total Mass +plastics</t>
-  </si>
-  <si>
-    <t>Total Mass +plastics g/m^2</t>
-  </si>
-  <si>
     <t>Total Mass g/m^2</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
   </si>
   <si>
     <t>Mass per Power Factor Graphing</t>
-  </si>
-  <si>
-    <t>PV ICE (including +8% for "plastics")</t>
   </si>
   <si>
     <t>IRENA 2016 Fit Equation</t>
@@ -166,6 +154,15 @@
   </si>
   <si>
     <t>Heath et al 2020</t>
+  </si>
+  <si>
+    <t>Encapsulant</t>
+  </si>
+  <si>
+    <t>Backsheets</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -13921,7 +13918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$AC$2</c:f>
+              <c:f>'mass per m2'!$AD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14121,7 +14118,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$AC$18:$AC$73</c:f>
+              <c:f>'mass per m2'!$AD$18:$AD$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -14308,7 +14305,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$AH$1</c:f>
+              <c:f>'mass per m2'!$AI$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14466,7 +14463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$AH$32:$AH$73</c:f>
+              <c:f>'mass per m2'!$AI$32:$AI$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -14921,7 +14918,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$AG$2</c:f>
+              <c:f>'mass per m2'!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15121,7 +15118,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$AG$18:$AG$73</c:f>
+              <c:f>'mass per m2'!$AH$18:$AH$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -15581,7 +15578,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$AD$2</c:f>
+              <c:f>'mass per m2'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15781,7 +15778,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$AD$18:$AD$73</c:f>
+              <c:f>'mass per m2'!$AE$18:$AE$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -15968,7 +15965,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$AE$2</c:f>
+              <c:f>'mass per m2'!$AF$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16168,7 +16165,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$AE$18:$AE$73</c:f>
+              <c:f>'mass per m2'!$AF$18:$AF$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -16355,7 +16352,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$AF$2</c:f>
+              <c:f>'mass per m2'!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16555,7 +16552,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$AF$18:$AF$73</c:f>
+              <c:f>'mass per m2'!$AG$18:$AG$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
@@ -19171,36 +19168,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -19210,17 +19177,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'mass per m2'!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Mass +plastics g/m^2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -19412,183 +19368,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$H$18:$H$73</c:f>
+              <c:f>'mass per m2'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12995.621465688002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12894.281663979602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12529.802365711199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12335.735421802801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12253.938335665202</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12149.924067932401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12079.445007898801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12013.050358728</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11963.559040117201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11876.400025815601</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11594.702875528799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11433.7854051912</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11375.161269944401</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11318.091671566801</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11287.616101200001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11258.0000011836</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11233.578934954799</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11313.864513484919</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11026.591475991121</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11140.607814849362</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10962.46778752476</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10801.00860444972</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10908.079754005079</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10945.194367452839</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11194.951847950799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11567.9029907646</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11532.421625186522</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11581.218548663761</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11634.435621304561</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11531.442422275562</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11428.079989552562</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11595.372355879923</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11760.02661832812</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11925.495606738601</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12122.852017801682</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12317.688854865719</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12513.749090265719</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12513.749090265719</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'mass per m2'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5415-4523-9C4D-B607632C29F8}"/>
             </c:ext>
@@ -19688,7 +19500,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -19816,11 +19628,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$K$2</c:f>
+              <c:f>'mass per m2'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV ICE (including +8% for "plastics")</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20062,177 +19874,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$K$3:$K$73</c:f>
+              <c:f>'mass per m2'!$L$3:$L$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
                 <c:pt idx="15" formatCode="0.00">
-                  <c:v>103.96497172550401</c:v>
+                  <c:v>107.28786270880001</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00">
-                  <c:v>101.52977688172915</c:v>
+                  <c:v>104.85944636905512</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00">
-                  <c:v>97.281074267944078</c:v>
+                  <c:v>100.77382653059004</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00">
-                  <c:v>94.454329416560498</c:v>
+                  <c:v>98.009014107274126</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00">
-                  <c:v>92.55240434792448</c:v>
+                  <c:v>96.104525677416916</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00">
-                  <c:v>90.535946854935929</c:v>
+                  <c:v>94.097836755067078</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00">
-                  <c:v>88.819448587491181</c:v>
+                  <c:v>92.372583114779417</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00">
-                  <c:v>87.544496555514897</c:v>
+                  <c:v>91.101824297668301</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00">
-                  <c:v>86.414150397769248</c:v>
+                  <c:v>89.966553266690724</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00">
-                  <c:v>85.03389037933988</c:v>
+                  <c:v>88.601432130906574</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00">
-                  <c:v>82.296786964928629</c:v>
+                  <c:v>85.981485768250664</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00">
-                  <c:v>80.456660402475748</c:v>
+                  <c:v>84.193545779264554</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00">
-                  <c:v>79.361590273882243</c:v>
+                  <c:v>83.096907447906261</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00">
-                  <c:v>78.295791708518735</c:v>
+                  <c:v>82.02877060997578</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00">
-                  <c:v>77.430293365330755</c:v>
+                  <c:v>81.147459980008009</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00">
-                  <c:v>76.585034021657137</c:v>
+                  <c:v>80.286218198435378</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00">
-                  <c:v>74.394562483144369</c:v>
+                  <c:v>78.009681965629127</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00">
-                  <c:v>73.466652684967002</c:v>
+                  <c:v>76.972730360058435</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00">
-                  <c:v>68.916196724944513</c:v>
+                  <c:v>72.423793263837496</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00">
-                  <c:v>68.347287207664792</c:v>
+                  <c:v>71.751335008233141</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00">
-                  <c:v>64.48510463249859</c:v>
+                  <c:v>67.83948903880588</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00">
-                  <c:v>61.720049168284113</c:v>
+                  <c:v>65.06139367433714</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00">
-                  <c:v>61.62756923166711</c:v>
+                  <c:v>64.859117775711852</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00">
-                  <c:v>59.484751997026301</c:v>
+                  <c:v>62.583664288711944</c:v>
                 </c:pt>
                 <c:pt idx="39" formatCode="0.00">
-                  <c:v>58.307040874743741</c:v>
+                  <c:v>61.192740393281241</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00">
-                  <c:v>57.118145645809243</c:v>
+                  <c:v>59.708250595798276</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00">
-                  <c:v>55.192611847799668</c:v>
+                  <c:v>57.656813225558658</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00">
-                  <c:v>54.211872607758487</c:v>
+                  <c:v>56.512013230160413</c:v>
                 </c:pt>
                 <c:pt idx="43" formatCode="0.00">
-                  <c:v>53.533224300955837</c:v>
+                  <c:v>55.683974515200646</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00">
-                  <c:v>52.31964154519406</c:v>
+                  <c:v>54.303214578596659</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00">
-                  <c:v>51.238864136831886</c:v>
+                  <c:v>53.065446717913204</c:v>
                 </c:pt>
                 <c:pt idx="46" formatCode="0.00">
-                  <c:v>51.457127850718749</c:v>
+                  <c:v>53.071119164179251</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00">
-                  <c:v>51.71665209474773</c:v>
+                  <c:v>53.125467021151898</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00">
-                  <c:v>52.020582149227778</c:v>
+                  <c:v>53.229372262171573</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00">
-                  <c:v>52.494806388076967</c:v>
+                  <c:v>53.630928714887673</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00">
-                  <c:v>52.982328969116452</c:v>
+                  <c:v>54.048264765492526</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00">
-                  <c:v>53.494924141382249</c:v>
+                  <c:v>54.491707614608238</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
-                  <c:v>53.190534611222567</c:v>
+                  <c:v>54.181646322913124</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00">
-                  <c:v>52.908711748238368</c:v>
+                  <c:v>53.894572188397859</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00">
-                  <c:v>52.646435925516514</c:v>
+                  <c:v>53.627409318732546</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00">
-                  <c:v>52.401250027218055</c:v>
+                  <c:v>53.377654814062275</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00">
-                  <c:v>52.171128537708562</c:v>
+                  <c:v>53.14324541684455</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="0.00">
-                  <c:v>51.954382434550325</c:v>
+                  <c:v>52.922460632690274</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="0.00">
-                  <c:v>51.749588938643413</c:v>
+                  <c:v>52.71385117152272</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="0.00">
-                  <c:v>51.555538625278935</c:v>
+                  <c:v>52.516185073138622</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00">
-                  <c:v>51.371194903668872</c:v>
+                  <c:v>52.32840643171059</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00">
-                  <c:v>51.195662905249705</c:v>
+                  <c:v>52.149603704379203</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00">
-                  <c:v>51.028164695605717</c:v>
+                  <c:v>51.978984461294232</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00">
-                  <c:v>50.868020006210976</c:v>
+                  <c:v>51.815855758326691</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00">
-                  <c:v>50.714630586454838</c:v>
+                  <c:v>51.659608197521948</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00">
-                  <c:v>50.567467526459886</c:v>
+                  <c:v>51.509703013700729</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00">
-                  <c:v>50.426061090110373</c:v>
+                  <c:v>51.365661718044031</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00">
-                  <c:v>50.289992201027722</c:v>
+                  <c:v>51.227057425424789</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00">
-                  <c:v>50.158885424490528</c:v>
+                  <c:v>51.093507705558338</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="0.00">
-                  <c:v>50.032403188729027</c:v>
+                  <c:v>50.964668696620926</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00">
-                  <c:v>49.910240870936946</c:v>
+                  <c:v>50.840230099698061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20249,7 +20061,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$L$2</c:f>
+              <c:f>'mass per m2'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20494,7 +20306,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$L$3:$L$73</c:f>
+              <c:f>'mass per m2'!$M$3:$M$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -20726,7 +20538,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$M$2</c:f>
+              <c:f>'mass per m2'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20997,7 +20809,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$M$3:$M$73</c:f>
+              <c:f>'mass per m2'!$N$3:$N$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -21052,7 +20864,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$N$2</c:f>
+              <c:f>'mass per m2'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21588,7 +21400,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$N$3:$N$73</c:f>
+              <c:f>'mass per m2'!$O$3:$O$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -21679,7 +21491,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$O$2</c:f>
+              <c:f>'mass per m2'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22365,7 +22177,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$O$3:$O$73</c:f>
+              <c:f>'mass per m2'!$P$3:$P$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -22501,7 +22313,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$P$2</c:f>
+              <c:f>'mass per m2'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23257,7 +23069,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$P$3:$P$73</c:f>
+              <c:f>'mass per m2'!$Q$3:$Q$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -23414,7 +23226,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$Q$2</c:f>
+              <c:f>'mass per m2'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23721,7 +23533,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$Q$3:$Q$73</c:f>
+              <c:f>'mass per m2'!$R$3:$R$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -23830,7 +23642,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$R$2</c:f>
+              <c:f>'mass per m2'!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24137,7 +23949,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$R$3:$R$73</c:f>
+              <c:f>'mass per m2'!$S$3:$S$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -24300,7 +24112,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mass per m2'!$S$2</c:f>
+              <c:f>'mass per m2'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24621,7 +24433,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'mass per m2'!$S$3:$S$73</c:f>
+              <c:f>'mass per m2'!$T$3:$T$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="71"/>
@@ -33906,13 +33718,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>93662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -33942,13 +33754,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>160337</xdr:rowOff>
@@ -33978,13 +33790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>179387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>377825</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>65087</xdr:rowOff>
@@ -34014,13 +33826,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>20637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>87312</xdr:rowOff>
@@ -34050,13 +33862,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>360361</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>68262</xdr:rowOff>
@@ -34086,13 +33898,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>484187</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>179387</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
@@ -34122,13 +33934,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>134937</xdr:rowOff>
@@ -34158,13 +33970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>569912</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>39687</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
@@ -34194,16 +34006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>301868</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>84994</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572523</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>207102</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156147</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34508,1109 +34320,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="USInstallsLitCompare"/>
-      <sheetName val="SiliconMarketShareLitCompare"/>
-      <sheetName val="Mass-PowerFactorLitCompare"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>(USA) PV ICE 2021</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>(USA) M. Bolinger et al 2019 [utility scale]</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>(USA) M. A. Green 2006</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>(USA) IEA PVPS T1-1997</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>(USA) A. Goetzberger and C. Hebling 2000</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>(Global) IRENA 2016</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>(North America) CSA Group 2020</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>(Global) P. Mints SPV Market Research 2019</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>(Global) Faunhofer ISE “Photovoltaics Report” 2020</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>(Global) Fraunhofer ISE “Photovoltaics Report” 2014</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>(USA) Mahmoudi et al 2020</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>(USA) Dominguez and Geyer 2019</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1995</v>
-          </cell>
-          <cell r="B3">
-            <v>100</v>
-          </cell>
-          <cell r="E3">
-            <v>100</v>
-          </cell>
-          <cell r="H3">
-            <v>92</v>
-          </cell>
-          <cell r="J3">
-            <v>87</v>
-          </cell>
-          <cell r="K3">
-            <v>86</v>
-          </cell>
-          <cell r="L3">
-            <v>88</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1996</v>
-          </cell>
-          <cell r="B4">
-            <v>99.6666666666666</v>
-          </cell>
-          <cell r="H4">
-            <v>92</v>
-          </cell>
-          <cell r="J4">
-            <v>86</v>
-          </cell>
-          <cell r="K4">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1997</v>
-          </cell>
-          <cell r="B5">
-            <v>99.3333333333333</v>
-          </cell>
-          <cell r="H5">
-            <v>92</v>
-          </cell>
-          <cell r="J5">
-            <v>88</v>
-          </cell>
-          <cell r="K5">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1998</v>
-          </cell>
-          <cell r="B6">
-            <v>99</v>
-          </cell>
-          <cell r="F6">
-            <v>99</v>
-          </cell>
-          <cell r="H6">
-            <v>92</v>
-          </cell>
-          <cell r="J6">
-            <v>88</v>
-          </cell>
-          <cell r="K6">
-            <v>85</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1999</v>
-          </cell>
-          <cell r="B7">
-            <v>98.1666666666666</v>
-          </cell>
-          <cell r="H7">
-            <v>92</v>
-          </cell>
-          <cell r="J7">
-            <v>89</v>
-          </cell>
-          <cell r="K7">
-            <v>87</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2000</v>
-          </cell>
-          <cell r="B8">
-            <v>97.3333333333333</v>
-          </cell>
-          <cell r="H8">
-            <v>92</v>
-          </cell>
-          <cell r="J8">
-            <v>90</v>
-          </cell>
-          <cell r="K8">
-            <v>86</v>
-          </cell>
-          <cell r="L8">
-            <v>90</v>
-          </cell>
-          <cell r="M8">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2001</v>
-          </cell>
-          <cell r="B9">
-            <v>96.5</v>
-          </cell>
-          <cell r="H9">
-            <v>92</v>
-          </cell>
-          <cell r="J9">
-            <v>91</v>
-          </cell>
-          <cell r="K9">
-            <v>88</v>
-          </cell>
-          <cell r="L9">
-            <v>92</v>
-          </cell>
-          <cell r="M9">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2002</v>
-          </cell>
-          <cell r="B10">
-            <v>95.6666666666666</v>
-          </cell>
-          <cell r="H10">
-            <v>92</v>
-          </cell>
-          <cell r="J10">
-            <v>94</v>
-          </cell>
-          <cell r="K10">
-            <v>91</v>
-          </cell>
-          <cell r="L10">
-            <v>94</v>
-          </cell>
-          <cell r="M10">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2003</v>
-          </cell>
-          <cell r="B11">
-            <v>94.8333333333333</v>
-          </cell>
-          <cell r="H11">
-            <v>92</v>
-          </cell>
-          <cell r="J11">
-            <v>95</v>
-          </cell>
-          <cell r="K11">
-            <v>91</v>
-          </cell>
-          <cell r="L11">
-            <v>96</v>
-          </cell>
-          <cell r="M11">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2004</v>
-          </cell>
-          <cell r="B12">
-            <v>94</v>
-          </cell>
-          <cell r="D12">
-            <v>94</v>
-          </cell>
-          <cell r="H12">
-            <v>92</v>
-          </cell>
-          <cell r="J12">
-            <v>95</v>
-          </cell>
-          <cell r="K12">
-            <v>91</v>
-          </cell>
-          <cell r="L12">
-            <v>95</v>
-          </cell>
-          <cell r="M12">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2005</v>
-          </cell>
-          <cell r="B13">
-            <v>93.768129340000002</v>
-          </cell>
-          <cell r="H13">
-            <v>92</v>
-          </cell>
-          <cell r="J13">
-            <v>94</v>
-          </cell>
-          <cell r="K13">
-            <v>92</v>
-          </cell>
-          <cell r="L13">
-            <v>95</v>
-          </cell>
-          <cell r="M13">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2006</v>
-          </cell>
-          <cell r="B14">
-            <v>93.536258679999989</v>
-          </cell>
-          <cell r="H14">
-            <v>92</v>
-          </cell>
-          <cell r="J14">
-            <v>93</v>
-          </cell>
-          <cell r="K14">
-            <v>91</v>
-          </cell>
-          <cell r="L14">
-            <v>93</v>
-          </cell>
-          <cell r="M14">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2007</v>
-          </cell>
-          <cell r="B15">
-            <v>93.30438801999999</v>
-          </cell>
-          <cell r="H15">
-            <v>92</v>
-          </cell>
-          <cell r="J15">
-            <v>89</v>
-          </cell>
-          <cell r="K15">
-            <v>86</v>
-          </cell>
-          <cell r="L15">
-            <v>89</v>
-          </cell>
-          <cell r="M15">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2008</v>
-          </cell>
-          <cell r="B16">
-            <v>93.072517359999992</v>
-          </cell>
-          <cell r="H16">
-            <v>92</v>
-          </cell>
-          <cell r="I16">
-            <v>83.36</v>
-          </cell>
-          <cell r="J16">
-            <v>86</v>
-          </cell>
-          <cell r="K16">
-            <v>83</v>
-          </cell>
-          <cell r="L16">
-            <v>86</v>
-          </cell>
-          <cell r="M16">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2009</v>
-          </cell>
-          <cell r="B17">
-            <v>92.840646699999994</v>
-          </cell>
-          <cell r="C17">
-            <v>54.410000000000004</v>
-          </cell>
-          <cell r="H17">
-            <v>92</v>
-          </cell>
-          <cell r="I17">
-            <v>81.22</v>
-          </cell>
-          <cell r="J17">
-            <v>83</v>
-          </cell>
-          <cell r="K17">
-            <v>81</v>
-          </cell>
-          <cell r="L17">
-            <v>84</v>
-          </cell>
-          <cell r="M17">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2010</v>
-          </cell>
-          <cell r="B18">
-            <v>84.828496000000001</v>
-          </cell>
-          <cell r="C18">
-            <v>34.29</v>
-          </cell>
-          <cell r="H18">
-            <v>92</v>
-          </cell>
-          <cell r="I18">
-            <v>85.14</v>
-          </cell>
-          <cell r="J18">
-            <v>88</v>
-          </cell>
-          <cell r="K18">
-            <v>85</v>
-          </cell>
-          <cell r="L18">
-            <v>80</v>
-          </cell>
-          <cell r="M18">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2011</v>
-          </cell>
-          <cell r="B19">
-            <v>92.755418000000006</v>
-          </cell>
-          <cell r="C19">
-            <v>75.63</v>
-          </cell>
-          <cell r="H19">
-            <v>92</v>
-          </cell>
-          <cell r="I19">
-            <v>85.72</v>
-          </cell>
-          <cell r="J19">
-            <v>86</v>
-          </cell>
-          <cell r="K19">
-            <v>86</v>
-          </cell>
-          <cell r="L19">
-            <v>87</v>
-          </cell>
-          <cell r="M19">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2012</v>
-          </cell>
-          <cell r="B20">
-            <v>90.832328099999899</v>
-          </cell>
-          <cell r="C20">
-            <v>75.11</v>
-          </cell>
-          <cell r="H20">
-            <v>92</v>
-          </cell>
-          <cell r="I20">
-            <v>89.36</v>
-          </cell>
-          <cell r="J20">
-            <v>91</v>
-          </cell>
-          <cell r="K20">
-            <v>90</v>
-          </cell>
-          <cell r="L20">
-            <v>90</v>
-          </cell>
-          <cell r="M20">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2013</v>
-          </cell>
-          <cell r="B21">
-            <v>84.717097199999998</v>
-          </cell>
-          <cell r="C21">
-            <v>63.019999999999996</v>
-          </cell>
-          <cell r="H21">
-            <v>92</v>
-          </cell>
-          <cell r="I21">
-            <v>90.61</v>
-          </cell>
-          <cell r="J21">
-            <v>91</v>
-          </cell>
-          <cell r="K21">
-            <v>91</v>
-          </cell>
-          <cell r="L21">
-            <v>91</v>
-          </cell>
-          <cell r="M21">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2014</v>
-          </cell>
-          <cell r="B22">
-            <v>59.613632199999998</v>
-          </cell>
-          <cell r="C22">
-            <v>29.98</v>
-          </cell>
-          <cell r="G22">
-            <v>92</v>
-          </cell>
-          <cell r="H22">
-            <v>92</v>
-          </cell>
-          <cell r="I22">
-            <v>93.72</v>
-          </cell>
-          <cell r="J22">
-            <v>92</v>
-          </cell>
-          <cell r="L22">
-            <v>87</v>
-          </cell>
-          <cell r="M22">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2015</v>
-          </cell>
-          <cell r="B23">
-            <v>91.116584599999996</v>
-          </cell>
-          <cell r="C23">
-            <v>81.069999999999993</v>
-          </cell>
-          <cell r="H23">
-            <v>92</v>
-          </cell>
-          <cell r="I23">
-            <v>93.08</v>
-          </cell>
-          <cell r="J23">
-            <v>94</v>
-          </cell>
-          <cell r="L23">
-            <v>68</v>
-          </cell>
-          <cell r="M23">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2016</v>
-          </cell>
-          <cell r="B24">
-            <v>85.439676300000002</v>
-          </cell>
-          <cell r="C24">
-            <v>77.02</v>
-          </cell>
-          <cell r="H24">
-            <v>92</v>
-          </cell>
-          <cell r="I24">
-            <v>94.68</v>
-          </cell>
-          <cell r="J24">
-            <v>94</v>
-          </cell>
-          <cell r="L24">
-            <v>71</v>
-          </cell>
-          <cell r="M24">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2017</v>
-          </cell>
-          <cell r="B25">
-            <v>89.2007105</v>
-          </cell>
-          <cell r="C25">
-            <v>76.92</v>
-          </cell>
-          <cell r="H25">
-            <v>92</v>
-          </cell>
-          <cell r="I25">
-            <v>96.39</v>
-          </cell>
-          <cell r="J25">
-            <v>96</v>
-          </cell>
-          <cell r="L25">
-            <v>70</v>
-          </cell>
-          <cell r="M25">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2018</v>
-          </cell>
-          <cell r="B26">
-            <v>87.078198799999996</v>
-          </cell>
-          <cell r="C26">
-            <v>72.27</v>
-          </cell>
-          <cell r="H26">
-            <v>92</v>
-          </cell>
-          <cell r="I26">
-            <v>95.87</v>
-          </cell>
-          <cell r="J26">
-            <v>96</v>
-          </cell>
-          <cell r="M26">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>2019</v>
-          </cell>
-          <cell r="B27">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H27">
-            <v>92</v>
-          </cell>
-          <cell r="J27">
-            <v>95</v>
-          </cell>
-          <cell r="M27">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>2020</v>
-          </cell>
-          <cell r="B28">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="G28">
-            <v>73.3</v>
-          </cell>
-          <cell r="H28">
-            <v>92</v>
-          </cell>
-          <cell r="L28">
-            <v>73.3</v>
-          </cell>
-          <cell r="M28">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2021</v>
-          </cell>
-          <cell r="B29">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H29">
-            <v>92</v>
-          </cell>
-          <cell r="M29">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2022</v>
-          </cell>
-          <cell r="B30">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H30">
-            <v>92</v>
-          </cell>
-          <cell r="M30">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>2023</v>
-          </cell>
-          <cell r="B31">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H31">
-            <v>92</v>
-          </cell>
-          <cell r="M31">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>2024</v>
-          </cell>
-          <cell r="B32">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H32">
-            <v>92</v>
-          </cell>
-          <cell r="M32">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>2025</v>
-          </cell>
-          <cell r="B33">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H33">
-            <v>92</v>
-          </cell>
-          <cell r="M33">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2026</v>
-          </cell>
-          <cell r="B34">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H34">
-            <v>92</v>
-          </cell>
-          <cell r="M34">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2027</v>
-          </cell>
-          <cell r="B35">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H35">
-            <v>92</v>
-          </cell>
-          <cell r="M35">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>2028</v>
-          </cell>
-          <cell r="B36">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H36">
-            <v>92</v>
-          </cell>
-          <cell r="M36">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2029</v>
-          </cell>
-          <cell r="B37">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H37">
-            <v>92</v>
-          </cell>
-          <cell r="M37">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>2030</v>
-          </cell>
-          <cell r="B38">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="G38">
-            <v>44.8</v>
-          </cell>
-          <cell r="H38">
-            <v>92</v>
-          </cell>
-          <cell r="L38">
-            <v>44.8</v>
-          </cell>
-          <cell r="M38">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2031</v>
-          </cell>
-          <cell r="B39">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H39">
-            <v>92</v>
-          </cell>
-          <cell r="M39">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>2032</v>
-          </cell>
-          <cell r="B40">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H40">
-            <v>92</v>
-          </cell>
-          <cell r="M40">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>2033</v>
-          </cell>
-          <cell r="B41">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H41">
-            <v>92</v>
-          </cell>
-          <cell r="M41">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>2034</v>
-          </cell>
-          <cell r="B42">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H42">
-            <v>92</v>
-          </cell>
-          <cell r="M42">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>2035</v>
-          </cell>
-          <cell r="B43">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H43">
-            <v>92</v>
-          </cell>
-          <cell r="M43">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2036</v>
-          </cell>
-          <cell r="B44">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H44">
-            <v>92</v>
-          </cell>
-          <cell r="M44">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>2037</v>
-          </cell>
-          <cell r="B45">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H45">
-            <v>92</v>
-          </cell>
-          <cell r="M45">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>2038</v>
-          </cell>
-          <cell r="B46">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H46">
-            <v>92</v>
-          </cell>
-          <cell r="M46">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>2039</v>
-          </cell>
-          <cell r="B47">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H47">
-            <v>92</v>
-          </cell>
-          <cell r="M47">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>2040</v>
-          </cell>
-          <cell r="B48">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H48">
-            <v>92</v>
-          </cell>
-          <cell r="M48">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>2041</v>
-          </cell>
-          <cell r="B49">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H49">
-            <v>92</v>
-          </cell>
-          <cell r="M49">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>2042</v>
-          </cell>
-          <cell r="B50">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H50">
-            <v>92</v>
-          </cell>
-          <cell r="M50">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>2043</v>
-          </cell>
-          <cell r="B51">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H51">
-            <v>92</v>
-          </cell>
-          <cell r="M51">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>2044</v>
-          </cell>
-          <cell r="B52">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H52">
-            <v>92</v>
-          </cell>
-          <cell r="M52">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>2045</v>
-          </cell>
-          <cell r="B53">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H53">
-            <v>92</v>
-          </cell>
-          <cell r="M53">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>2046</v>
-          </cell>
-          <cell r="B54">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H54">
-            <v>92</v>
-          </cell>
-          <cell r="M54">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>2047</v>
-          </cell>
-          <cell r="B55">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H55">
-            <v>92</v>
-          </cell>
-          <cell r="M55">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>2048</v>
-          </cell>
-          <cell r="B56">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H56">
-            <v>92</v>
-          </cell>
-          <cell r="M56">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>2049</v>
-          </cell>
-          <cell r="B57">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H57">
-            <v>92</v>
-          </cell>
-          <cell r="M57">
-            <v>91</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>2050</v>
-          </cell>
-          <cell r="B58">
-            <v>81.800867599999904</v>
-          </cell>
-          <cell r="H58">
-            <v>92</v>
-          </cell>
-          <cell r="M58">
-            <v>91</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -35908,30 +34617,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
-  <dimension ref="A1:AI73"/>
+  <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" customWidth="1"/>
-    <col min="10" max="10" width="2.453125" style="8" customWidth="1"/>
-    <col min="11" max="12" width="8.26953125" customWidth="1"/>
-    <col min="13" max="19" width="11.81640625" customWidth="1"/>
-    <col min="20" max="20" width="2.26953125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" customWidth="1"/>
+    <col min="11" max="11" width="2.453125" style="8" customWidth="1"/>
+    <col min="12" max="13" width="8.26953125" customWidth="1"/>
+    <col min="14" max="20" width="11.81640625" customWidth="1"/>
+    <col min="21" max="21" width="2.26953125" style="8" customWidth="1"/>
+    <col min="34" max="34" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
@@ -35939,51 +34649,48 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="10" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="2"/>
+      <c r="Z1" s="10"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
-      <c r="AC1" s="10" t="s">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="10"/>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -36003,208 +34710,211 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>4</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1980</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>168.3042968</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1981</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>164.73019289999999</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1982</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>161.23198859999999</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1983</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>157.80807200000001</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1984</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>154.45686559999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1985</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>151.1768252</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1986</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>147.9664397</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1987</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>144.82422980000001</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1988</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>141.74874779999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1989</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>138.73857659999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1990</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>135.79232930000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1991</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>132.9086484</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1992</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>130.08620519999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1993</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>127.3236993</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1994</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>124.6198579</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -36223,71 +34933,73 @@
       <c r="F18">
         <v>88</v>
       </c>
-      <c r="G18" s="5">
-        <f t="shared" ref="G18:G31" si="0">SUM(B18:F18)</f>
-        <v>12032.982838600001</v>
-      </c>
-      <c r="H18" s="5">
-        <f>G18*1.08</f>
-        <v>12995.621465688002</v>
+      <c r="G18">
+        <v>846</v>
+      </c>
+      <c r="H18">
+        <v>532</v>
       </c>
       <c r="I18" s="5">
-        <f>AC18*1000/100</f>
+        <f>SUM(B18:H18)</f>
+        <v>13410.982838600001</v>
+      </c>
+      <c r="J18" s="5">
+        <f>AD18*1000/100</f>
         <v>125</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="5">
-        <f>H18/I18</f>
-        <v>103.96497172550401</v>
-      </c>
+      <c r="K18" s="9"/>
       <c r="L18" s="5">
+        <f>I18/J18</f>
+        <v>107.28786270880001</v>
+      </c>
+      <c r="M18" s="5">
         <v>121.9734352</v>
       </c>
-      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="5">
-        <f t="shared" ref="U18:U49" si="1">B18/$G18*100</f>
-        <v>66.483930936369333</v>
-      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="9"/>
       <c r="V18" s="5">
-        <f t="shared" ref="V18:V49" si="2">C18/$G18*100</f>
-        <v>7.0507989579972774</v>
+        <f>B18/$I18*100</f>
+        <v>59.652600381935436</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" ref="W18:W49" si="3">D18/$G18*100</f>
-        <v>25.689269663744067</v>
+        <f>C18/$I18*100</f>
+        <v>6.326318054468322</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" ref="X18:X49" si="4">E18/$G18*100</f>
-        <v>4.4677201589240205E-2</v>
+        <f>D18/$I18*100</f>
+        <v>23.049655996149905</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" ref="Y18:Y49" si="5">F18/$G18*100</f>
-        <v>0.73132324030006279</v>
-      </c>
-      <c r="AC18">
+        <f>E18/$I18*100</f>
+        <v>4.0086547456660612E-2</v>
+      </c>
+      <c r="Z18" s="5">
+        <f>F18/$I18*100</f>
+        <v>0.65617860420128982</v>
+      </c>
+      <c r="AD18">
         <v>12.5</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>15</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>20</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>10</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1996</v>
       </c>
@@ -36306,71 +35018,73 @@
       <c r="F19">
         <v>84.571428569999995</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>11939.14968887</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" ref="H19:H73" si="6">G19*1.08</f>
-        <v>12894.281663979602</v>
+      <c r="G19">
+        <v>846</v>
+      </c>
+      <c r="H19">
+        <v>532</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ref="I19:I73" si="7">AC19*1000/100</f>
+        <f t="shared" ref="I19:I73" si="0">SUM(B19:H19)</f>
+        <v>13317.14968887</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19:J73" si="1">AD19*1000/100</f>
         <v>127</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="5">
-        <f t="shared" ref="K19:K73" si="8">H19/I19</f>
-        <v>101.52977688172915</v>
-      </c>
+      <c r="K19" s="9"/>
       <c r="L19" s="5">
+        <f t="shared" ref="L19:L73" si="2">I19/J19</f>
+        <v>104.85944636905512</v>
+      </c>
+      <c r="M19" s="5">
         <v>119.3832118</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="5">
-        <f t="shared" si="1"/>
-        <v>67.006446928610146</v>
-      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="9"/>
       <c r="V19" s="5">
-        <f t="shared" si="2"/>
-        <v>6.9668756651523793</v>
+        <f>B19/$I19*100</f>
+        <v>60.072914902249053</v>
       </c>
       <c r="W19" s="5">
-        <f t="shared" si="3"/>
-        <v>25.273295206382389</v>
+        <f>C19/$I19*100</f>
+        <v>6.2459740540062931</v>
       </c>
       <c r="X19" s="5">
-        <f t="shared" si="4"/>
-        <v>4.5028332336026024E-2</v>
+        <f>D19/$I19*100</f>
+        <v>22.658125924062034</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="5"/>
-        <v>0.70835386751905605</v>
-      </c>
-      <c r="AC19">
+        <f>E19/$I19*100</f>
+        <v>4.0368998814311365E-2</v>
+      </c>
+      <c r="Z19" s="5">
+        <f>F19/$I19*100</f>
+        <v>0.63505652895590559</v>
+      </c>
+      <c r="AD19">
         <v>12.7</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>15</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>20</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>10</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1997</v>
       </c>
@@ -36389,71 +35103,73 @@
       <c r="F20">
         <v>81.142857140000004</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
+        <v>846</v>
+      </c>
+      <c r="H20">
+        <v>532</v>
+      </c>
+      <c r="I20" s="5">
         <f t="shared" si="0"/>
-        <v>11601.668857139999</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="6"/>
-        <v>12529.802365711199</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="7"/>
+        <v>12979.668857139999</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
         <v>128.80000000000001</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="5">
-        <f t="shared" si="8"/>
-        <v>97.281074267944078</v>
-      </c>
+      <c r="K20" s="9"/>
       <c r="L20" s="5">
+        <f t="shared" si="2"/>
+        <v>100.77382653059004</v>
+      </c>
+      <c r="M20" s="5">
         <v>116.8479943</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="5">
-        <f t="shared" si="1"/>
-        <v>68.955596806890156</v>
-      </c>
+      <c r="T20" s="5"/>
+      <c r="U20" s="9"/>
       <c r="V20" s="5">
-        <f t="shared" si="2"/>
-        <v>7.0261443421420644</v>
+        <f>B20/$I20*100</f>
+        <v>61.634854386899654</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="3"/>
-        <v>23.27251392232543</v>
+        <f>C20/$I20*100</f>
+        <v>6.2802064441851559</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="4"/>
-        <v>4.6338161054230192E-2</v>
+        <f>D20/$I20*100</f>
+        <v>20.801763355578633</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="5"/>
-        <v>0.69940676758811615</v>
-      </c>
-      <c r="AC20">
+        <f>E20/$I20*100</f>
+        <v>4.1418622147996562E-2</v>
+      </c>
+      <c r="Z20" s="5">
+        <f>F20/$I20*100</f>
+        <v>0.62515352304511262</v>
+      </c>
+      <c r="AD20">
         <v>12.88</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>19</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>23</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>15</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1998</v>
       </c>
@@ -36472,71 +35188,73 @@
       <c r="F21">
         <v>77.714285709999999</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
+        <v>846</v>
+      </c>
+      <c r="H21">
+        <v>532</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="0"/>
-        <v>11421.977242410001</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="6"/>
-        <v>12335.735421802801</v>
-      </c>
-      <c r="I21" s="5">
-        <f t="shared" si="7"/>
+        <v>12799.977242410001</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
         <v>130.6</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="5">
-        <f t="shared" si="8"/>
-        <v>94.454329416560498</v>
-      </c>
+      <c r="K21" s="9"/>
       <c r="L21" s="5">
+        <f t="shared" si="2"/>
+        <v>98.009014107274126</v>
+      </c>
+      <c r="M21" s="5">
         <v>114.36661460000001</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="5">
-        <f t="shared" si="1"/>
-        <v>70.040412708019232</v>
-      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="9"/>
       <c r="V21" s="5">
-        <f t="shared" si="2"/>
-        <v>6.9910337654596475</v>
+        <f>B21/$I21*100</f>
+        <v>62.500111121242483</v>
       </c>
       <c r="W21" s="5">
-        <f t="shared" si="3"/>
-        <v>22.24109378862665</v>
+        <f>C21/$I21*100</f>
+        <v>6.2384039485186955</v>
       </c>
       <c r="X21" s="5">
-        <f t="shared" si="4"/>
-        <v>4.7067157339788931E-2</v>
+        <f>D21/$I21*100</f>
+        <v>19.846696778358446</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="5"/>
-        <v>0.68039258055466523</v>
-      </c>
-      <c r="AC21">
+        <f>E21/$I21*100</f>
+        <v>4.2000074673474955E-2</v>
+      </c>
+      <c r="Z21" s="5">
+        <f>F21/$I21*100</f>
+        <v>0.60714393657287336</v>
+      </c>
+      <c r="AD21">
         <v>13.06</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>19</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>23</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>15</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -36555,71 +35273,73 @@
       <c r="F22">
         <v>74.285714290000001</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
+        <v>846</v>
+      </c>
+      <c r="H22">
+        <v>532</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="0"/>
-        <v>11346.239199690001</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="6"/>
-        <v>12253.938335665202</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="7"/>
+        <v>12724.239199690001</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
         <v>132.4</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="5">
-        <f t="shared" si="8"/>
-        <v>92.55240434792448</v>
-      </c>
+      <c r="K22" s="9"/>
       <c r="L22" s="5">
+        <f t="shared" si="2"/>
+        <v>96.104525677416916</v>
+      </c>
+      <c r="M22" s="5">
         <v>111.9379294</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="5">
-        <f t="shared" si="1"/>
-        <v>70.507944167249477</v>
-      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="9"/>
       <c r="V22" s="5">
-        <f t="shared" si="2"/>
-        <v>6.8910813322299997</v>
+        <f>B22/$I22*100</f>
+        <v>62.872128340646903</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="3"/>
-        <v>21.89887653759218</v>
+        <f>C22/$I22*100</f>
+        <v>6.144796235982807</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="4"/>
-        <v>4.7381338480391652E-2</v>
+        <f>D22/$I22*100</f>
+        <v>19.52728862610925</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="5"/>
-        <v>0.65471662444794587</v>
-      </c>
-      <c r="AC22">
+        <f>E22/$I22*100</f>
+        <v>4.2250070244914728E-2</v>
+      </c>
+      <c r="Z22" s="5">
+        <f>F22/$I22*100</f>
+        <v>0.5838126203396885</v>
+      </c>
+      <c r="AD22">
         <v>13.24</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>19</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>23</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>15</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -36638,73 +35358,75 @@
       <c r="F23">
         <v>45.34857143</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
+        <v>846</v>
+      </c>
+      <c r="H23">
+        <v>532</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="0"/>
-        <v>11249.92969253</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="6"/>
-        <v>12149.924067932401</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="7"/>
+        <v>12627.92969253</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
         <v>134.19999999999999</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="5">
-        <f t="shared" si="8"/>
-        <v>90.535946854935929</v>
-      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="5">
+        <f t="shared" si="2"/>
+        <v>94.097836755067078</v>
+      </c>
+      <c r="M23" s="5">
         <v>109.5608196</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>110</v>
       </c>
-      <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="5">
-        <f t="shared" si="1"/>
-        <v>71.111555526538382</v>
-      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="9"/>
       <c r="V23" s="5">
-        <f t="shared" si="2"/>
-        <v>6.8022012404941909</v>
+        <f>B23/$I23*100</f>
+        <v>63.351635579127176</v>
       </c>
       <c r="W23" s="5">
-        <f t="shared" si="3"/>
-        <v>21.635355335741881</v>
+        <f>C23/$I23*100</f>
+        <v>6.0599233265661612</v>
       </c>
       <c r="X23" s="5">
-        <f t="shared" si="4"/>
-        <v>4.77869653138338E-2</v>
+        <f>D23/$I23*100</f>
+        <v>19.274436295284413</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" si="5"/>
-        <v>0.40310093191170465</v>
-      </c>
-      <c r="AC23">
+        <f>E23/$I23*100</f>
+        <v>4.2572299109173463E-2</v>
+      </c>
+      <c r="Z23" s="5">
+        <f>F23/$I23*100</f>
+        <v>0.3591132714084222</v>
+      </c>
+      <c r="AD23">
         <v>13.42</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>31</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>36</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>25</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2001</v>
       </c>
@@ -36723,73 +35445,75 @@
       <c r="F24">
         <v>43.154285710000003</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
+        <v>846</v>
+      </c>
+      <c r="H24">
+        <v>532</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="0"/>
-        <v>11184.671303610001</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="6"/>
-        <v>12079.445007898801</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="7"/>
+        <v>12562.671303610001</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="5">
-        <f t="shared" si="8"/>
-        <v>88.819448587491181</v>
-      </c>
+      <c r="K24" s="9"/>
       <c r="L24" s="5">
+        <f t="shared" si="2"/>
+        <v>92.372583114779417</v>
+      </c>
+      <c r="M24" s="5">
         <v>107.23419010000001</v>
       </c>
-      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="5">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="5">
-        <f t="shared" si="1"/>
-        <v>71.526464952241327</v>
-      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="9"/>
       <c r="V24" s="5">
-        <f t="shared" si="2"/>
-        <v>6.6931528212042952</v>
+        <f>B24/$I24*100</f>
+        <v>63.680723682558863</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="3"/>
-        <v>21.346482254059556</v>
+        <f>C24/$I24*100</f>
+        <v>5.9589805767255939</v>
       </c>
       <c r="X24" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8065784447906171E-2</v>
+        <f>D24/$I24*100</f>
+        <v>19.004985622078006</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="5"/>
-        <v>0.38583418804691544</v>
-      </c>
-      <c r="AC24">
+        <f>E24/$I24*100</f>
+        <v>4.2793446314679559E-2</v>
+      </c>
+      <c r="Z24" s="5">
+        <f>F24/$I24*100</f>
+        <v>0.34351201800208858</v>
+      </c>
+      <c r="AD24">
         <v>13.6</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>31</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>36</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>25</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2002</v>
       </c>
@@ -36808,73 +35532,75 @@
       <c r="F25">
         <v>40.96</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
+        <v>846</v>
+      </c>
+      <c r="H25">
+        <v>532</v>
+      </c>
+      <c r="I25" s="5">
         <f t="shared" si="0"/>
-        <v>11123.194776599999</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="6"/>
-        <v>12013.050358728</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="7"/>
+        <v>12501.194776599999</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
         <v>137.2222222</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="5">
-        <f t="shared" si="8"/>
-        <v>87.544496555514897</v>
-      </c>
+      <c r="K25" s="9"/>
       <c r="L25" s="5">
+        <f t="shared" si="2"/>
+        <v>91.101824297668301</v>
+      </c>
+      <c r="M25" s="5">
         <v>104.9569687</v>
       </c>
-      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="5">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="5">
-        <f t="shared" si="1"/>
-        <v>71.92178291105445</v>
-      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="9"/>
       <c r="V25" s="5">
-        <f t="shared" si="2"/>
-        <v>6.5805862731079499</v>
+        <f>B25/$I25*100</f>
+        <v>63.993883328452483</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="3"/>
-        <v>21.081059849216778</v>
+        <f>C25/$I25*100</f>
+        <v>5.8552117751986357</v>
       </c>
       <c r="X25" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8331438116228594E-2</v>
+        <f>D25/$I25*100</f>
+        <v>18.757305920784546</v>
       </c>
       <c r="Y25" s="5">
-        <f t="shared" si="5"/>
-        <v>0.36823952850459885</v>
-      </c>
-      <c r="AC25">
+        <f>E25/$I25*100</f>
+        <v>4.3003889596720073E-2</v>
+      </c>
+      <c r="Z25" s="5">
+        <f>F25/$I25*100</f>
+        <v>0.32764868264167674</v>
+      </c>
+      <c r="AD25">
         <v>13.722222220000001</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>31</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>36</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>25</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2003</v>
       </c>
@@ -36893,75 +35619,77 @@
       <c r="F26">
         <v>38.765714289999998</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26">
+        <v>846</v>
+      </c>
+      <c r="H26">
+        <v>532</v>
+      </c>
+      <c r="I26" s="5">
         <f t="shared" si="0"/>
-        <v>11077.36948159</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="6"/>
-        <v>11963.559040117201</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="7"/>
+        <v>12455.36948159</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
         <v>138.44444439999998</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="5">
-        <f t="shared" si="8"/>
-        <v>86.414150397769248</v>
-      </c>
+      <c r="K26" s="9"/>
       <c r="L26" s="5">
+        <f t="shared" si="2"/>
+        <v>89.966553266690724</v>
+      </c>
+      <c r="M26" s="5">
         <v>102.7281064</v>
       </c>
-      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <v>102.7</v>
       </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="5">
-        <f t="shared" si="1"/>
-        <v>72.219311753531159</v>
-      </c>
+      <c r="T26" s="5"/>
+      <c r="U26" s="9"/>
       <c r="V26" s="5">
-        <f t="shared" si="2"/>
-        <v>6.4576316199333235</v>
+        <f>B26/$I26*100</f>
+        <v>64.229327053080354</v>
       </c>
       <c r="W26" s="5">
-        <f t="shared" si="3"/>
-        <v>20.92457109832992</v>
+        <f>C26/$I26*100</f>
+        <v>5.7431914433154425</v>
       </c>
       <c r="X26" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8531377498372941E-2</v>
+        <f>D26/$I26*100</f>
+        <v>18.609580843234109</v>
       </c>
       <c r="Y26" s="5">
-        <f t="shared" si="5"/>
-        <v>0.34995415070722846</v>
-      </c>
-      <c r="AC26">
+        <f>E26/$I26*100</f>
+        <v>4.316210777967E-2</v>
+      </c>
+      <c r="Z26" s="5">
+        <f>F26/$I26*100</f>
+        <v>0.31123696769733511</v>
+      </c>
+      <c r="AD26">
         <v>13.84444444</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>31</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>36</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>25</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2004</v>
       </c>
@@ -36980,75 +35708,77 @@
       <c r="F27">
         <v>36.571428570000002</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
+        <v>846</v>
+      </c>
+      <c r="H27">
+        <v>532</v>
+      </c>
+      <c r="I27" s="5">
         <f t="shared" si="0"/>
-        <v>10996.66669057</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="6"/>
-        <v>11876.400025815601</v>
-      </c>
-      <c r="I27" s="5">
-        <f t="shared" si="7"/>
+        <v>12374.66669057</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
         <v>139.66666670000001</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="5">
-        <f t="shared" si="8"/>
-        <v>85.03389037933988</v>
-      </c>
+      <c r="K27" s="9"/>
       <c r="L27" s="5">
+        <f t="shared" si="2"/>
+        <v>88.601432130906574</v>
+      </c>
+      <c r="M27" s="5">
         <v>100.5465761</v>
       </c>
-      <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="5">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R27" s="5">
+      <c r="S27" s="5">
         <v>102.7</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="5">
-        <f t="shared" si="1"/>
-        <v>72.749317817009583</v>
-      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="9"/>
       <c r="V27" s="5">
-        <f t="shared" si="2"/>
-        <v>6.3537435448430752</v>
+        <f>B27/$I27*100</f>
+        <v>64.648205887406448</v>
       </c>
       <c r="W27" s="5">
-        <f t="shared" si="3"/>
-        <v>20.515482786566679</v>
+        <f>C27/$I27*100</f>
+        <v>5.6462126816913614</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8887541573030449E-2</v>
+        <f>D27/$I27*100</f>
+        <v>18.230949716966343</v>
       </c>
       <c r="Y27" s="5">
-        <f t="shared" si="5"/>
-        <v>0.33256831000762432</v>
-      </c>
-      <c r="AC27">
+        <f>E27/$I27*100</f>
+        <v>4.3443594356337135E-2</v>
+      </c>
+      <c r="Z27" s="5">
+        <f>F27/$I27*100</f>
+        <v>0.2955346554737423</v>
+      </c>
+      <c r="AD27">
         <v>13.96666667</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>31</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>36</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>25</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -37067,79 +35797,81 @@
       <c r="F28">
         <v>34.377142859999999</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28">
+        <v>846</v>
+      </c>
+      <c r="H28">
+        <v>532</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="0"/>
-        <v>10735.835995859999</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="6"/>
-        <v>11594.702875528799</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="7"/>
+        <v>12113.835995859999</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="1"/>
         <v>140.88888890000001</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="5">
-        <f t="shared" si="8"/>
-        <v>82.296786964928629</v>
-      </c>
+      <c r="K28" s="9"/>
       <c r="L28" s="5">
+        <f t="shared" si="2"/>
+        <v>85.981485768250664</v>
+      </c>
+      <c r="M28" s="5">
         <v>98.411372709999995</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>98</v>
       </c>
-      <c r="N28" s="5"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="5">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="R28" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R28" s="5">
+      <c r="S28" s="5">
         <v>102.7</v>
       </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="5">
-        <f t="shared" si="1"/>
-        <v>74.516786611540965</v>
-      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="9"/>
       <c r="V28" s="5">
-        <f t="shared" si="2"/>
-        <v>5.4234248755712162</v>
+        <f>B28/$I28*100</f>
+        <v>66.040187457829745</v>
       </c>
       <c r="W28" s="5">
-        <f t="shared" si="3"/>
-        <v>19.68950395493323</v>
+        <f>C28/$I28*100</f>
+        <v>4.8064873934151713</v>
       </c>
       <c r="X28" s="5">
-        <f t="shared" si="4"/>
-        <v>5.0075280602955533E-2</v>
+        <f>D28/$I28*100</f>
+        <v>17.449739733329881</v>
       </c>
       <c r="Y28" s="5">
-        <f t="shared" si="5"/>
-        <v>0.3202092773516349</v>
-      </c>
-      <c r="AC28">
+        <f>E28/$I28*100</f>
+        <v>4.4379005971661591E-2</v>
+      </c>
+      <c r="Z28" s="5">
+        <f>F28/$I28*100</f>
+        <v>0.28378411984237417</v>
+      </c>
+      <c r="AD28">
         <v>14.08888889</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>31</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>36</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>25</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2006</v>
       </c>
@@ -37158,77 +35890,79 @@
       <c r="F29">
         <v>32.182857140000003</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
+        <v>846</v>
+      </c>
+      <c r="H29">
+        <v>532</v>
+      </c>
+      <c r="I29" s="5">
         <f t="shared" si="0"/>
-        <v>10586.83833814</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="6"/>
-        <v>11433.7854051912</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="7"/>
+        <v>11964.83833814</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="1"/>
         <v>142.11111109999999</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="5">
-        <f t="shared" si="8"/>
-        <v>80.456660402475748</v>
-      </c>
+      <c r="K29" s="9"/>
       <c r="L29" s="5">
+        <f t="shared" si="2"/>
+        <v>84.193545779264554</v>
+      </c>
+      <c r="M29" s="5">
         <v>96.321512409999997</v>
       </c>
-      <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="5">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="R29" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <v>102.7</v>
       </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="5">
-        <f t="shared" si="1"/>
-        <v>75.565525272822086</v>
-      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="9"/>
       <c r="V29" s="5">
-        <f t="shared" si="2"/>
-        <v>4.3998027090100669</v>
+        <f>B29/$I29*100</f>
+        <v>66.862583295409934</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="3"/>
-        <v>19.679902672113968</v>
+        <f>C29/$I29*100</f>
+        <v>3.8930739123752436</v>
       </c>
       <c r="X29" s="5">
-        <f t="shared" si="4"/>
-        <v>5.078003298333645E-2</v>
+        <f>D29/$I29*100</f>
+        <v>17.413352542829998</v>
       </c>
       <c r="Y29" s="5">
-        <f t="shared" si="5"/>
-        <v>0.30398931307053662</v>
-      </c>
-      <c r="AC29">
+        <f>E29/$I29*100</f>
+        <v>4.4931655974515483E-2</v>
+      </c>
+      <c r="Z29" s="5">
+        <f>F29/$I29*100</f>
+        <v>0.26897862077594109</v>
+      </c>
+      <c r="AD29">
         <v>14.211111109999999</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>31</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>36</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>25</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2007</v>
       </c>
@@ -37247,79 +35981,81 @@
       <c r="F30">
         <v>29.98857143</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30">
+        <v>846</v>
+      </c>
+      <c r="H30">
+        <v>532</v>
+      </c>
+      <c r="I30" s="5">
         <f t="shared" si="0"/>
-        <v>10532.556731430001</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="6"/>
-        <v>11375.161269944401</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="7"/>
+        <v>11910.556731430001</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="1"/>
         <v>143.33333329999999</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="5">
-        <f t="shared" si="8"/>
-        <v>79.361590273882243</v>
-      </c>
+      <c r="K30" s="9"/>
       <c r="L30" s="5">
+        <f t="shared" si="2"/>
+        <v>83.096907447906261</v>
+      </c>
+      <c r="M30" s="5">
         <v>94.276032310000005</v>
       </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5">
         <v>102.3</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="R30" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R30" s="5">
+      <c r="S30" s="5">
         <v>102.7</v>
       </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="5">
-        <f t="shared" si="1"/>
-        <v>75.954967098609146</v>
-      </c>
+      <c r="T30" s="5"/>
+      <c r="U30" s="9"/>
       <c r="V30" s="5">
-        <f t="shared" si="2"/>
-        <v>4.201354061350691</v>
+        <f>B30/$I30*100</f>
+        <v>67.16730527708512</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="3"/>
-        <v>19.507914482612396</v>
+        <f>C30/$I30*100</f>
+        <v>3.715275532270367</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="4"/>
-        <v>5.1041737890265351E-2</v>
+        <f>D30/$I30*100</f>
+        <v>17.250932986012582</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="5"/>
-        <v>0.28472261953749256</v>
-      </c>
-      <c r="AC30">
+        <f>E30/$I30*100</f>
+        <v>4.513642914620121E-2</v>
+      </c>
+      <c r="Z30" s="5">
+        <f>F30/$I30*100</f>
+        <v>0.2517814415078104</v>
+      </c>
+      <c r="AD30">
         <v>14.33333333</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>31</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>36</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>25</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2008</v>
       </c>
@@ -37338,79 +36074,81 @@
       <c r="F31">
         <v>27.79428571</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
+        <v>846</v>
+      </c>
+      <c r="H31">
+        <v>532</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="0"/>
-        <v>10479.71451071</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="6"/>
-        <v>11318.091671566801</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="7"/>
+        <v>11857.71451071</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="1"/>
         <v>144.55555560000002</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="5">
-        <f t="shared" si="8"/>
-        <v>78.295791708518735</v>
-      </c>
+      <c r="K31" s="9"/>
       <c r="L31" s="5">
+        <f t="shared" si="2"/>
+        <v>82.02877060997578</v>
+      </c>
+      <c r="M31" s="5">
         <v>92.273989950000001</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
         <v>102.3</v>
       </c>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="R31" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R31" s="5">
+      <c r="S31" s="5">
         <v>102.7</v>
       </c>
-      <c r="S31" s="5"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="5">
-        <f t="shared" si="1"/>
-        <v>76.337957411189066</v>
-      </c>
+      <c r="T31" s="5"/>
+      <c r="U31" s="9"/>
       <c r="V31" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0002998132398346</v>
+        <f>B31/$I31*100</f>
+        <v>67.466626834153615</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="3"/>
-        <v>19.345223793340232</v>
+        <f>C31/$I31*100</f>
+        <v>3.5354199126767352</v>
       </c>
       <c r="X31" s="5">
-        <f t="shared" si="4"/>
-        <v>5.1299107380319051E-2</v>
+        <f>D31/$I31*100</f>
+        <v>17.097090869989334</v>
       </c>
       <c r="Y31" s="5">
-        <f t="shared" si="5"/>
-        <v>0.2652198748505501</v>
-      </c>
-      <c r="AC31">
+        <f>E31/$I31*100</f>
+        <v>4.5337573232551227E-2</v>
+      </c>
+      <c r="Z31" s="5">
+        <f>F31/$I31*100</f>
+        <v>0.23439833776480232</v>
+      </c>
+      <c r="AD31">
         <v>14.455555560000001</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>31</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>36</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>25</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.6</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2009</v>
       </c>
@@ -37429,82 +36167,84 @@
       <c r="F32">
         <v>25.6</v>
       </c>
-      <c r="G32" s="5">
-        <f>SUM(B32:F32)</f>
-        <v>10451.49639</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="6"/>
-        <v>11287.616101200001</v>
+      <c r="G32">
+        <v>846</v>
+      </c>
+      <c r="H32">
+        <v>532</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11829.49639</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="1"/>
         <v>145.7777778</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="5">
-        <f t="shared" si="8"/>
-        <v>77.430293365330755</v>
-      </c>
+      <c r="K32" s="9"/>
       <c r="L32" s="5">
+        <f t="shared" si="2"/>
+        <v>81.147459980008009</v>
+      </c>
+      <c r="M32" s="5">
         <v>90.314462890000001</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5">
         <v>102.3</v>
       </c>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="R32" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <v>102.7</v>
       </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="5">
-        <f t="shared" si="1"/>
-        <v>76.544063179837167</v>
-      </c>
+      <c r="T32" s="5"/>
+      <c r="U32" s="9"/>
       <c r="V32" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0111002707814167</v>
+        <f>B32/$I32*100</f>
+        <v>67.627561954055423</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="3"/>
-        <v>19.148457936749093</v>
+        <f>C32/$I32*100</f>
+        <v>3.5438533152973899</v>
       </c>
       <c r="X32" s="5">
-        <f t="shared" si="4"/>
-        <v>5.1437610456850573E-2</v>
+        <f>D32/$I32*100</f>
+        <v>16.917883264175035</v>
       </c>
       <c r="Y32" s="5">
-        <f t="shared" si="5"/>
-        <v>0.24494100217547893</v>
-      </c>
-      <c r="AC32">
+        <f>E32/$I32*100</f>
+        <v>4.5445721633125248E-2</v>
+      </c>
+      <c r="Z32" s="5">
+        <f>F32/$I32*100</f>
+        <v>0.21640819825297736</v>
+      </c>
+      <c r="AD32">
         <v>14.57777778</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>31</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>36</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>25</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>0.6</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>15.3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2010</v>
       </c>
@@ -37523,87 +36263,89 @@
       <c r="F33">
         <v>12.327416169999999</v>
       </c>
-      <c r="G33" s="5">
-        <f t="shared" ref="G33:G73" si="9">SUM(B33:F33)</f>
-        <v>10424.07407517</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="6"/>
-        <v>11258.0000011836</v>
+      <c r="G33">
+        <v>846</v>
+      </c>
+      <c r="H33">
+        <v>532</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11802.07407517</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="5">
-        <f t="shared" si="8"/>
-        <v>76.585034021657137</v>
-      </c>
+      <c r="K33" s="9"/>
       <c r="L33" s="5">
+        <f t="shared" si="2"/>
+        <v>80.286218198435378</v>
+      </c>
+      <c r="M33" s="5">
         <v>88.396548280000005</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>95</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>102.3</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="R33" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <v>102.7</v>
       </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="5">
-        <f t="shared" si="1"/>
-        <v>76.745425467149062</v>
-      </c>
+      <c r="T33" s="5"/>
+      <c r="U33" s="9"/>
       <c r="V33" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0216521580422793</v>
+        <f>B33/$I33*100</f>
+        <v>67.784695715738138</v>
       </c>
       <c r="W33" s="5">
-        <f t="shared" si="3"/>
-        <v>19.063090349035079</v>
+        <f>C33/$I33*100</f>
+        <v>3.5520875172439679</v>
       </c>
       <c r="X33" s="5">
-        <f t="shared" si="4"/>
-        <v>5.1572925913924178E-2</v>
+        <f>D33/$I33*100</f>
+        <v>16.837300345205438</v>
       </c>
       <c r="Y33" s="5">
-        <f t="shared" si="5"/>
-        <v>0.11825909985965789</v>
-      </c>
-      <c r="AC33">
+        <f>E33/$I33*100</f>
+        <v>4.5551315520976028E-2</v>
+      </c>
+      <c r="Z33" s="5">
+        <f>F33/$I33*100</f>
+        <v>0.10445126925559001</v>
+      </c>
+      <c r="AD33">
         <v>14.7</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>31</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>36</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>25</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.3</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>15.3</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2011</v>
       </c>
@@ -37622,82 +36364,84 @@
       <c r="F34">
         <v>10.272846810000001</v>
       </c>
-      <c r="G34" s="5">
-        <f t="shared" si="9"/>
-        <v>10401.461976809998</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="6"/>
-        <v>11233.578934954799</v>
+      <c r="G34">
+        <v>846</v>
+      </c>
+      <c r="H34">
+        <v>532</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11779.461976809998</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="5">
-        <f t="shared" si="8"/>
-        <v>74.394562483144369</v>
-      </c>
+      <c r="K34" s="9"/>
       <c r="L34" s="5">
+        <f t="shared" si="2"/>
+        <v>78.009681965629127</v>
+      </c>
+      <c r="M34" s="5">
         <v>86.519362419999993</v>
       </c>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5">
         <v>102.3</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="R34" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R34" s="5">
+      <c r="S34" s="5">
         <v>102.7</v>
       </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="5">
-        <f t="shared" si="1"/>
-        <v>76.912265005015215</v>
-      </c>
+      <c r="T34" s="5"/>
+      <c r="U34" s="9"/>
       <c r="V34" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0303949669253107</v>
+        <f>B34/$I34*100</f>
+        <v>67.914816616832312</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="3"/>
-        <v>18.906891496450292</v>
+        <f>C34/$I34*100</f>
+        <v>3.5589061777635553</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="4"/>
-        <v>5.1685042083370235E-2</v>
+        <f>D34/$I34*100</f>
+        <v>16.695101472984032</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="5"/>
-        <v>9.8763489525830653E-2</v>
-      </c>
-      <c r="AC34">
+        <f>E34/$I34*100</f>
+        <v>4.5638756766511315E-2</v>
+      </c>
+      <c r="Z34" s="5">
+        <f>F34/$I34*100</f>
+        <v>8.7209813404245107E-2</v>
+      </c>
+      <c r="AD34">
         <v>15.1</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>31</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>36</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>25</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.3</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>15.3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2012</v>
       </c>
@@ -37716,86 +36460,88 @@
       <c r="F35">
         <v>8.2182774490000003</v>
       </c>
-      <c r="G35" s="5">
-        <f t="shared" si="9"/>
-        <v>10475.800475448999</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="6"/>
-        <v>11313.864513484919</v>
+      <c r="G35">
+        <v>846</v>
+      </c>
+      <c r="H35">
+        <v>532</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11853.800475448999</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="5">
-        <f t="shared" si="8"/>
-        <v>73.466652684967002</v>
-      </c>
+      <c r="K35" s="9"/>
       <c r="L35" s="5">
+        <f t="shared" si="2"/>
+        <v>76.972730360058435</v>
+      </c>
+      <c r="M35" s="5">
         <v>84.682040420000007</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>78</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <v>102.3</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>102</v>
       </c>
-      <c r="P35" s="5">
+      <c r="Q35" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q35" s="5">
+      <c r="R35" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R35" s="5">
+      <c r="S35" s="5">
         <v>102.7</v>
       </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="5">
-        <f t="shared" si="1"/>
-        <v>77.130144077640864</v>
-      </c>
+      <c r="T35" s="5"/>
+      <c r="U35" s="9"/>
       <c r="V35" s="5">
-        <f t="shared" si="2"/>
-        <v>4.001794430721362</v>
+        <f>B35/$I35*100</f>
+        <v>68.163792842092235</v>
       </c>
       <c r="W35" s="5">
-        <f t="shared" si="3"/>
-        <v>18.73829310323768</v>
+        <f>C35/$I35*100</f>
+        <v>3.53658728159182</v>
       </c>
       <c r="X35" s="5">
-        <f t="shared" si="4"/>
-        <v>5.131827407938086E-2</v>
+        <f>D35/$I35*100</f>
+        <v>16.559973335687904</v>
       </c>
       <c r="Y35" s="5">
-        <f t="shared" si="5"/>
-        <v>7.845011432071744E-2</v>
-      </c>
-      <c r="AC35">
+        <f>E35/$I35*100</f>
+        <v>4.5352543356322758E-2</v>
+      </c>
+      <c r="Z35" s="5">
+        <f>F35/$I35*100</f>
+        <v>6.9330317023821073E-2</v>
+      </c>
+      <c r="AD35">
         <v>15.4</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>31</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>36</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>25</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.3</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>15.3</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -37814,84 +36560,86 @@
       <c r="F36">
         <v>5.7527942139999997</v>
       </c>
-      <c r="G36" s="5">
-        <f t="shared" si="9"/>
-        <v>10209.806922214</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="6"/>
-        <v>11026.591475991121</v>
+      <c r="G36">
+        <v>846</v>
+      </c>
+      <c r="H36">
+        <v>532</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11587.806922214</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="5">
-        <f t="shared" si="8"/>
-        <v>68.916196724944513</v>
-      </c>
+      <c r="K36" s="9"/>
       <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>72.423793263837496</v>
+      </c>
+      <c r="M36" s="5">
         <v>82.883735720000004</v>
       </c>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5">
         <v>102.3</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="5">
         <v>102</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q36" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="R36" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R36" s="5">
+      <c r="S36" s="5">
         <v>102.7</v>
       </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="5">
-        <f t="shared" si="1"/>
-        <v>79.923156844874995</v>
-      </c>
+      <c r="T36" s="5"/>
+      <c r="U36" s="9"/>
       <c r="V36" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1060521829054526</v>
+        <f>B36/$I36*100</f>
+        <v>70.418846765190381</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" si="3"/>
-        <v>15.861789947040645</v>
+        <f>C36/$I36*100</f>
+        <v>3.6177682525616559</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" si="4"/>
-        <v>5.2655256274270583E-2</v>
+        <f>D36/$I36*100</f>
+        <v>13.975535999788487</v>
       </c>
       <c r="Y36" s="5">
-        <f t="shared" si="5"/>
-        <v>5.634576890463374E-2</v>
-      </c>
-      <c r="AC36">
+        <f>E36/$I36*100</f>
+        <v>4.6393593162948957E-2</v>
+      </c>
+      <c r="Z36" s="5">
+        <f>F36/$I36*100</f>
+        <v>4.9645237037664186E-2</v>
+      </c>
+      <c r="AD36">
         <v>16</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>31</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>36</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>25</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>0.3</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>15.3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -37910,84 +36658,86 @@
       <c r="F37">
         <v>5.3418803419999996</v>
       </c>
-      <c r="G37" s="5">
-        <f t="shared" si="9"/>
-        <v>10315.377606342001</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" si="6"/>
-        <v>11140.607814849362</v>
+      <c r="G37">
+        <v>848.09</v>
+      </c>
+      <c r="H37">
+        <v>532</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11695.467606342001</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="5">
-        <f t="shared" si="8"/>
-        <v>68.347287207664792</v>
-      </c>
+      <c r="K37" s="9"/>
       <c r="L37" s="5">
+        <f t="shared" si="2"/>
+        <v>71.751335008233141</v>
+      </c>
+      <c r="M37" s="5">
         <v>81.123619750000003</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
         <v>102.3</v>
       </c>
-      <c r="O37" s="5">
+      <c r="P37" s="5">
         <v>102</v>
       </c>
-      <c r="P37" s="5">
+      <c r="Q37" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="R37" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R37" s="5">
+      <c r="S37" s="5">
         <v>102.7</v>
       </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="5">
-        <f t="shared" si="1"/>
-        <v>80.391628076722682</v>
-      </c>
+      <c r="T37" s="5"/>
+      <c r="U37" s="9"/>
       <c r="V37" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0640296070427828</v>
+        <f>B37/$I37*100</f>
+        <v>70.905245340538485</v>
       </c>
       <c r="W37" s="5">
-        <f t="shared" si="3"/>
-        <v>15.440440348211462</v>
+        <f>C37/$I37*100</f>
+        <v>3.5844654879183557</v>
       </c>
       <c r="X37" s="5">
-        <f t="shared" si="4"/>
-        <v>5.2116366507948091E-2</v>
+        <f>D37/$I37*100</f>
+        <v>13.618435616343538</v>
       </c>
       <c r="Y37" s="5">
-        <f t="shared" si="5"/>
-        <v>5.1785601515118136E-2</v>
-      </c>
-      <c r="AC37">
+        <f>E37/$I37*100</f>
+        <v>4.5966524648273173E-2</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>F37/$I37*100</f>
+        <v>4.5674790626612519E-2</v>
+      </c>
+      <c r="AD37">
         <v>16.3</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>31</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>36</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>25</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.3</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>15.3</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -38006,89 +36756,91 @@
       <c r="F38">
         <v>4.5200525970000003</v>
       </c>
-      <c r="G38" s="5">
-        <f t="shared" si="9"/>
-        <v>10150.433136596999</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" si="6"/>
-        <v>10962.46778752476</v>
+      <c r="G38">
+        <v>850.28</v>
+      </c>
+      <c r="H38">
+        <v>532</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11532.713136597</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="5">
-        <f t="shared" si="8"/>
-        <v>64.48510463249859</v>
-      </c>
+      <c r="K38" s="9"/>
       <c r="L38" s="5">
+        <f t="shared" si="2"/>
+        <v>67.83948903880588</v>
+      </c>
+      <c r="M38" s="5">
         <v>79.40088154</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>65</v>
       </c>
-      <c r="N38" s="5">
+      <c r="O38" s="5">
         <v>102.3</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
         <v>102</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q38" s="5">
+      <c r="R38" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R38" s="5">
+      <c r="S38" s="5">
         <v>102.7</v>
       </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="5">
-        <f t="shared" si="1"/>
-        <v>81.037551691687796</v>
-      </c>
+      <c r="T38" s="5"/>
+      <c r="U38" s="9"/>
       <c r="V38" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1300700606412377</v>
+        <f>B38/$I38*100</f>
+        <v>71.324608551107843</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="3"/>
-        <v>14.73082383656083</v>
+        <f>C38/$I38*100</f>
+        <v>3.6350509635905226</v>
       </c>
       <c r="X38" s="5">
-        <f t="shared" si="4"/>
-        <v>5.7023773489340179E-2</v>
+        <f>D38/$I38*100</f>
+        <v>12.965226883647318</v>
       </c>
       <c r="Y38" s="5">
-        <f t="shared" si="5"/>
-        <v>4.4530637620803816E-2</v>
-      </c>
-      <c r="AC38">
+        <f>E38/$I38*100</f>
+        <v>5.0189057262096555E-2</v>
+      </c>
+      <c r="Z38" s="5">
+        <f>F38/$I38*100</f>
+        <v>3.919331508087566E-2</v>
+      </c>
+      <c r="AD38">
         <v>17</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>31</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>36</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>25</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.3</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>15.3</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -38107,84 +36859,86 @@
       <c r="F39">
         <v>4.0997570090000002</v>
       </c>
-      <c r="G39" s="5">
-        <f t="shared" si="9"/>
-        <v>10000.933893009</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="6"/>
-        <v>10801.00860444972</v>
+      <c r="G39">
+        <v>852.81</v>
+      </c>
+      <c r="H39">
+        <v>532</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11385.743893008999</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="5">
-        <f t="shared" si="8"/>
-        <v>61.720049168284113</v>
-      </c>
+      <c r="K39" s="9"/>
       <c r="L39" s="5">
+        <f t="shared" si="2"/>
+        <v>65.06139367433714</v>
+      </c>
+      <c r="M39" s="5">
         <v>77.714727339999996</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5">
         <v>102.3</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="5">
         <v>102</v>
       </c>
-      <c r="P39" s="5">
+      <c r="Q39" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q39" s="5">
+      <c r="R39" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R39" s="5">
+      <c r="S39" s="5">
         <v>102.7</v>
       </c>
-      <c r="S39" s="5"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="5">
-        <f t="shared" si="1"/>
-        <v>81.581256183518477</v>
-      </c>
+      <c r="T39" s="5"/>
+      <c r="U39" s="9"/>
       <c r="V39" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1918085299318832</v>
+        <f>B39/$I39*100</f>
+        <v>71.658800484785772</v>
       </c>
       <c r="W39" s="5">
-        <f t="shared" si="3"/>
-        <v>14.123944134731307</v>
+        <f>C39/$I39*100</f>
+        <v>3.6819728595635004</v>
       </c>
       <c r="X39" s="5">
-        <f t="shared" si="4"/>
-        <v>6.1997410105212668E-2</v>
+        <f>D39/$I39*100</f>
+        <v>12.406095985237382</v>
       </c>
       <c r="Y39" s="5">
-        <f t="shared" si="5"/>
-        <v>4.099374171312014E-2</v>
-      </c>
-      <c r="AC39">
+        <f>E39/$I39*100</f>
+        <v>5.4456872192664374E-2</v>
+      </c>
+      <c r="Z39" s="5">
+        <f>F39/$I39*100</f>
+        <v>3.6007809832410746E-2</v>
+      </c>
+      <c r="AD39">
         <v>17.5</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>31</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>36</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>25</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>0.3</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>15.3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2017</v>
       </c>
@@ -38203,84 +36957,86 @@
       <c r="F40">
         <v>4.079110301</v>
       </c>
-      <c r="G40" s="5">
-        <f t="shared" si="9"/>
-        <v>10100.073846300998</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="6"/>
-        <v>10908.079754005079</v>
+      <c r="G40">
+        <v>847.99</v>
+      </c>
+      <c r="H40">
+        <v>532</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11480.063846300998</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="5">
-        <f t="shared" si="8"/>
-        <v>61.62756923166711</v>
-      </c>
+      <c r="K40" s="9"/>
       <c r="L40" s="5">
+        <f t="shared" si="2"/>
+        <v>64.859117775711852</v>
+      </c>
+      <c r="M40" s="5">
         <v>76.064380240000006</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5">
         <v>102.3</v>
       </c>
-      <c r="O40" s="5">
+      <c r="P40" s="5">
         <v>102</v>
       </c>
-      <c r="P40" s="5">
+      <c r="Q40" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q40" s="5">
+      <c r="R40" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R40" s="5">
+      <c r="S40" s="5">
         <v>102.7</v>
       </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="5">
-        <f t="shared" si="1"/>
-        <v>82.076132572396958</v>
-      </c>
+      <c r="T40" s="5"/>
+      <c r="U40" s="9"/>
       <c r="V40" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1506627216743874</v>
+        <f>B40/$I40*100</f>
+        <v>72.209964256174828</v>
       </c>
       <c r="W40" s="5">
-        <f t="shared" si="3"/>
-        <v>13.661493143491606</v>
+        <f>C40/$I40*100</f>
+        <v>3.6517218511382872</v>
       </c>
       <c r="X40" s="5">
-        <f t="shared" si="4"/>
-        <v>7.1324627023774678E-2</v>
+        <f>D40/$I40*100</f>
+        <v>12.019278938458111</v>
       </c>
       <c r="Y40" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0386935413288229E-2</v>
-      </c>
-      <c r="AC40">
+        <f>E40/$I40*100</f>
+        <v>6.2750870521692745E-2</v>
+      </c>
+      <c r="Z40" s="5">
+        <f>F40/$I40*100</f>
+        <v>3.5532122082355268E-2</v>
+      </c>
+      <c r="AD40">
         <v>17.7</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>31</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>36</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>25</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>0.3</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>15.3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -38299,84 +37055,86 @@
       <c r="F41">
         <v>4.3128338230000001</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="9"/>
-        <v>10134.439229122998</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="6"/>
-        <v>10945.194367452839</v>
+      <c r="G41">
+        <v>848.95500000000004</v>
+      </c>
+      <c r="H41">
+        <v>532</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11515.394229122998</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="5">
-        <f t="shared" si="8"/>
-        <v>59.484751997026301</v>
-      </c>
+      <c r="K41" s="9"/>
       <c r="L41" s="5">
+        <f t="shared" si="2"/>
+        <v>62.583664288711944</v>
+      </c>
+      <c r="M41" s="5">
         <v>74.449079859999998</v>
       </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5">
         <v>102.3</v>
       </c>
-      <c r="O41" s="5">
+      <c r="P41" s="5">
         <v>102</v>
       </c>
-      <c r="P41" s="5">
+      <c r="Q41" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q41" s="5">
+      <c r="R41" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R41" s="5">
+      <c r="S41" s="5">
         <v>102.7</v>
       </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="5">
-        <f t="shared" si="1"/>
-        <v>82.393804049901973</v>
-      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="9"/>
       <c r="V41" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0540477772005357</v>
+        <f>B41/$I41*100</f>
+        <v>72.512932113796495</v>
       </c>
       <c r="W41" s="5">
-        <f t="shared" si="3"/>
-        <v>13.436033669105482</v>
+        <f>C41/$I41*100</f>
+        <v>3.5678761849153848</v>
       </c>
       <c r="X41" s="5">
-        <f t="shared" si="4"/>
-        <v>7.3558288045949521E-2</v>
+        <f>D41/$I41*100</f>
+        <v>11.824750763254618</v>
       </c>
       <c r="Y41" s="5">
-        <f t="shared" si="5"/>
-        <v>4.255621574607063E-2</v>
-      </c>
-      <c r="AC41">
+        <f>E41/$I41*100</f>
+        <v>6.4736993381838775E-2</v>
+      </c>
+      <c r="Z41" s="5">
+        <f>F41/$I41*100</f>
+        <v>3.7452767462295221E-2</v>
+      </c>
+      <c r="AD41">
         <v>18.399999999999999</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>31</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>36</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>25</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>0.3</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>15.3</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -38395,84 +37153,86 @@
       <c r="F42">
         <v>4.1473098100000003</v>
       </c>
-      <c r="G42" s="5">
-        <f t="shared" si="9"/>
-        <v>10365.696155509999</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="6"/>
-        <v>11194.951847950799</v>
+      <c r="G42">
+        <v>851.31</v>
+      </c>
+      <c r="H42">
+        <v>532</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11749.006155509998</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="5">
-        <f t="shared" si="8"/>
-        <v>58.307040874743741</v>
-      </c>
+      <c r="K42" s="9"/>
       <c r="L42" s="5">
+        <f t="shared" si="2"/>
+        <v>61.192740393281241</v>
+      </c>
+      <c r="M42" s="5">
         <v>72.868081930000002</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5">
         <v>102.3</v>
       </c>
-      <c r="O42" s="5">
+      <c r="P42" s="5">
         <v>102</v>
       </c>
-      <c r="P42" s="5">
+      <c r="Q42" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q42" s="5">
+      <c r="R42" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R42" s="5">
+      <c r="S42" s="5">
         <v>102.7</v>
       </c>
-      <c r="S42" s="5"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="5">
-        <f t="shared" si="1"/>
-        <v>83.038320541786177</v>
-      </c>
+      <c r="T42" s="5"/>
+      <c r="U42" s="9"/>
       <c r="V42" s="5">
-        <f t="shared" si="2"/>
-        <v>3.8795336142111183</v>
+        <f>B42/$I42*100</f>
+        <v>73.26151579181267</v>
       </c>
       <c r="W42" s="5">
-        <f t="shared" si="3"/>
-        <v>12.962439172845809</v>
+        <f>C42/$I42*100</f>
+        <v>3.4227632650563029</v>
       </c>
       <c r="X42" s="5">
-        <f t="shared" si="4"/>
-        <v>7.9696721532867928E-2</v>
+        <f>D42/$I42*100</f>
+        <v>11.436261426843004</v>
       </c>
       <c r="Y42" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0009949624034202E-2</v>
-      </c>
-      <c r="AC42">
+        <f>E42/$I42*100</f>
+        <v>7.0313351535063545E-2</v>
+      </c>
+      <c r="Z42" s="5">
+        <f>F42/$I42*100</f>
+        <v>3.5299239400389731E-2</v>
+      </c>
+      <c r="AD42">
         <v>19.2</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>31</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>36</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>25</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>0.3</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>15.3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -38491,91 +37251,93 @@
       <c r="F43">
         <v>3.5949654450000001</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="9"/>
-        <v>10711.021287744999</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="6"/>
-        <v>11567.9029907646</v>
+      <c r="G43">
+        <v>849.44500000000005</v>
+      </c>
+      <c r="H43">
+        <v>532</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>12092.466287744999</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="1"/>
         <v>202.52588490000002</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="5">
-        <f t="shared" si="8"/>
-        <v>57.118145645809243</v>
-      </c>
+      <c r="K43" s="9"/>
       <c r="L43" s="5">
+        <f t="shared" si="2"/>
+        <v>59.708250595798276</v>
+      </c>
+      <c r="M43" s="5">
         <v>71.320658019999996</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>65</v>
       </c>
-      <c r="N43" s="5">
+      <c r="O43" s="5">
         <v>102.3</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="5">
         <v>102</v>
       </c>
-      <c r="P43" s="5">
+      <c r="Q43" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q43" s="5">
+      <c r="R43" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R43" s="5">
+      <c r="S43" s="5">
         <v>102.7</v>
       </c>
-      <c r="S43" s="5">
+      <c r="T43" s="5">
         <v>76</v>
       </c>
-      <c r="T43" s="9"/>
-      <c r="U43" s="5">
-        <f t="shared" si="1"/>
-        <v>83.796864546140952</v>
-      </c>
+      <c r="U43" s="9"/>
       <c r="V43" s="5">
-        <f t="shared" si="2"/>
-        <v>3.5482515914223631</v>
+        <f>B43/$I43*100</f>
+        <v>74.223899297500125</v>
       </c>
       <c r="W43" s="5">
-        <f t="shared" si="3"/>
-        <v>12.544527948397711</v>
+        <f>C43/$I43*100</f>
+        <v>3.1428988450864019</v>
       </c>
       <c r="X43" s="5">
-        <f t="shared" si="4"/>
-        <v>7.6792677178327926E-2</v>
+        <f>D43/$I43*100</f>
+        <v>11.111439362553419</v>
       </c>
       <c r="Y43" s="5">
-        <f t="shared" si="5"/>
-        <v>3.356323686064535E-2</v>
-      </c>
-      <c r="AC43">
+        <f>E43/$I43*100</f>
+        <v>6.8019871251043598E-2</v>
+      </c>
+      <c r="Z43" s="5">
+        <f>F43/$I43*100</f>
+        <v>2.9728968098453872E-2</v>
+      </c>
+      <c r="AD43">
         <v>20.252588490000001</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>40</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>44</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>35</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>0.5</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>15.3</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -38594,86 +37356,88 @@
       <c r="F44">
         <v>3.3412788689999999</v>
       </c>
-      <c r="G44" s="5">
-        <f t="shared" si="9"/>
-        <v>10678.168171469</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="6"/>
-        <v>11532.421625186522</v>
+      <c r="G44">
+        <v>849.14499999999998</v>
+      </c>
+      <c r="H44">
+        <v>520</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>12047.313171469001</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="1"/>
         <v>208.94864799999999</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="5">
-        <f t="shared" si="8"/>
-        <v>55.192611847799668</v>
-      </c>
+      <c r="K44" s="9"/>
       <c r="L44" s="5">
+        <f t="shared" si="2"/>
+        <v>57.656813225558658</v>
+      </c>
+      <c r="M44" s="5">
         <v>69.806095139999996</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5">
+      <c r="N44" s="5"/>
+      <c r="O44" s="5">
         <v>102.3</v>
       </c>
-      <c r="O44" s="5">
+      <c r="P44" s="5">
         <v>102</v>
       </c>
-      <c r="P44" s="5">
+      <c r="Q44" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q44" s="5">
+      <c r="R44" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R44" s="5">
+      <c r="S44" s="5">
         <v>102.7</v>
       </c>
-      <c r="S44" s="5">
+      <c r="T44" s="5">
         <v>76</v>
       </c>
-      <c r="T44" s="9"/>
-      <c r="U44" s="5">
-        <f t="shared" si="1"/>
-        <v>84.536971651366599</v>
-      </c>
+      <c r="U44" s="9"/>
       <c r="V44" s="5">
-        <f t="shared" si="2"/>
-        <v>3.4404809486106767</v>
+        <f>B44/$I44*100</f>
+        <v>74.9295703657655</v>
       </c>
       <c r="W44" s="5">
-        <f t="shared" si="3"/>
-        <v>11.913808160458911</v>
+        <f>C44/$I44*100</f>
+        <v>3.0494794679202579</v>
       </c>
       <c r="X44" s="5">
-        <f t="shared" si="4"/>
-        <v>7.7448489920741548E-2</v>
+        <f>D44/$I44*100</f>
+        <v>10.559835648772097</v>
       </c>
       <c r="Y44" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1290749643066718E-2</v>
-      </c>
-      <c r="AC44">
+        <f>E44/$I44*100</f>
+        <v>6.8646675671929766E-2</v>
+      </c>
+      <c r="Z44" s="5">
+        <f>F44/$I44*100</f>
+        <v>2.7734639429088385E-2</v>
+      </c>
+      <c r="AD44">
         <v>20.894864800000001</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>40</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>44</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>35</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>0.5</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>15.3</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -38692,86 +37456,88 @@
       <c r="F45">
         <v>3.0936340219999998</v>
       </c>
-      <c r="G45" s="5">
-        <f t="shared" si="9"/>
-        <v>10723.350508022</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="6"/>
-        <v>11581.218548663761</v>
+      <c r="G45">
+        <v>839.24437499999999</v>
+      </c>
+      <c r="H45">
+        <v>510</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>12072.594883022</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="1"/>
         <v>213.6288232</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="5">
-        <f t="shared" si="8"/>
-        <v>54.211872607758487</v>
-      </c>
+      <c r="K45" s="9"/>
       <c r="L45" s="5">
+        <f t="shared" si="2"/>
+        <v>56.512013230160413</v>
+      </c>
+      <c r="M45" s="5">
         <v>68.323695470000004</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5">
         <v>102.3</v>
       </c>
-      <c r="O45" s="5">
+      <c r="P45" s="5">
         <v>102</v>
       </c>
-      <c r="P45" s="5">
+      <c r="Q45" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q45" s="5">
+      <c r="R45" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R45" s="5">
+      <c r="S45" s="5">
         <v>102.7</v>
       </c>
-      <c r="S45" s="5">
+      <c r="T45" s="5">
         <v>76</v>
       </c>
-      <c r="T45" s="9"/>
-      <c r="U45" s="5">
-        <f t="shared" si="1"/>
-        <v>84.92215183293267</v>
-      </c>
+      <c r="U45" s="9"/>
       <c r="V45" s="5">
-        <f t="shared" si="2"/>
-        <v>3.307797313299127</v>
+        <f>B45/$I45*100</f>
+        <v>75.431173564903631</v>
       </c>
       <c r="W45" s="5">
-        <f t="shared" si="3"/>
-        <v>11.66366140008518</v>
+        <f>C45/$I45*100</f>
+        <v>2.9381148248321756</v>
       </c>
       <c r="X45" s="5">
-        <f t="shared" si="4"/>
-        <v>7.7539944197289323E-2</v>
+        <f>D45/$I45*100</f>
+        <v>10.360119809527786</v>
       </c>
       <c r="Y45" s="5">
-        <f t="shared" si="5"/>
-        <v>2.884950948573109E-2</v>
-      </c>
-      <c r="AC45">
+        <f>E45/$I45*100</f>
+        <v>6.8874008285438534E-2</v>
+      </c>
+      <c r="Z45" s="5">
+        <f>F45/$I45*100</f>
+        <v>2.5625261610912303E-2</v>
+      </c>
+      <c r="AD45">
         <v>21.362882320000001</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>40</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>44</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>35</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>0.5</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>15.3</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2023</v>
       </c>
@@ -38790,86 +37556,88 @@
       <c r="F46">
         <v>2.8988638820000001</v>
       </c>
-      <c r="G46" s="5">
-        <f t="shared" si="9"/>
-        <v>10772.625575282</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="6"/>
-        <v>11634.435621304561</v>
+      <c r="G46">
+        <v>829.23500000000001</v>
+      </c>
+      <c r="H46">
+        <v>500</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>12101.860575282</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="1"/>
         <v>217.3311205</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="5">
-        <f t="shared" si="8"/>
-        <v>53.533224300955837</v>
-      </c>
+      <c r="K46" s="9"/>
       <c r="L46" s="5">
+        <f t="shared" si="2"/>
+        <v>55.683974515200646</v>
+      </c>
+      <c r="M46" s="5">
         <v>66.87277598</v>
       </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5">
         <v>102.3</v>
       </c>
-      <c r="O46" s="5">
+      <c r="P46" s="5">
         <v>102</v>
       </c>
-      <c r="P46" s="5">
+      <c r="Q46" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q46" s="5">
+      <c r="R46" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R46" s="5">
+      <c r="S46" s="5">
         <v>102.7</v>
       </c>
-      <c r="S46" s="5">
+      <c r="T46" s="5">
         <v>76</v>
       </c>
-      <c r="T46" s="9"/>
-      <c r="U46" s="5">
-        <f t="shared" si="1"/>
-        <v>85.248948232934367</v>
-      </c>
+      <c r="U46" s="9"/>
       <c r="V46" s="5">
-        <f t="shared" si="2"/>
-        <v>3.235014815697586</v>
+        <f>B46/$I46*100</f>
+        <v>75.885438795728334</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" si="3"/>
-        <v>11.411276753372357</v>
+        <f>C46/$I46*100</f>
+        <v>2.879689707480201</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="4"/>
-        <v>7.7850658981809651E-2</v>
+        <f>D46/$I46*100</f>
+        <v>10.157893576387982</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="5"/>
-        <v>2.6909539013882561E-2</v>
-      </c>
-      <c r="AC46">
+        <f>E46/$I46*100</f>
+        <v>6.929975723839947E-2</v>
+      </c>
+      <c r="Z46" s="5">
+        <f>F46/$I46*100</f>
+        <v>2.395386943988528E-2</v>
+      </c>
+      <c r="AD46">
         <v>21.733112049999999</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>40</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>44</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>35</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>0.5</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>15.3</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2024</v>
       </c>
@@ -38888,86 +37656,88 @@
       <c r="F47">
         <v>2.692895407</v>
       </c>
-      <c r="G47" s="5">
-        <f t="shared" si="9"/>
-        <v>10677.261502107001</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="6"/>
-        <v>11531.442422275562</v>
+      <c r="G47">
+        <v>801.36775</v>
+      </c>
+      <c r="H47">
+        <v>490</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11968.629252107001</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="1"/>
         <v>220.40369699999999</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="5">
-        <f t="shared" si="8"/>
-        <v>52.31964154519406</v>
-      </c>
+      <c r="K47" s="9"/>
       <c r="L47" s="5">
+        <f t="shared" si="2"/>
+        <v>54.303214578596659</v>
+      </c>
+      <c r="M47" s="5">
         <v>65.452668169999995</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5">
         <v>102.3</v>
       </c>
-      <c r="O47" s="5">
+      <c r="P47" s="5">
         <v>102</v>
       </c>
-      <c r="P47" s="5">
+      <c r="Q47" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q47" s="5">
+      <c r="R47" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R47" s="5">
+      <c r="S47" s="5">
         <v>102.7</v>
       </c>
-      <c r="S47" s="5">
+      <c r="T47" s="5">
         <v>76</v>
       </c>
-      <c r="T47" s="9"/>
-      <c r="U47" s="5">
-        <f t="shared" si="1"/>
-        <v>85.310498372663318</v>
-      </c>
+      <c r="U47" s="9"/>
       <c r="V47" s="5">
-        <f t="shared" si="2"/>
-        <v>3.2057411596827046</v>
+        <f>B47/$I47*100</f>
+        <v>76.105833075215784</v>
       </c>
       <c r="W47" s="5">
-        <f t="shared" si="3"/>
-        <v>11.379322308067827</v>
+        <f>C47/$I47*100</f>
+        <v>2.8598543700377621</v>
       </c>
       <c r="X47" s="5">
-        <f t="shared" si="4"/>
-        <v>7.9217316147318195E-2</v>
+        <f>D47/$I47*100</f>
+        <v>10.151538446109917</v>
       </c>
       <c r="Y47" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5220843438821802E-2</v>
-      </c>
-      <c r="AC47">
+        <f>E47/$I47*100</f>
+        <v>7.0670081108168512E-2</v>
+      </c>
+      <c r="Z47" s="5">
+        <f>F47/$I47*100</f>
+        <v>2.2499614202068571E-2</v>
+      </c>
+      <c r="AD47">
         <v>22.040369699999999</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>40</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>44</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>35</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>0.5</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>15.3</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2025</v>
       </c>
@@ -38986,91 +37756,93 @@
       <c r="F48">
         <v>2.542951049</v>
       </c>
-      <c r="G48" s="5">
-        <f t="shared" si="9"/>
-        <v>10581.555545882</v>
-      </c>
-      <c r="H48" s="5">
-        <f t="shared" si="6"/>
-        <v>11428.079989552562</v>
+      <c r="G48">
+        <v>773.91700000000003</v>
+      </c>
+      <c r="H48">
+        <v>480</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11835.472545881999</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="1"/>
         <v>223.03538889999999</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="5">
-        <f t="shared" si="8"/>
-        <v>51.238864136831886</v>
-      </c>
+      <c r="K48" s="9"/>
       <c r="L48" s="5">
+        <f t="shared" si="2"/>
+        <v>53.065446717913204</v>
+      </c>
+      <c r="M48" s="5">
         <v>64.062717710000001</v>
       </c>
-      <c r="M48" s="5">
+      <c r="N48" s="5">
         <v>65</v>
       </c>
-      <c r="N48" s="5">
+      <c r="O48" s="5">
         <v>102.3</v>
       </c>
-      <c r="O48" s="5">
+      <c r="P48" s="5">
         <v>102</v>
       </c>
-      <c r="P48" s="5">
+      <c r="Q48" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q48" s="5">
+      <c r="R48" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R48" s="5">
+      <c r="S48" s="5">
         <v>102.7</v>
       </c>
-      <c r="S48" s="5">
+      <c r="T48" s="5">
         <v>76</v>
       </c>
-      <c r="T48" s="9"/>
-      <c r="U48" s="5">
-        <f t="shared" si="1"/>
-        <v>85.375916242444902</v>
-      </c>
+      <c r="U48" s="9"/>
       <c r="V48" s="5">
-        <f t="shared" si="2"/>
-        <v>3.1754433272409059</v>
+        <f>B48/$I48*100</f>
+        <v>76.330708089414642</v>
       </c>
       <c r="W48" s="5">
-        <f t="shared" si="3"/>
-        <v>11.34715852308951</v>
+        <f>C48/$I48*100</f>
+        <v>2.8390188748053902</v>
       </c>
       <c r="X48" s="5">
-        <f t="shared" si="4"/>
-        <v>7.7449986417066921E-2</v>
+        <f>D48/$I48*100</f>
+        <v>10.144976276572667</v>
       </c>
       <c r="Y48" s="5">
-        <f t="shared" si="5"/>
-        <v>2.4031920807613533E-2</v>
-      </c>
-      <c r="AC48">
+        <f>E48/$I48*100</f>
+        <v>6.9244496163792704E-2</v>
+      </c>
+      <c r="Z48" s="5">
+        <f>F48/$I48*100</f>
+        <v>2.1485842995637612E-2</v>
+      </c>
+      <c r="AD48">
         <v>22.303538889999999</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>40</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>44</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>35</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>0.5</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>15.3</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2026</v>
       </c>
@@ -39089,86 +37861,88 @@
       <c r="F49">
         <v>2.4012622069999998</v>
       </c>
-      <c r="G49" s="5">
-        <f t="shared" si="9"/>
-        <v>10736.455885074001</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" si="6"/>
-        <v>11595.372355879923</v>
+      <c r="G49">
+        <v>752.61400000000003</v>
+      </c>
+      <c r="H49">
+        <v>470</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>11959.069885074001</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="1"/>
         <v>225.34045020000002</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="5">
-        <f t="shared" si="8"/>
-        <v>51.457127850718749</v>
-      </c>
+      <c r="K49" s="9"/>
       <c r="L49" s="5">
+        <f t="shared" si="2"/>
+        <v>53.071119164179251</v>
+      </c>
+      <c r="M49" s="5">
         <v>62.70228419</v>
       </c>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5">
+      <c r="N49" s="5"/>
+      <c r="O49" s="5">
         <v>102.3</v>
       </c>
-      <c r="O49" s="5">
+      <c r="P49" s="5">
         <v>102</v>
       </c>
-      <c r="P49" s="5">
+      <c r="Q49" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q49" s="5">
+      <c r="R49" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R49" s="5">
+      <c r="S49" s="5">
         <v>102.7</v>
       </c>
-      <c r="S49" s="5">
+      <c r="T49" s="5">
         <v>76</v>
       </c>
-      <c r="T49" s="9"/>
-      <c r="U49" s="5">
-        <f t="shared" si="1"/>
-        <v>85.737867612321068</v>
-      </c>
+      <c r="U49" s="9"/>
       <c r="V49" s="5">
-        <f t="shared" si="2"/>
-        <v>3.0711925399740725</v>
+        <f>B49/$I49*100</f>
+        <v>76.9726109259461</v>
       </c>
       <c r="W49" s="5">
-        <f t="shared" si="3"/>
-        <v>11.094689753776134</v>
+        <f>C49/$I49*100</f>
+        <v>2.7572146945268865</v>
       </c>
       <c r="X49" s="5">
-        <f t="shared" si="4"/>
-        <v>7.3884592382370912E-2</v>
+        <f>D49/$I49*100</f>
+        <v>9.9604441018167797</v>
       </c>
       <c r="Y49" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2365501546355481E-2</v>
-      </c>
-      <c r="AC49">
+        <f>E49/$I49*100</f>
+        <v>6.6331133969712686E-2</v>
+      </c>
+      <c r="Z49" s="5">
+        <f>F49/$I49*100</f>
+        <v>2.0079004722574553E-2</v>
+      </c>
+      <c r="AD49">
         <v>22.534045020000001</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>40</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>44</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>35</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>0.5</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>15.3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2027</v>
       </c>
@@ -39187,86 +37961,88 @@
       <c r="F50">
         <v>2.2668844890000002</v>
       </c>
-      <c r="G50" s="5">
-        <f t="shared" si="9"/>
-        <v>10888.913535488999</v>
-      </c>
-      <c r="H50" s="5">
-        <f t="shared" si="6"/>
-        <v>11760.02661832812</v>
+      <c r="G50">
+        <v>731.46833330000004</v>
+      </c>
+      <c r="H50">
+        <v>460</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
+        <v>12080.381868788998</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="1"/>
         <v>227.39342440000001</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="5">
-        <f t="shared" si="8"/>
-        <v>51.71665209474773</v>
-      </c>
+      <c r="K50" s="9"/>
       <c r="L50" s="5">
+        <f t="shared" si="2"/>
+        <v>53.125467021151898</v>
+      </c>
+      <c r="M50" s="5">
         <v>61.370740789999999</v>
       </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5">
         <v>102.3</v>
       </c>
-      <c r="O50" s="5">
+      <c r="P50" s="5">
         <v>102</v>
       </c>
-      <c r="P50" s="5">
+      <c r="Q50" s="5">
         <v>101.6</v>
       </c>
-      <c r="Q50" s="5">
+      <c r="R50" s="5">
         <v>74.400000000000006</v>
       </c>
-      <c r="R50" s="5">
+      <c r="S50" s="5">
         <v>102.7</v>
       </c>
-      <c r="S50" s="5">
+      <c r="T50" s="5">
         <v>76</v>
       </c>
-      <c r="T50" s="9"/>
-      <c r="U50" s="5">
-        <f t="shared" ref="U50:U73" si="10">B50/$G50*100</f>
-        <v>86.086335762046616</v>
-      </c>
+      <c r="U50" s="9"/>
       <c r="V50" s="5">
-        <f t="shared" ref="V50:V73" si="11">C50/$G50*100</f>
-        <v>2.9705733629509798</v>
+        <f t="shared" ref="V50:V73" si="3">B50/$I50*100</f>
+        <v>77.595781067305666</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" ref="W50:W73" si="12">D50/$G50*100</f>
-        <v>10.851836183185695</v>
+        <f t="shared" ref="W50:W73" si="4">C50/$I50*100</f>
+        <v>2.6775905638852597</v>
       </c>
       <c r="X50" s="5">
-        <f t="shared" ref="X50:X73" si="13">E50/$G50*100</f>
-        <v>7.0436411998339624E-2</v>
+        <f t="shared" ref="X50:X73" si="5">D50/$I50*100</f>
+        <v>9.7815373043207821</v>
       </c>
       <c r="Y50" s="5">
-        <f t="shared" ref="Y50:Y73" si="14">F50/$G50*100</f>
-        <v>2.0818279818384095E-2</v>
-      </c>
-      <c r="AC50">
+        <f t="shared" ref="Y50:Y73" si="6">E50/$I50*100</f>
+        <v>6.3489383724000259E-2</v>
+      </c>
+      <c r="Z50" s="5">
+        <f t="shared" ref="Z50:Z73" si="7">F50/$I50*100</f>
+        <v>1.8765006881584983E-2</v>
+      </c>
+      <c r="AD50">
         <v>22.739342440000001</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>40</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>44</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>35</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>0.5</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>15.3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2028</v>
       </c>
@@ -39285,86 +38061,88 @@
       <c r="F51">
         <v>2.1296348279999999</v>
       </c>
-      <c r="G51" s="5">
-        <f t="shared" si="9"/>
-        <v>11042.125561795001</v>
-      </c>
-      <c r="H51" s="5">
+      <c r="G51">
+        <v>710.48</v>
+      </c>
+      <c r="H51">
+        <v>450</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="0"/>
+        <v>12202.605561795001</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="1"/>
+        <v>229.24571610000004</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="5">
+        <f t="shared" si="2"/>
+        <v>53.229372262171573</v>
+      </c>
+      <c r="M51" s="5">
+        <v>60.067473990000003</v>
+      </c>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
+        <v>102.3</v>
+      </c>
+      <c r="P51" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R51" s="5">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="S51" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T51" s="5">
+        <v>76</v>
+      </c>
+      <c r="U51" s="9"/>
+      <c r="V51" s="5">
+        <f t="shared" si="3"/>
+        <v>78.180638976555244</v>
+      </c>
+      <c r="W51" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6257367057996426</v>
+      </c>
+      <c r="X51" s="5">
+        <f t="shared" si="5"/>
+        <v>9.6054702503026892</v>
+      </c>
+      <c r="Y51" s="5">
         <f t="shared" si="6"/>
-        <v>11925.495606738601</v>
-      </c>
-      <c r="I51" s="5">
+        <v>6.0601702067244391E-2</v>
+      </c>
+      <c r="Z51" s="5">
         <f t="shared" si="7"/>
-        <v>229.24571610000004</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="5">
-        <f t="shared" si="8"/>
-        <v>52.020582149227778</v>
-      </c>
-      <c r="L51" s="5">
-        <v>60.067473990000003</v>
-      </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5">
-        <v>102.3</v>
-      </c>
-      <c r="O51" s="5">
-        <v>102</v>
-      </c>
-      <c r="P51" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q51" s="5">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="R51" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S51" s="5">
-        <v>76</v>
-      </c>
-      <c r="T51" s="9"/>
-      <c r="U51" s="5">
-        <f t="shared" si="10"/>
-        <v>86.397088555196362</v>
-      </c>
-      <c r="V51" s="5">
-        <f t="shared" si="11"/>
-        <v>2.9016903630274848</v>
-      </c>
-      <c r="W51" s="5">
-        <f t="shared" si="12"/>
-        <v>10.614963943676269</v>
-      </c>
-      <c r="X51" s="5">
-        <f t="shared" si="13"/>
-        <v>6.6970680831470966E-2</v>
-      </c>
-      <c r="Y51" s="5">
-        <f t="shared" si="14"/>
-        <v>1.9286457268412077E-2</v>
-      </c>
-      <c r="AC51">
+        <v>1.7452295882345401E-2</v>
+      </c>
+      <c r="AD51">
         <v>22.924571610000001</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>40</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>44</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>35</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>0.5</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>15.3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2029</v>
       </c>
@@ -39383,86 +38161,88 @@
       <c r="F52">
         <v>1.9927764130000001</v>
       </c>
-      <c r="G52" s="5">
-        <f t="shared" si="9"/>
-        <v>11224.862979446001</v>
-      </c>
-      <c r="H52" s="5">
+      <c r="G52">
+        <v>710.35866669999996</v>
+      </c>
+      <c r="H52">
+        <v>450</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="0"/>
+        <v>12385.221646146001</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="1"/>
+        <v>230.93431240000001</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="5">
+        <f t="shared" si="2"/>
+        <v>53.630928714887673</v>
+      </c>
+      <c r="M52" s="5">
+        <v>58.791883319999997</v>
+      </c>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5">
+        <v>102.3</v>
+      </c>
+      <c r="P52" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R52" s="5">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="S52" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T52" s="5">
+        <v>76</v>
+      </c>
+      <c r="U52" s="9"/>
+      <c r="V52" s="5">
+        <f t="shared" si="3"/>
+        <v>78.608268880109733</v>
+      </c>
+      <c r="W52" s="5">
+        <f t="shared" si="4"/>
+        <v>2.5623556103152434</v>
+      </c>
+      <c r="X52" s="5">
+        <f t="shared" si="5"/>
+        <v>9.3868989043225639</v>
+      </c>
+      <c r="Y52" s="5">
         <f t="shared" si="6"/>
-        <v>12122.852017801682</v>
-      </c>
-      <c r="I52" s="5">
+        <v>5.748959151825634E-2</v>
+      </c>
+      <c r="Z52" s="5">
         <f t="shared" si="7"/>
-        <v>230.93431240000001</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="5">
-        <f t="shared" si="8"/>
-        <v>52.494806388076967</v>
-      </c>
-      <c r="L52" s="5">
-        <v>58.791883319999997</v>
-      </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5">
-        <v>102.3</v>
-      </c>
-      <c r="O52" s="5">
-        <v>102</v>
-      </c>
-      <c r="P52" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="R52" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S52" s="5">
-        <v>76</v>
-      </c>
-      <c r="T52" s="9"/>
-      <c r="U52" s="5">
-        <f t="shared" si="10"/>
-        <v>86.734317833788893</v>
-      </c>
-      <c r="V52" s="5">
-        <f t="shared" si="11"/>
-        <v>2.8272364863705701</v>
-      </c>
-      <c r="W52" s="5">
-        <f t="shared" si="12"/>
-        <v>10.35725992494368</v>
-      </c>
-      <c r="X52" s="5">
-        <f t="shared" si="13"/>
-        <v>6.3432518918386083E-2</v>
-      </c>
-      <c r="Y52" s="5">
-        <f t="shared" si="14"/>
-        <v>1.7753235978461384E-2</v>
-      </c>
-      <c r="AC52">
+        <v>1.6089953574792152E-2</v>
+      </c>
+      <c r="AD52">
         <v>23.093431240000001</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>40</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>44</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>35</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>0.5</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>15.3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2030</v>
       </c>
@@ -39481,91 +38261,93 @@
       <c r="F53">
         <v>1.856311209</v>
       </c>
-      <c r="G53" s="5">
-        <f t="shared" si="9"/>
-        <v>11405.267458208999</v>
-      </c>
-      <c r="H53" s="5">
+      <c r="G53">
+        <v>710.23733330000005</v>
+      </c>
+      <c r="H53">
+        <v>450</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="0"/>
+        <v>12565.504791508998</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="1"/>
+        <v>232.48673840000001</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="5">
+        <f t="shared" si="2"/>
+        <v>54.048264765492526</v>
+      </c>
+      <c r="M53" s="5">
+        <v>57.54338104</v>
+      </c>
+      <c r="N53" s="5">
+        <v>60</v>
+      </c>
+      <c r="O53" s="5">
+        <v>102.3</v>
+      </c>
+      <c r="P53" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R53" s="5">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="S53" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T53" s="5">
+        <v>76</v>
+      </c>
+      <c r="U53" s="9"/>
+      <c r="V53" s="5">
+        <f t="shared" si="3"/>
+        <v>79.019573807409259</v>
+      </c>
+      <c r="W53" s="5">
+        <f t="shared" si="4"/>
+        <v>2.5012807301811204</v>
+      </c>
+      <c r="X53" s="5">
+        <f t="shared" si="5"/>
+        <v>9.1763828284810867</v>
+      </c>
+      <c r="Y53" s="5">
         <f t="shared" si="6"/>
-        <v>12317.688854865719</v>
-      </c>
-      <c r="I53" s="5">
+        <v>5.4478034218137669E-2</v>
+      </c>
+      <c r="Z53" s="5">
         <f t="shared" si="7"/>
-        <v>232.48673840000001</v>
-      </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="5">
-        <f t="shared" si="8"/>
-        <v>52.982328969116452</v>
-      </c>
-      <c r="L53" s="5">
-        <v>57.54338104</v>
-      </c>
-      <c r="M53" s="5">
-        <v>60</v>
-      </c>
-      <c r="N53" s="5">
-        <v>102.3</v>
-      </c>
-      <c r="O53" s="5">
-        <v>102</v>
-      </c>
-      <c r="P53" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="R53" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S53" s="5">
-        <v>76</v>
-      </c>
-      <c r="T53" s="9"/>
-      <c r="U53" s="5">
-        <f t="shared" si="10"/>
-        <v>87.058092845103801</v>
-      </c>
-      <c r="V53" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7557315174909118</v>
-      </c>
-      <c r="W53" s="5">
-        <f t="shared" si="12"/>
-        <v>10.10987973955911</v>
-      </c>
-      <c r="X53" s="5">
-        <f t="shared" si="13"/>
-        <v>6.0019986599024994E-2</v>
-      </c>
-      <c r="Y53" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6275911247165983E-2</v>
-      </c>
-      <c r="AC53">
+        <v>1.4773073106099025E-2</v>
+      </c>
+      <c r="AD53">
         <v>23.248673839999999</v>
       </c>
-      <c r="AD53">
+      <c r="AE53">
         <v>40</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>44</v>
       </c>
-      <c r="AF53">
+      <c r="AG53">
         <v>35</v>
       </c>
-      <c r="AG53">
+      <c r="AH53">
         <v>0.5</v>
       </c>
-      <c r="AH53">
+      <c r="AI53">
         <v>15.3</v>
       </c>
-      <c r="AI53">
+      <c r="AJ53">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2031</v>
       </c>
@@ -39584,82 +38366,84 @@
       <c r="F54">
         <v>1.856311209</v>
       </c>
-      <c r="G54" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H54" s="5">
+      <c r="G54">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H54">
+        <v>450</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="1"/>
+        <v>233.92404590000001</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="5">
+        <f t="shared" si="2"/>
+        <v>54.491707614608238</v>
+      </c>
+      <c r="M54" s="5">
+        <v>56.321391920000003</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T54" s="5">
+        <v>76</v>
+      </c>
+      <c r="U54" s="9"/>
+      <c r="V54" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W54" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X54" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y54" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I54" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z54" s="5">
         <f t="shared" si="7"/>
-        <v>233.92404590000001</v>
-      </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="5">
-        <f t="shared" si="8"/>
-        <v>53.494924141382249</v>
-      </c>
-      <c r="L54" s="5">
-        <v>56.321391920000003</v>
-      </c>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5">
-        <v>102</v>
-      </c>
-      <c r="P54" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S54" s="5">
-        <v>76</v>
-      </c>
-      <c r="T54" s="9"/>
-      <c r="U54" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V54" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W54" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X54" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y54" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC54">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD54">
         <v>23.392404590000002</v>
       </c>
-      <c r="AD54">
+      <c r="AE54">
         <v>40</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>44</v>
       </c>
-      <c r="AF54">
+      <c r="AG54">
         <v>35</v>
       </c>
-      <c r="AG54">
+      <c r="AH54">
         <v>0.5</v>
       </c>
-      <c r="AH54">
+      <c r="AI54">
         <v>15.3</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2032</v>
       </c>
@@ -39678,82 +38462,84 @@
       <c r="F55">
         <v>1.856311209</v>
       </c>
-      <c r="G55" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H55" s="5">
+      <c r="G55">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H55">
+        <v>450</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="1"/>
+        <v>235.2627057</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="5">
+        <f t="shared" si="2"/>
+        <v>54.181646322913124</v>
+      </c>
+      <c r="M55" s="5">
+        <v>55.125352909999997</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T55" s="5">
+        <v>76</v>
+      </c>
+      <c r="U55" s="9"/>
+      <c r="V55" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W55" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X55" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y55" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I55" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z55" s="5">
         <f t="shared" si="7"/>
-        <v>235.2627057</v>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="5">
-        <f t="shared" si="8"/>
-        <v>53.190534611222567</v>
-      </c>
-      <c r="L55" s="5">
-        <v>55.125352909999997</v>
-      </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5">
-        <v>102</v>
-      </c>
-      <c r="P55" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S55" s="5">
-        <v>76</v>
-      </c>
-      <c r="T55" s="9"/>
-      <c r="U55" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V55" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W55" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X55" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y55" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC55">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD55">
         <v>23.526270570000001</v>
       </c>
-      <c r="AD55">
+      <c r="AE55">
         <v>40</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>44</v>
       </c>
-      <c r="AF55">
+      <c r="AG55">
         <v>35</v>
       </c>
-      <c r="AG55">
+      <c r="AH55">
         <v>0.5</v>
       </c>
-      <c r="AH55">
+      <c r="AI55">
         <v>15.3</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2033</v>
       </c>
@@ -39772,82 +38558,84 @@
       <c r="F56">
         <v>1.856311209</v>
       </c>
-      <c r="G56" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H56" s="5">
+      <c r="G56">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H56">
+        <v>450</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="1"/>
+        <v>236.51585300000002</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="5">
+        <f t="shared" si="2"/>
+        <v>53.894572188397859</v>
+      </c>
+      <c r="M56" s="5">
+        <v>53.95471294</v>
+      </c>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T56" s="5">
+        <v>76</v>
+      </c>
+      <c r="U56" s="9"/>
+      <c r="V56" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W56" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X56" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y56" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I56" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z56" s="5">
         <f t="shared" si="7"/>
-        <v>236.51585300000002</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="5">
-        <f t="shared" si="8"/>
-        <v>52.908711748238368</v>
-      </c>
-      <c r="L56" s="5">
-        <v>53.95471294</v>
-      </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5">
-        <v>102</v>
-      </c>
-      <c r="P56" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S56" s="5">
-        <v>76</v>
-      </c>
-      <c r="T56" s="9"/>
-      <c r="U56" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V56" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W56" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X56" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y56" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC56">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD56">
         <v>23.651585300000001</v>
       </c>
-      <c r="AD56">
+      <c r="AE56">
         <v>40</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>44</v>
       </c>
-      <c r="AF56">
+      <c r="AG56">
         <v>35</v>
       </c>
-      <c r="AG56">
+      <c r="AH56">
         <v>0.5</v>
       </c>
-      <c r="AH56">
+      <c r="AI56">
         <v>15.3</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2034</v>
       </c>
@@ -39866,82 +38654,84 @@
       <c r="F57">
         <v>1.856311209</v>
       </c>
-      <c r="G57" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H57" s="5">
+      <c r="G57">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H57">
+        <v>450</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="1"/>
+        <v>237.69413579999997</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="5">
+        <f t="shared" si="2"/>
+        <v>53.627409318732546</v>
+      </c>
+      <c r="M57" s="5">
+        <v>52.808932630000001</v>
+      </c>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T57" s="5">
+        <v>76</v>
+      </c>
+      <c r="U57" s="9"/>
+      <c r="V57" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W57" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X57" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y57" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I57" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z57" s="5">
         <f t="shared" si="7"/>
-        <v>237.69413579999997</v>
-      </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="5">
-        <f t="shared" si="8"/>
-        <v>52.646435925516514</v>
-      </c>
-      <c r="L57" s="5">
-        <v>52.808932630000001</v>
-      </c>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5">
-        <v>102</v>
-      </c>
-      <c r="P57" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S57" s="5">
-        <v>76</v>
-      </c>
-      <c r="T57" s="9"/>
-      <c r="U57" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V57" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W57" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X57" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y57" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC57">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD57">
         <v>23.769413579999998</v>
       </c>
-      <c r="AD57">
+      <c r="AE57">
         <v>40</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>44</v>
       </c>
-      <c r="AF57">
+      <c r="AG57">
         <v>35</v>
       </c>
-      <c r="AG57">
+      <c r="AH57">
         <v>0.5</v>
       </c>
-      <c r="AH57">
+      <c r="AI57">
         <v>15.3</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2035</v>
       </c>
@@ -39960,85 +38750,87 @@
       <c r="F58">
         <v>1.856311209</v>
       </c>
-      <c r="G58" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H58" s="5">
+      <c r="G58">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H58">
+        <v>450</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="1"/>
+        <v>238.80630870000002</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="5">
+        <f t="shared" si="2"/>
+        <v>53.377654814062275</v>
+      </c>
+      <c r="M58" s="5">
+        <v>51.687484079999997</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T58" s="5">
+        <v>76</v>
+      </c>
+      <c r="U58" s="9"/>
+      <c r="V58" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W58" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X58" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y58" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I58" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z58" s="5">
         <f t="shared" si="7"/>
-        <v>238.80630870000002</v>
-      </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="5">
-        <f t="shared" si="8"/>
-        <v>52.401250027218055</v>
-      </c>
-      <c r="L58" s="5">
-        <v>51.687484079999997</v>
-      </c>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5">
-        <v>102</v>
-      </c>
-      <c r="P58" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S58" s="5">
-        <v>76</v>
-      </c>
-      <c r="T58" s="9"/>
-      <c r="U58" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V58" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W58" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X58" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y58" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC58">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD58">
         <v>23.880630870000001</v>
       </c>
-      <c r="AD58">
+      <c r="AE58">
         <v>40</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>44</v>
       </c>
-      <c r="AF58">
+      <c r="AG58">
         <v>35</v>
       </c>
-      <c r="AG58">
+      <c r="AH58">
         <v>0.5</v>
       </c>
-      <c r="AH58">
+      <c r="AI58">
         <v>15.3</v>
       </c>
-      <c r="AI58">
+      <c r="AJ58">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2036</v>
       </c>
@@ -40057,82 +38849,84 @@
       <c r="F59">
         <v>1.856311209</v>
       </c>
-      <c r="G59" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="G59">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H59">
+        <v>450</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="1"/>
+        <v>239.85965880000001</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="5">
+        <f t="shared" si="2"/>
+        <v>53.14324541684455</v>
+      </c>
+      <c r="M59" s="5">
+        <v>50.589850570000003</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T59" s="5">
+        <v>76</v>
+      </c>
+      <c r="U59" s="9"/>
+      <c r="V59" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W59" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X59" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y59" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I59" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z59" s="5">
         <f t="shared" si="7"/>
-        <v>239.85965880000001</v>
-      </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="5">
-        <f t="shared" si="8"/>
-        <v>52.171128537708562</v>
-      </c>
-      <c r="L59" s="5">
-        <v>50.589850570000003</v>
-      </c>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5">
-        <v>102</v>
-      </c>
-      <c r="P59" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S59" s="5">
-        <v>76</v>
-      </c>
-      <c r="T59" s="9"/>
-      <c r="U59" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V59" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W59" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X59" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y59" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC59">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD59">
         <v>23.985965879999998</v>
       </c>
-      <c r="AD59">
+      <c r="AE59">
         <v>40</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>44</v>
       </c>
-      <c r="AF59">
+      <c r="AG59">
         <v>35</v>
       </c>
-      <c r="AG59">
+      <c r="AH59">
         <v>0.5</v>
       </c>
-      <c r="AH59">
+      <c r="AI59">
         <v>15.3</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2037</v>
       </c>
@@ -40151,82 +38945,84 @@
       <c r="F60">
         <v>1.856311209</v>
       </c>
-      <c r="G60" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="G60">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H60">
+        <v>450</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="1"/>
+        <v>240.86031829999999</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="5">
+        <f t="shared" si="2"/>
+        <v>52.922460632690274</v>
+      </c>
+      <c r="M60" s="5">
+        <v>49.515526360000003</v>
+      </c>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T60" s="5">
+        <v>76</v>
+      </c>
+      <c r="U60" s="9"/>
+      <c r="V60" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W60" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X60" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y60" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I60" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z60" s="5">
         <f t="shared" si="7"/>
-        <v>240.86031829999999</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="5">
-        <f t="shared" si="8"/>
-        <v>51.954382434550325</v>
-      </c>
-      <c r="L60" s="5">
-        <v>49.515526360000003</v>
-      </c>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5">
-        <v>102</v>
-      </c>
-      <c r="P60" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S60" s="5">
-        <v>76</v>
-      </c>
-      <c r="T60" s="9"/>
-      <c r="U60" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V60" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W60" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X60" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y60" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC60">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD60">
         <v>24.08603183</v>
       </c>
-      <c r="AD60">
+      <c r="AE60">
         <v>40</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>44</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>35</v>
       </c>
-      <c r="AG60">
+      <c r="AH60">
         <v>0.5</v>
       </c>
-      <c r="AH60">
+      <c r="AI60">
         <v>15.3</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2038</v>
       </c>
@@ -40245,82 +39041,84 @@
       <c r="F61">
         <v>1.856311209</v>
       </c>
-      <c r="G61" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H61" s="5">
+      <c r="G61">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H61">
+        <v>450</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="1"/>
+        <v>241.81349740000002</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="5">
+        <f t="shared" si="2"/>
+        <v>52.71385117152272</v>
+      </c>
+      <c r="M61" s="5">
+        <v>48.464016460000003</v>
+      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T61" s="5">
+        <v>76</v>
+      </c>
+      <c r="U61" s="9"/>
+      <c r="V61" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W61" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X61" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y61" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I61" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z61" s="5">
         <f t="shared" si="7"/>
-        <v>241.81349740000002</v>
-      </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="5">
-        <f t="shared" si="8"/>
-        <v>51.749588938643413</v>
-      </c>
-      <c r="L61" s="5">
-        <v>48.464016460000003</v>
-      </c>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5">
-        <v>102</v>
-      </c>
-      <c r="P61" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S61" s="5">
-        <v>76</v>
-      </c>
-      <c r="T61" s="9"/>
-      <c r="U61" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V61" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W61" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X61" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y61" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC61">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD61">
         <v>24.181349740000002</v>
       </c>
-      <c r="AD61">
+      <c r="AE61">
         <v>40</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>44</v>
       </c>
-      <c r="AF61">
+      <c r="AG61">
         <v>35</v>
       </c>
-      <c r="AG61">
+      <c r="AH61">
         <v>0.5</v>
       </c>
-      <c r="AH61">
+      <c r="AI61">
         <v>15.3</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2039</v>
       </c>
@@ -40339,82 +39137,84 @@
       <c r="F62">
         <v>1.856311209</v>
       </c>
-      <c r="G62" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H62" s="5">
+      <c r="G62">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H62">
+        <v>450</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="1"/>
+        <v>242.72366120000004</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="5">
+        <f t="shared" si="2"/>
+        <v>52.516185073138622</v>
+      </c>
+      <c r="M62" s="5">
+        <v>47.43483638</v>
+      </c>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T62" s="5">
+        <v>76</v>
+      </c>
+      <c r="U62" s="9"/>
+      <c r="V62" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W62" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X62" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y62" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I62" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z62" s="5">
         <f t="shared" si="7"/>
-        <v>242.72366120000004</v>
-      </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="5">
-        <f t="shared" si="8"/>
-        <v>51.555538625278935</v>
-      </c>
-      <c r="L62" s="5">
-        <v>47.43483638</v>
-      </c>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5">
-        <v>102</v>
-      </c>
-      <c r="P62" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S62" s="5">
-        <v>76</v>
-      </c>
-      <c r="T62" s="9"/>
-      <c r="U62" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V62" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W62" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X62" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y62" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC62">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD62">
         <v>24.272366120000001</v>
       </c>
-      <c r="AD62">
+      <c r="AE62">
         <v>40</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>44</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>35</v>
       </c>
-      <c r="AG62">
+      <c r="AH62">
         <v>0.5</v>
       </c>
-      <c r="AH62">
+      <c r="AI62">
         <v>15.3</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2040</v>
       </c>
@@ -40433,85 +39233,87 @@
       <c r="F63">
         <v>1.856311209</v>
       </c>
-      <c r="G63" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H63" s="5">
+      <c r="G63">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H63">
+        <v>450</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="1"/>
+        <v>243.59466650000002</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="5">
+        <f t="shared" si="2"/>
+        <v>52.32840643171059</v>
+      </c>
+      <c r="M63" s="5">
+        <v>46.427511940000002</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T63" s="5">
+        <v>76</v>
+      </c>
+      <c r="U63" s="9"/>
+      <c r="V63" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W63" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X63" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y63" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I63" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z63" s="5">
         <f t="shared" si="7"/>
-        <v>243.59466650000002</v>
-      </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="5">
-        <f t="shared" si="8"/>
-        <v>51.371194903668872</v>
-      </c>
-      <c r="L63" s="5">
-        <v>46.427511940000002</v>
-      </c>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5">
-        <v>102</v>
-      </c>
-      <c r="P63" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S63" s="5">
-        <v>76</v>
-      </c>
-      <c r="T63" s="9"/>
-      <c r="U63" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V63" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W63" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X63" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y63" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC63">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD63">
         <v>24.359466650000002</v>
       </c>
-      <c r="AD63">
+      <c r="AE63">
         <v>40</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>44</v>
       </c>
-      <c r="AF63">
+      <c r="AG63">
         <v>35</v>
       </c>
-      <c r="AG63">
+      <c r="AH63">
         <v>0.5</v>
       </c>
-      <c r="AH63">
+      <c r="AI63">
         <v>15.3</v>
       </c>
-      <c r="AI63">
+      <c r="AJ63">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2041</v>
       </c>
@@ -40530,82 +39332,84 @@
       <c r="F64">
         <v>1.856311209</v>
       </c>
-      <c r="G64" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H64" s="5">
+      <c r="G64">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H64">
+        <v>450</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="1"/>
+        <v>244.42986730000001</v>
+      </c>
+      <c r="K64" s="9"/>
+      <c r="L64" s="5">
+        <f t="shared" si="2"/>
+        <v>52.149603704379203</v>
+      </c>
+      <c r="M64" s="5">
+        <v>45.441578999999997</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T64" s="5">
+        <v>76</v>
+      </c>
+      <c r="U64" s="9"/>
+      <c r="V64" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W64" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X64" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y64" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I64" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z64" s="5">
         <f t="shared" si="7"/>
-        <v>244.42986730000001</v>
-      </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="5">
-        <f t="shared" si="8"/>
-        <v>51.195662905249705</v>
-      </c>
-      <c r="L64" s="5">
-        <v>45.441578999999997</v>
-      </c>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5">
-        <v>102</v>
-      </c>
-      <c r="P64" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S64" s="5">
-        <v>76</v>
-      </c>
-      <c r="T64" s="9"/>
-      <c r="U64" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V64" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W64" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X64" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y64" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC64">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD64">
         <v>24.442986730000001</v>
       </c>
-      <c r="AD64">
+      <c r="AE64">
         <v>40</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>44</v>
       </c>
-      <c r="AF64">
+      <c r="AG64">
         <v>35</v>
       </c>
-      <c r="AG64">
+      <c r="AH64">
         <v>0.5</v>
       </c>
-      <c r="AH64">
+      <c r="AI64">
         <v>15.3</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2042</v>
       </c>
@@ -40624,82 +39428,84 @@
       <c r="F65">
         <v>1.856311209</v>
       </c>
-      <c r="G65" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H65" s="5">
+      <c r="G65">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H65">
+        <v>450</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="1"/>
+        <v>245.23219999999998</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="5">
+        <f t="shared" si="2"/>
+        <v>51.978984461294232</v>
+      </c>
+      <c r="M65" s="5">
+        <v>44.476583300000001</v>
+      </c>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T65" s="5">
+        <v>76</v>
+      </c>
+      <c r="U65" s="9"/>
+      <c r="V65" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W65" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X65" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y65" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I65" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z65" s="5">
         <f t="shared" si="7"/>
-        <v>245.23219999999998</v>
-      </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="5">
-        <f t="shared" si="8"/>
-        <v>51.028164695605717</v>
-      </c>
-      <c r="L65" s="5">
-        <v>44.476583300000001</v>
-      </c>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5">
-        <v>102</v>
-      </c>
-      <c r="P65" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S65" s="5">
-        <v>76</v>
-      </c>
-      <c r="T65" s="9"/>
-      <c r="U65" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V65" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W65" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X65" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y65" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC65">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD65">
         <v>24.523219999999998</v>
       </c>
-      <c r="AD65">
+      <c r="AE65">
         <v>40</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>44</v>
       </c>
-      <c r="AF65">
+      <c r="AG65">
         <v>35</v>
       </c>
-      <c r="AG65">
+      <c r="AH65">
         <v>0.5</v>
       </c>
-      <c r="AH65">
+      <c r="AI65">
         <v>15.3</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2043</v>
       </c>
@@ -40718,82 +39524,84 @@
       <c r="F66">
         <v>1.856311209</v>
       </c>
-      <c r="G66" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H66" s="5">
+      <c r="G66">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H66">
+        <v>450</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="1"/>
+        <v>246.00424960000001</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="5">
+        <f t="shared" si="2"/>
+        <v>51.815855758326691</v>
+      </c>
+      <c r="M66" s="5">
+        <v>43.532080209999997</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T66" s="5">
+        <v>76</v>
+      </c>
+      <c r="U66" s="9"/>
+      <c r="V66" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W66" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X66" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y66" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I66" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z66" s="5">
         <f t="shared" si="7"/>
-        <v>246.00424960000001</v>
-      </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="5">
-        <f t="shared" si="8"/>
-        <v>50.868020006210976</v>
-      </c>
-      <c r="L66" s="5">
-        <v>43.532080209999997</v>
-      </c>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5">
-        <v>102</v>
-      </c>
-      <c r="P66" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S66" s="5">
-        <v>76</v>
-      </c>
-      <c r="T66" s="9"/>
-      <c r="U66" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V66" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W66" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X66" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y66" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC66">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD66">
         <v>24.600424960000002</v>
       </c>
-      <c r="AD66">
+      <c r="AE66">
         <v>40</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>44</v>
       </c>
-      <c r="AF66">
+      <c r="AG66">
         <v>35</v>
       </c>
-      <c r="AG66">
+      <c r="AH66">
         <v>0.5</v>
       </c>
-      <c r="AH66">
+      <c r="AI66">
         <v>15.3</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2044</v>
       </c>
@@ -40812,82 +39620,84 @@
       <c r="F67">
         <v>1.856311209</v>
       </c>
-      <c r="G67" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H67" s="5">
+      <c r="G67">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H67">
+        <v>450</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J67" s="5">
+        <f t="shared" si="1"/>
+        <v>246.74830409999998</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="5">
+        <f t="shared" si="2"/>
+        <v>51.659608197521948</v>
+      </c>
+      <c r="M67" s="5">
+        <v>42.60763455</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T67" s="5">
+        <v>76</v>
+      </c>
+      <c r="U67" s="9"/>
+      <c r="V67" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W67" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X67" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y67" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I67" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z67" s="5">
         <f t="shared" si="7"/>
-        <v>246.74830409999998</v>
-      </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="5">
-        <f t="shared" si="8"/>
-        <v>50.714630586454838</v>
-      </c>
-      <c r="L67" s="5">
-        <v>42.60763455</v>
-      </c>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5">
-        <v>102</v>
-      </c>
-      <c r="P67" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S67" s="5">
-        <v>76</v>
-      </c>
-      <c r="T67" s="9"/>
-      <c r="U67" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V67" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W67" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X67" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y67" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC67">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD67">
         <v>24.674830409999998</v>
       </c>
-      <c r="AD67">
+      <c r="AE67">
         <v>40</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>44</v>
       </c>
-      <c r="AF67">
+      <c r="AG67">
         <v>35</v>
       </c>
-      <c r="AG67">
+      <c r="AH67">
         <v>0.5</v>
       </c>
-      <c r="AH67">
+      <c r="AI67">
         <v>15.3</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2045</v>
       </c>
@@ -40906,85 +39716,87 @@
       <c r="F68">
         <v>1.856311209</v>
       </c>
-      <c r="G68" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H68" s="5">
+      <c r="G68">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H68">
+        <v>450</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J68" s="5">
+        <f t="shared" si="1"/>
+        <v>247.46639890000003</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="5">
+        <f t="shared" si="2"/>
+        <v>51.509703013700729</v>
+      </c>
+      <c r="M68" s="5">
+        <v>41.702820389999999</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T68" s="5">
+        <v>76</v>
+      </c>
+      <c r="U68" s="9"/>
+      <c r="V68" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W68" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X68" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y68" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I68" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z68" s="5">
         <f t="shared" si="7"/>
-        <v>247.46639890000003</v>
-      </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="5">
-        <f t="shared" si="8"/>
-        <v>50.567467526459886</v>
-      </c>
-      <c r="L68" s="5">
-        <v>41.702820389999999</v>
-      </c>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5">
-        <v>102</v>
-      </c>
-      <c r="P68" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S68" s="5">
-        <v>76</v>
-      </c>
-      <c r="T68" s="9"/>
-      <c r="U68" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V68" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W68" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X68" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y68" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC68">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD68">
         <v>24.746639890000001</v>
       </c>
-      <c r="AD68">
+      <c r="AE68">
         <v>40</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>44</v>
       </c>
-      <c r="AF68">
+      <c r="AG68">
         <v>35</v>
       </c>
-      <c r="AG68">
+      <c r="AH68">
         <v>0.5</v>
       </c>
-      <c r="AH68">
+      <c r="AI68">
         <v>15.3</v>
       </c>
-      <c r="AI68">
+      <c r="AJ68">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2046</v>
       </c>
@@ -41003,82 +39815,84 @@
       <c r="F69">
         <v>1.856311209</v>
       </c>
-      <c r="G69" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H69" s="5">
+      <c r="G69">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H69">
+        <v>450</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J69" s="5">
+        <f t="shared" si="1"/>
+        <v>248.16035240000002</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="5">
+        <f t="shared" si="2"/>
+        <v>51.365661718044031</v>
+      </c>
+      <c r="M69" s="5">
+        <v>40.817220829999997</v>
+      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T69" s="5">
+        <v>76</v>
+      </c>
+      <c r="U69" s="9"/>
+      <c r="V69" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W69" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X69" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y69" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I69" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z69" s="5">
         <f t="shared" si="7"/>
-        <v>248.16035240000002</v>
-      </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="5">
-        <f t="shared" si="8"/>
-        <v>50.426061090110373</v>
-      </c>
-      <c r="L69" s="5">
-        <v>40.817220829999997</v>
-      </c>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5">
-        <v>102</v>
-      </c>
-      <c r="P69" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S69" s="5">
-        <v>76</v>
-      </c>
-      <c r="T69" s="9"/>
-      <c r="U69" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V69" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W69" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X69" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y69" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC69">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD69">
         <v>24.816035240000001</v>
       </c>
-      <c r="AD69">
+      <c r="AE69">
         <v>40</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>44</v>
       </c>
-      <c r="AF69">
+      <c r="AG69">
         <v>35</v>
       </c>
-      <c r="AG69">
+      <c r="AH69">
         <v>0.5</v>
       </c>
-      <c r="AH69">
+      <c r="AI69">
         <v>15.3</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2047</v>
       </c>
@@ -41097,82 +39911,84 @@
       <c r="F70">
         <v>1.856311209</v>
       </c>
-      <c r="G70" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H70" s="5">
+      <c r="G70">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H70">
+        <v>450</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" si="1"/>
+        <v>248.83179619999999</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="5">
+        <f t="shared" si="2"/>
+        <v>51.227057425424789</v>
+      </c>
+      <c r="M70" s="5">
+        <v>39.950427830000002</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T70" s="5">
+        <v>76</v>
+      </c>
+      <c r="U70" s="9"/>
+      <c r="V70" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W70" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X70" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y70" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I70" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z70" s="5">
         <f t="shared" si="7"/>
-        <v>248.83179619999999</v>
-      </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="5">
-        <f t="shared" si="8"/>
-        <v>50.289992201027722</v>
-      </c>
-      <c r="L70" s="5">
-        <v>39.950427830000002</v>
-      </c>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5">
-        <v>102</v>
-      </c>
-      <c r="P70" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S70" s="5">
-        <v>76</v>
-      </c>
-      <c r="T70" s="9"/>
-      <c r="U70" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V70" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W70" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X70" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y70" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC70">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD70">
         <v>24.88317962</v>
       </c>
-      <c r="AD70">
+      <c r="AE70">
         <v>40</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>44</v>
       </c>
-      <c r="AF70">
+      <c r="AG70">
         <v>35</v>
       </c>
-      <c r="AG70">
+      <c r="AH70">
         <v>0.5</v>
       </c>
-      <c r="AH70">
+      <c r="AI70">
         <v>15.3</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2048</v>
       </c>
@@ -41191,82 +40007,84 @@
       <c r="F71">
         <v>1.856311209</v>
       </c>
-      <c r="G71" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H71" s="5">
+      <c r="G71">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H71">
+        <v>450</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="1"/>
+        <v>249.4822001</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="5">
+        <f t="shared" si="2"/>
+        <v>51.093507705558338</v>
+      </c>
+      <c r="M71" s="5">
+        <v>39.102042009999998</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T71" s="5">
+        <v>76</v>
+      </c>
+      <c r="U71" s="9"/>
+      <c r="V71" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W71" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X71" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y71" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I71" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z71" s="5">
         <f t="shared" si="7"/>
-        <v>249.4822001</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="5">
-        <f t="shared" si="8"/>
-        <v>50.158885424490528</v>
-      </c>
-      <c r="L71" s="5">
-        <v>39.102042009999998</v>
-      </c>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5">
-        <v>102</v>
-      </c>
-      <c r="P71" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S71" s="5">
-        <v>76</v>
-      </c>
-      <c r="T71" s="9"/>
-      <c r="U71" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V71" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W71" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X71" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y71" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC71">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD71">
         <v>24.94822001</v>
       </c>
-      <c r="AD71">
+      <c r="AE71">
         <v>40</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>44</v>
       </c>
-      <c r="AF71">
+      <c r="AG71">
         <v>35</v>
       </c>
-      <c r="AG71">
+      <c r="AH71">
         <v>0.5</v>
       </c>
-      <c r="AH71">
+      <c r="AI71">
         <v>15.3</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2049</v>
       </c>
@@ -41285,82 +40103,84 @@
       <c r="F72">
         <v>1.856311209</v>
       </c>
-      <c r="G72" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H72" s="5">
+      <c r="G72">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H72">
+        <v>450</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="1"/>
+        <v>250.11289269999997</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="5">
+        <f t="shared" si="2"/>
+        <v>50.964668696620926</v>
+      </c>
+      <c r="M72" s="5">
+        <v>38.271672479999999</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T72" s="5">
+        <v>76</v>
+      </c>
+      <c r="U72" s="9"/>
+      <c r="V72" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W72" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X72" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y72" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I72" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z72" s="5">
         <f t="shared" si="7"/>
-        <v>250.11289269999997</v>
-      </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="5">
-        <f t="shared" si="8"/>
-        <v>50.032403188729027</v>
-      </c>
-      <c r="L72" s="5">
-        <v>38.271672479999999</v>
-      </c>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5">
-        <v>102</v>
-      </c>
-      <c r="P72" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S72" s="5">
-        <v>76</v>
-      </c>
-      <c r="T72" s="9"/>
-      <c r="U72" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V72" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W72" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X72" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y72" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC72">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD72">
         <v>25.011289269999999</v>
       </c>
-      <c r="AD72">
+      <c r="AE72">
         <v>40</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>44</v>
       </c>
-      <c r="AF72">
+      <c r="AG72">
         <v>35</v>
       </c>
-      <c r="AG72">
+      <c r="AH72">
         <v>0.5</v>
       </c>
-      <c r="AH72">
+      <c r="AI72">
         <v>15.3</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2050</v>
       </c>
@@ -41379,95 +40199,97 @@
       <c r="F73">
         <v>1.856311209</v>
       </c>
-      <c r="G73" s="5">
-        <f t="shared" si="9"/>
-        <v>11586.804713208998</v>
-      </c>
-      <c r="H73" s="5">
+      <c r="G73">
+        <v>710.11599999999999</v>
+      </c>
+      <c r="H73">
+        <v>450</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="0"/>
+        <v>12746.920713208998</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="1"/>
+        <v>250.72507910000002</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="5">
+        <f t="shared" si="2"/>
+        <v>50.840230099698061</v>
+      </c>
+      <c r="M73" s="5">
+        <v>37.458936649999998</v>
+      </c>
+      <c r="N73" s="5">
+        <v>42</v>
+      </c>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5">
+        <v>102.7</v>
+      </c>
+      <c r="T73" s="5">
+        <v>76</v>
+      </c>
+      <c r="U73" s="9"/>
+      <c r="V73" s="5">
+        <f t="shared" si="3"/>
+        <v>79.393880511964468</v>
+      </c>
+      <c r="W73" s="5">
+        <f t="shared" si="4"/>
+        <v>2.4656821601966037</v>
+      </c>
+      <c r="X73" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9710247496481053</v>
+      </c>
+      <c r="Y73" s="5">
         <f t="shared" si="6"/>
-        <v>12513.749090265719</v>
-      </c>
-      <c r="I73" s="5">
+        <v>5.3702695372588399E-2</v>
+      </c>
+      <c r="Z73" s="5">
         <f t="shared" si="7"/>
-        <v>250.72507910000002</v>
-      </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="5">
-        <f t="shared" si="8"/>
-        <v>49.910240870936946</v>
-      </c>
-      <c r="L73" s="5">
-        <v>37.458936649999998</v>
-      </c>
-      <c r="M73" s="5">
-        <v>42</v>
-      </c>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5">
-        <v>102</v>
-      </c>
-      <c r="P73" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5">
-        <v>102.7</v>
-      </c>
-      <c r="S73" s="5">
-        <v>76</v>
-      </c>
-      <c r="T73" s="9"/>
-      <c r="U73" s="5">
-        <f t="shared" si="10"/>
-        <v>87.343104941285929</v>
-      </c>
-      <c r="V73" s="5">
-        <f t="shared" si="11"/>
-        <v>2.7125558579726343</v>
-      </c>
-      <c r="W73" s="5">
-        <f t="shared" si="12"/>
-        <v>9.8692386754078338</v>
-      </c>
-      <c r="X73" s="5">
-        <f t="shared" si="13"/>
-        <v>5.9079618319588779E-2</v>
-      </c>
-      <c r="Y73" s="5">
-        <f t="shared" si="14"/>
-        <v>1.6020907014026042E-2</v>
-      </c>
-      <c r="AC73">
+        <v>1.456282070599527E-2</v>
+      </c>
+      <c r="AD73">
         <v>25.072507909999999</v>
       </c>
-      <c r="AD73">
+      <c r="AE73">
         <v>40</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>44</v>
       </c>
-      <c r="AF73">
+      <c r="AG73">
         <v>35</v>
       </c>
-      <c r="AG73">
+      <c r="AH73">
         <v>0.5</v>
       </c>
-      <c r="AH73">
+      <c r="AI73">
         <v>15.3</v>
       </c>
-      <c r="AI73">
+      <c r="AJ73">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AH1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{600CFAA9-3DFB-42AD-A445-A4B5AA1290BE}"/>
-    <hyperlink ref="AI1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{D097713C-7BEA-4FA1-9B9F-78A40BE50501}"/>
+    <hyperlink ref="AI1" r:id="rId1" display="https://doi.org/10.1016/j.resconrec.2020.105145" xr:uid="{600CFAA9-3DFB-42AD-A445-A4B5AA1290BE}"/>
+    <hyperlink ref="AJ1" r:id="rId2" display="https://doi.org/10.2172/1561525" xr:uid="{D097713C-7BEA-4FA1-9B9F-78A40BE50501}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13F1E7-E4EB-470A-866D-76B25C4CCB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E714B69F-5F21-410D-8D67-8BB966FB66B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -164,6 +164,9 @@
   <si>
     <t>Baseline</t>
   </si>
+  <si>
+    <t>Backsheet</t>
+  </si>
 </sst>
 </file>
 
@@ -248,11 +251,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8C564B"/>
+      <color rgb="FF9467BD"/>
+      <color rgb="FFD62728"/>
+      <color rgb="FF1F77BE"/>
       <color rgb="FF00BFBF"/>
+      <color rgb="FFFF7F0E"/>
       <color rgb="FF19809E"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF7F0E"/>
-      <color rgb="FFD62728"/>
       <color rgb="FF2CA02C"/>
       <color rgb="FF1F77B4"/>
     </mruColors>
@@ -1063,7 +1069,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00BFBF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1434,15 +1440,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>VirginMatEff!$C$1</c:f>
+              <c:f>VirginMatEff!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Silicon</c:v>
+                  <c:v>Aluminium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1450,7 +1456,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="1F77BE"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1638,177 +1644,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VirginMatEff!$C$2:$C$57</c:f>
+              <c:f>VirginMatEff!$D$2:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.8</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.2</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.4</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.8</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.2</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.4</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.8</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.2</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.4</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.8</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.2</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.4</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.8</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.2</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.6</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>30</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,20 +1822,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EA1-484B-AA41-480A68CBE2AE}"/>
+              <c16:uniqueId val="{00000002-9EA1-484B-AA41-480A68CBE2AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>VirginMatEff!$D$1</c:f>
+              <c:f>VirginMatEff!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Aluminium</c:v>
+                  <c:v>Silicon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1837,7 +1843,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF7F0E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2025,177 +2031,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VirginMatEff!$D$2:$D$57</c:f>
+              <c:f>VirginMatEff!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>22.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>23.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>26.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>26.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>28.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>29.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,20 +2209,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9EA1-484B-AA41-480A68CBE2AE}"/>
+              <c16:uniqueId val="{00000001-9EA1-484B-AA41-480A68CBE2AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>VirginMatEff!$E$1</c:f>
+              <c:f>VirginMatEff!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Copper</c:v>
+                  <c:v>Silver</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2224,7 +2230,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="D62728"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2412,6 +2418,394 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>VirginMatEff!$F$2:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9EA1-484B-AA41-480A68CBE2AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VirginMatEff!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VirginMatEff!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>VirginMatEff!$E$2:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2595,15 +2989,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>VirginMatEff!$F$1</c:f>
+              <c:f>VirginMatEff!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Silver</c:v>
+                  <c:v>Encapsulant</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2611,7 +3005,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="9467BD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2799,177 +3193,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VirginMatEff!$F$2:$F$57</c:f>
+              <c:f>VirginMatEff!$G$2:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2977,7 +3371,395 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9EA1-484B-AA41-480A68CBE2AE}"/>
+              <c16:uniqueId val="{00000001-A4F6-4697-9FC1-6AE2CCD31A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VirginMatEff!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backsheet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="8C564B"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VirginMatEff!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VirginMatEff!$H$2:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A4F6-4697-9FC1-6AE2CCD31A59}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3298,7 +4080,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00BFBF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3669,15 +4451,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MFG Eff'!$C$1</c:f>
+              <c:f>'MFG Eff'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Silicon</c:v>
+                  <c:v>Aluminium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3685,7 +4467,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="1F77BE"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3873,393 +4655,6 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MFG Eff'!$C$2:$C$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49.365658340000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41.588057310000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.638416139999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32.313886099999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30.95939478</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>31.313555950000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>49.33536239</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>49.661818310000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>48.63711241</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>49.920500959999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50.133176429999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.540356459999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>53.417000399999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>59.32333715</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>63.600552669999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>65.063940110000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>66.726759759999993</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>66.180844960000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.587672920000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>66.98371616</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>68.784939679999994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>69.379740209999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>69.848360650000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>70.190564620000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>70.655697110000006</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>71.125574380000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>71.600236780000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C26-46B4-9DF1-2F12F703F471}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'MFG Eff'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Aluminium</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'MFG Eff'!$A$2:$A$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
               <c:f>'MFG Eff'!$D$2:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4443,15 +4838,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MFG Eff'!$E$1</c:f>
+              <c:f>'MFG Eff'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Copper</c:v>
+                  <c:v>Silicon</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4647,177 +5042,177 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'MFG Eff'!$E$2:$E$57</c:f>
+              <c:f>'MFG Eff'!$C$2:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>49.365658340000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>41.588057310000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>33.638416139999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>32.313886099999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>30.95939478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>31.313555950000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>49.33536239</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90</c:v>
+                  <c:v>49.661818310000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>48.63711241</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>49.920500959999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90</c:v>
+                  <c:v>50.133176429999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>50.540356459999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>53.417000399999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90</c:v>
+                  <c:v>59.32333715</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90</c:v>
+                  <c:v>63.600552669999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90</c:v>
+                  <c:v>65.063940110000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>66.726759759999993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90</c:v>
+                  <c:v>66.180844960000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>90</c:v>
+                  <c:v>65.587672920000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>90</c:v>
+                  <c:v>66.98371616</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90</c:v>
+                  <c:v>68.784939679999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>90</c:v>
+                  <c:v>69.379740209999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>90</c:v>
+                  <c:v>69.848360650000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>90</c:v>
+                  <c:v>70.190564620000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>90</c:v>
+                  <c:v>70.655697110000006</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>90</c:v>
+                  <c:v>71.125574380000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>90</c:v>
+                  <c:v>71.600236780000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,13 +5220,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9C26-46B4-9DF1-2F12F703F471}"/>
+              <c16:uniqueId val="{00000001-9C26-46B4-9DF1-2F12F703F471}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'MFG Eff'!$F$1</c:f>
@@ -4846,7 +5241,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="D62728"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5213,6 +5608,1169 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Copper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$E$2:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C26-46B4-9DF1-2F12F703F471}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encapsulant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="9467BD"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$G$2:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC6B-4B98-9786-0A8FD51FB7E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MFG Eff'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Backsheet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="8C564B"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$A$2:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MFG Eff'!$H$2:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>94.283333330000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>94.866666670000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95.45</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.033333330000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>96.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC6B-4B98-9786-0A8FD51FB7E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -34048,15 +35606,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3174</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34091,15 +35649,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>382587</xdr:colOff>
+      <xdr:colOff>255586</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>144460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>87946</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34619,7 +36177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
   <dimension ref="A1:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView zoomScale="61" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -34964,23 +36522,23 @@
       <c r="T18" s="5"/>
       <c r="U18" s="9"/>
       <c r="V18" s="5">
-        <f>B18/$I18*100</f>
+        <f t="shared" ref="V18:V49" si="0">B18/$I18*100</f>
         <v>59.652600381935436</v>
       </c>
       <c r="W18" s="5">
-        <f>C18/$I18*100</f>
+        <f t="shared" ref="W18:W49" si="1">C18/$I18*100</f>
         <v>6.326318054468322</v>
       </c>
       <c r="X18" s="5">
-        <f>D18/$I18*100</f>
+        <f t="shared" ref="X18:X49" si="2">D18/$I18*100</f>
         <v>23.049655996149905</v>
       </c>
       <c r="Y18" s="5">
-        <f>E18/$I18*100</f>
+        <f t="shared" ref="Y18:Y49" si="3">E18/$I18*100</f>
         <v>4.0086547456660612E-2</v>
       </c>
       <c r="Z18" s="5">
-        <f>F18/$I18*100</f>
+        <f t="shared" ref="Z18:Z49" si="4">F18/$I18*100</f>
         <v>0.65617860420128982</v>
       </c>
       <c r="AD18">
@@ -35025,16 +36583,16 @@
         <v>532</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ref="I19:I73" si="0">SUM(B19:H19)</f>
+        <f t="shared" ref="I19:I73" si="5">SUM(B19:H19)</f>
         <v>13317.14968887</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ref="J19:J73" si="1">AD19*1000/100</f>
+        <f t="shared" ref="J19:J73" si="6">AD19*1000/100</f>
         <v>127</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="5">
-        <f t="shared" ref="L19:L73" si="2">I19/J19</f>
+        <f t="shared" ref="L19:L73" si="7">I19/J19</f>
         <v>104.85944636905512</v>
       </c>
       <c r="M19" s="5">
@@ -35049,23 +36607,23 @@
       <c r="T19" s="5"/>
       <c r="U19" s="9"/>
       <c r="V19" s="5">
-        <f>B19/$I19*100</f>
+        <f t="shared" si="0"/>
         <v>60.072914902249053</v>
       </c>
       <c r="W19" s="5">
-        <f>C19/$I19*100</f>
+        <f t="shared" si="1"/>
         <v>6.2459740540062931</v>
       </c>
       <c r="X19" s="5">
-        <f>D19/$I19*100</f>
+        <f t="shared" si="2"/>
         <v>22.658125924062034</v>
       </c>
       <c r="Y19" s="5">
-        <f>E19/$I19*100</f>
+        <f t="shared" si="3"/>
         <v>4.0368998814311365E-2</v>
       </c>
       <c r="Z19" s="5">
-        <f>F19/$I19*100</f>
+        <f t="shared" si="4"/>
         <v>0.63505652895590559</v>
       </c>
       <c r="AD19">
@@ -35110,16 +36668,16 @@
         <v>532</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12979.668857139999</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>128.80000000000001</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>100.77382653059004</v>
       </c>
       <c r="M20" s="5">
@@ -35134,23 +36692,23 @@
       <c r="T20" s="5"/>
       <c r="U20" s="9"/>
       <c r="V20" s="5">
-        <f>B20/$I20*100</f>
+        <f t="shared" si="0"/>
         <v>61.634854386899654</v>
       </c>
       <c r="W20" s="5">
-        <f>C20/$I20*100</f>
+        <f t="shared" si="1"/>
         <v>6.2802064441851559</v>
       </c>
       <c r="X20" s="5">
-        <f>D20/$I20*100</f>
+        <f t="shared" si="2"/>
         <v>20.801763355578633</v>
       </c>
       <c r="Y20" s="5">
-        <f>E20/$I20*100</f>
+        <f t="shared" si="3"/>
         <v>4.1418622147996562E-2</v>
       </c>
       <c r="Z20" s="5">
-        <f>F20/$I20*100</f>
+        <f t="shared" si="4"/>
         <v>0.62515352304511262</v>
       </c>
       <c r="AD20">
@@ -35195,16 +36753,16 @@
         <v>532</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12799.977242410001</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>130.6</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>98.009014107274126</v>
       </c>
       <c r="M21" s="5">
@@ -35219,23 +36777,23 @@
       <c r="T21" s="5"/>
       <c r="U21" s="9"/>
       <c r="V21" s="5">
-        <f>B21/$I21*100</f>
+        <f t="shared" si="0"/>
         <v>62.500111121242483</v>
       </c>
       <c r="W21" s="5">
-        <f>C21/$I21*100</f>
+        <f t="shared" si="1"/>
         <v>6.2384039485186955</v>
       </c>
       <c r="X21" s="5">
-        <f>D21/$I21*100</f>
+        <f t="shared" si="2"/>
         <v>19.846696778358446</v>
       </c>
       <c r="Y21" s="5">
-        <f>E21/$I21*100</f>
+        <f t="shared" si="3"/>
         <v>4.2000074673474955E-2</v>
       </c>
       <c r="Z21" s="5">
-        <f>F21/$I21*100</f>
+        <f t="shared" si="4"/>
         <v>0.60714393657287336</v>
       </c>
       <c r="AD21">
@@ -35280,16 +36838,16 @@
         <v>532</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12724.239199690001</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>132.4</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>96.104525677416916</v>
       </c>
       <c r="M22" s="5">
@@ -35304,23 +36862,23 @@
       <c r="T22" s="5"/>
       <c r="U22" s="9"/>
       <c r="V22" s="5">
-        <f>B22/$I22*100</f>
+        <f t="shared" si="0"/>
         <v>62.872128340646903</v>
       </c>
       <c r="W22" s="5">
-        <f>C22/$I22*100</f>
+        <f t="shared" si="1"/>
         <v>6.144796235982807</v>
       </c>
       <c r="X22" s="5">
-        <f>D22/$I22*100</f>
+        <f t="shared" si="2"/>
         <v>19.52728862610925</v>
       </c>
       <c r="Y22" s="5">
-        <f>E22/$I22*100</f>
+        <f t="shared" si="3"/>
         <v>4.2250070244914728E-2</v>
       </c>
       <c r="Z22" s="5">
-        <f>F22/$I22*100</f>
+        <f t="shared" si="4"/>
         <v>0.5838126203396885</v>
       </c>
       <c r="AD22">
@@ -35365,16 +36923,16 @@
         <v>532</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12627.92969253</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>134.19999999999999</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>94.097836755067078</v>
       </c>
       <c r="M23" s="5">
@@ -35391,23 +36949,23 @@
       <c r="T23" s="5"/>
       <c r="U23" s="9"/>
       <c r="V23" s="5">
-        <f>B23/$I23*100</f>
+        <f t="shared" si="0"/>
         <v>63.351635579127176</v>
       </c>
       <c r="W23" s="5">
-        <f>C23/$I23*100</f>
+        <f t="shared" si="1"/>
         <v>6.0599233265661612</v>
       </c>
       <c r="X23" s="5">
-        <f>D23/$I23*100</f>
+        <f t="shared" si="2"/>
         <v>19.274436295284413</v>
       </c>
       <c r="Y23" s="5">
-        <f>E23/$I23*100</f>
+        <f t="shared" si="3"/>
         <v>4.2572299109173463E-2</v>
       </c>
       <c r="Z23" s="5">
-        <f>F23/$I23*100</f>
+        <f t="shared" si="4"/>
         <v>0.3591132714084222</v>
       </c>
       <c r="AD23">
@@ -35452,16 +37010,16 @@
         <v>532</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12562.671303610001</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>136</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>92.372583114779417</v>
       </c>
       <c r="M24" s="5">
@@ -35478,23 +37036,23 @@
       <c r="T24" s="5"/>
       <c r="U24" s="9"/>
       <c r="V24" s="5">
-        <f>B24/$I24*100</f>
+        <f t="shared" si="0"/>
         <v>63.680723682558863</v>
       </c>
       <c r="W24" s="5">
-        <f>C24/$I24*100</f>
+        <f t="shared" si="1"/>
         <v>5.9589805767255939</v>
       </c>
       <c r="X24" s="5">
-        <f>D24/$I24*100</f>
+        <f t="shared" si="2"/>
         <v>19.004985622078006</v>
       </c>
       <c r="Y24" s="5">
-        <f>E24/$I24*100</f>
+        <f t="shared" si="3"/>
         <v>4.2793446314679559E-2</v>
       </c>
       <c r="Z24" s="5">
-        <f>F24/$I24*100</f>
+        <f t="shared" si="4"/>
         <v>0.34351201800208858</v>
       </c>
       <c r="AD24">
@@ -35539,16 +37097,16 @@
         <v>532</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12501.194776599999</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>137.2222222</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>91.101824297668301</v>
       </c>
       <c r="M25" s="5">
@@ -35565,23 +37123,23 @@
       <c r="T25" s="5"/>
       <c r="U25" s="9"/>
       <c r="V25" s="5">
-        <f>B25/$I25*100</f>
+        <f t="shared" si="0"/>
         <v>63.993883328452483</v>
       </c>
       <c r="W25" s="5">
-        <f>C25/$I25*100</f>
+        <f t="shared" si="1"/>
         <v>5.8552117751986357</v>
       </c>
       <c r="X25" s="5">
-        <f>D25/$I25*100</f>
+        <f t="shared" si="2"/>
         <v>18.757305920784546</v>
       </c>
       <c r="Y25" s="5">
-        <f>E25/$I25*100</f>
+        <f t="shared" si="3"/>
         <v>4.3003889596720073E-2</v>
       </c>
       <c r="Z25" s="5">
-        <f>F25/$I25*100</f>
+        <f t="shared" si="4"/>
         <v>0.32764868264167674</v>
       </c>
       <c r="AD25">
@@ -35626,16 +37184,16 @@
         <v>532</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12455.36948159</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>138.44444439999998</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>89.966553266690724</v>
       </c>
       <c r="M26" s="5">
@@ -35654,23 +37212,23 @@
       <c r="T26" s="5"/>
       <c r="U26" s="9"/>
       <c r="V26" s="5">
-        <f>B26/$I26*100</f>
+        <f t="shared" si="0"/>
         <v>64.229327053080354</v>
       </c>
       <c r="W26" s="5">
-        <f>C26/$I26*100</f>
+        <f t="shared" si="1"/>
         <v>5.7431914433154425</v>
       </c>
       <c r="X26" s="5">
-        <f>D26/$I26*100</f>
+        <f t="shared" si="2"/>
         <v>18.609580843234109</v>
       </c>
       <c r="Y26" s="5">
-        <f>E26/$I26*100</f>
+        <f t="shared" si="3"/>
         <v>4.316210777967E-2</v>
       </c>
       <c r="Z26" s="5">
-        <f>F26/$I26*100</f>
+        <f t="shared" si="4"/>
         <v>0.31123696769733511</v>
       </c>
       <c r="AD26">
@@ -35715,16 +37273,16 @@
         <v>532</v>
       </c>
       <c r="I27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12374.66669057</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>139.66666670000001</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>88.601432130906574</v>
       </c>
       <c r="M27" s="5">
@@ -35743,23 +37301,23 @@
       <c r="T27" s="5"/>
       <c r="U27" s="9"/>
       <c r="V27" s="5">
-        <f>B27/$I27*100</f>
+        <f t="shared" si="0"/>
         <v>64.648205887406448</v>
       </c>
       <c r="W27" s="5">
-        <f>C27/$I27*100</f>
+        <f t="shared" si="1"/>
         <v>5.6462126816913614</v>
       </c>
       <c r="X27" s="5">
-        <f>D27/$I27*100</f>
+        <f t="shared" si="2"/>
         <v>18.230949716966343</v>
       </c>
       <c r="Y27" s="5">
-        <f>E27/$I27*100</f>
+        <f t="shared" si="3"/>
         <v>4.3443594356337135E-2</v>
       </c>
       <c r="Z27" s="5">
-        <f>F27/$I27*100</f>
+        <f t="shared" si="4"/>
         <v>0.2955346554737423</v>
       </c>
       <c r="AD27">
@@ -35804,16 +37362,16 @@
         <v>532</v>
       </c>
       <c r="I28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12113.835995859999</v>
       </c>
       <c r="J28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>140.88888890000001</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>85.981485768250664</v>
       </c>
       <c r="M28" s="5">
@@ -35836,23 +37394,23 @@
       <c r="T28" s="5"/>
       <c r="U28" s="9"/>
       <c r="V28" s="5">
-        <f>B28/$I28*100</f>
+        <f t="shared" si="0"/>
         <v>66.040187457829745</v>
       </c>
       <c r="W28" s="5">
-        <f>C28/$I28*100</f>
+        <f t="shared" si="1"/>
         <v>4.8064873934151713</v>
       </c>
       <c r="X28" s="5">
-        <f>D28/$I28*100</f>
+        <f t="shared" si="2"/>
         <v>17.449739733329881</v>
       </c>
       <c r="Y28" s="5">
-        <f>E28/$I28*100</f>
+        <f t="shared" si="3"/>
         <v>4.4379005971661591E-2</v>
       </c>
       <c r="Z28" s="5">
-        <f>F28/$I28*100</f>
+        <f t="shared" si="4"/>
         <v>0.28378411984237417</v>
       </c>
       <c r="AD28">
@@ -35897,16 +37455,16 @@
         <v>532</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11964.83833814</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>142.11111109999999</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>84.193545779264554</v>
       </c>
       <c r="M29" s="5">
@@ -35927,23 +37485,23 @@
       <c r="T29" s="5"/>
       <c r="U29" s="9"/>
       <c r="V29" s="5">
-        <f>B29/$I29*100</f>
+        <f t="shared" si="0"/>
         <v>66.862583295409934</v>
       </c>
       <c r="W29" s="5">
-        <f>C29/$I29*100</f>
+        <f t="shared" si="1"/>
         <v>3.8930739123752436</v>
       </c>
       <c r="X29" s="5">
-        <f>D29/$I29*100</f>
+        <f t="shared" si="2"/>
         <v>17.413352542829998</v>
       </c>
       <c r="Y29" s="5">
-        <f>E29/$I29*100</f>
+        <f t="shared" si="3"/>
         <v>4.4931655974515483E-2</v>
       </c>
       <c r="Z29" s="5">
-        <f>F29/$I29*100</f>
+        <f t="shared" si="4"/>
         <v>0.26897862077594109</v>
       </c>
       <c r="AD29">
@@ -35988,16 +37546,16 @@
         <v>532</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11910.556731430001</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>143.33333329999999</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>83.096907447906261</v>
       </c>
       <c r="M30" s="5">
@@ -36020,23 +37578,23 @@
       <c r="T30" s="5"/>
       <c r="U30" s="9"/>
       <c r="V30" s="5">
-        <f>B30/$I30*100</f>
+        <f t="shared" si="0"/>
         <v>67.16730527708512</v>
       </c>
       <c r="W30" s="5">
-        <f>C30/$I30*100</f>
+        <f t="shared" si="1"/>
         <v>3.715275532270367</v>
       </c>
       <c r="X30" s="5">
-        <f>D30/$I30*100</f>
+        <f t="shared" si="2"/>
         <v>17.250932986012582</v>
       </c>
       <c r="Y30" s="5">
-        <f>E30/$I30*100</f>
+        <f t="shared" si="3"/>
         <v>4.513642914620121E-2</v>
       </c>
       <c r="Z30" s="5">
-        <f>F30/$I30*100</f>
+        <f t="shared" si="4"/>
         <v>0.2517814415078104</v>
       </c>
       <c r="AD30">
@@ -36081,16 +37639,16 @@
         <v>532</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11857.71451071</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>144.55555560000002</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>82.02877060997578</v>
       </c>
       <c r="M31" s="5">
@@ -36113,23 +37671,23 @@
       <c r="T31" s="5"/>
       <c r="U31" s="9"/>
       <c r="V31" s="5">
-        <f>B31/$I31*100</f>
+        <f t="shared" si="0"/>
         <v>67.466626834153615</v>
       </c>
       <c r="W31" s="5">
-        <f>C31/$I31*100</f>
+        <f t="shared" si="1"/>
         <v>3.5354199126767352</v>
       </c>
       <c r="X31" s="5">
-        <f>D31/$I31*100</f>
+        <f t="shared" si="2"/>
         <v>17.097090869989334</v>
       </c>
       <c r="Y31" s="5">
-        <f>E31/$I31*100</f>
+        <f t="shared" si="3"/>
         <v>4.5337573232551227E-2</v>
       </c>
       <c r="Z31" s="5">
-        <f>F31/$I31*100</f>
+        <f t="shared" si="4"/>
         <v>0.23439833776480232</v>
       </c>
       <c r="AD31">
@@ -36174,16 +37732,16 @@
         <v>532</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11829.49639</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>145.7777778</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>81.147459980008009</v>
       </c>
       <c r="M32" s="5">
@@ -36206,23 +37764,23 @@
       <c r="T32" s="5"/>
       <c r="U32" s="9"/>
       <c r="V32" s="5">
-        <f>B32/$I32*100</f>
+        <f t="shared" si="0"/>
         <v>67.627561954055423</v>
       </c>
       <c r="W32" s="5">
-        <f>C32/$I32*100</f>
+        <f t="shared" si="1"/>
         <v>3.5438533152973899</v>
       </c>
       <c r="X32" s="5">
-        <f>D32/$I32*100</f>
+        <f t="shared" si="2"/>
         <v>16.917883264175035</v>
       </c>
       <c r="Y32" s="5">
-        <f>E32/$I32*100</f>
+        <f t="shared" si="3"/>
         <v>4.5445721633125248E-2</v>
       </c>
       <c r="Z32" s="5">
-        <f>F32/$I32*100</f>
+        <f t="shared" si="4"/>
         <v>0.21640819825297736</v>
       </c>
       <c r="AD32">
@@ -36270,16 +37828,16 @@
         <v>532</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11802.07407517</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>80.286218198435378</v>
       </c>
       <c r="M33" s="5">
@@ -36304,23 +37862,23 @@
       <c r="T33" s="5"/>
       <c r="U33" s="9"/>
       <c r="V33" s="5">
-        <f>B33/$I33*100</f>
+        <f t="shared" si="0"/>
         <v>67.784695715738138</v>
       </c>
       <c r="W33" s="5">
-        <f>C33/$I33*100</f>
+        <f t="shared" si="1"/>
         <v>3.5520875172439679</v>
       </c>
       <c r="X33" s="5">
-        <f>D33/$I33*100</f>
+        <f t="shared" si="2"/>
         <v>16.837300345205438</v>
       </c>
       <c r="Y33" s="5">
-        <f>E33/$I33*100</f>
+        <f t="shared" si="3"/>
         <v>4.5551315520976028E-2</v>
       </c>
       <c r="Z33" s="5">
-        <f>F33/$I33*100</f>
+        <f t="shared" si="4"/>
         <v>0.10445126925559001</v>
       </c>
       <c r="AD33">
@@ -36371,16 +37929,16 @@
         <v>532</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11779.461976809998</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>78.009681965629127</v>
       </c>
       <c r="M34" s="5">
@@ -36403,23 +37961,23 @@
       <c r="T34" s="5"/>
       <c r="U34" s="9"/>
       <c r="V34" s="5">
-        <f>B34/$I34*100</f>
+        <f t="shared" si="0"/>
         <v>67.914816616832312</v>
       </c>
       <c r="W34" s="5">
-        <f>C34/$I34*100</f>
+        <f t="shared" si="1"/>
         <v>3.5589061777635553</v>
       </c>
       <c r="X34" s="5">
-        <f>D34/$I34*100</f>
+        <f t="shared" si="2"/>
         <v>16.695101472984032</v>
       </c>
       <c r="Y34" s="5">
-        <f>E34/$I34*100</f>
+        <f t="shared" si="3"/>
         <v>4.5638756766511315E-2</v>
       </c>
       <c r="Z34" s="5">
-        <f>F34/$I34*100</f>
+        <f t="shared" si="4"/>
         <v>8.7209813404245107E-2</v>
       </c>
       <c r="AD34">
@@ -36467,16 +38025,16 @@
         <v>532</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11853.800475448999</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>76.972730360058435</v>
       </c>
       <c r="M35" s="5">
@@ -36503,23 +38061,23 @@
       <c r="T35" s="5"/>
       <c r="U35" s="9"/>
       <c r="V35" s="5">
-        <f>B35/$I35*100</f>
+        <f t="shared" si="0"/>
         <v>68.163792842092235</v>
       </c>
       <c r="W35" s="5">
-        <f>C35/$I35*100</f>
+        <f t="shared" si="1"/>
         <v>3.53658728159182</v>
       </c>
       <c r="X35" s="5">
-        <f>D35/$I35*100</f>
+        <f t="shared" si="2"/>
         <v>16.559973335687904</v>
       </c>
       <c r="Y35" s="5">
-        <f>E35/$I35*100</f>
+        <f t="shared" si="3"/>
         <v>4.5352543356322758E-2</v>
       </c>
       <c r="Z35" s="5">
-        <f>F35/$I35*100</f>
+        <f t="shared" si="4"/>
         <v>6.9330317023821073E-2</v>
       </c>
       <c r="AD35">
@@ -36567,16 +38125,16 @@
         <v>532</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11587.806922214</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>72.423793263837496</v>
       </c>
       <c r="M36" s="5">
@@ -36601,23 +38159,23 @@
       <c r="T36" s="5"/>
       <c r="U36" s="9"/>
       <c r="V36" s="5">
-        <f>B36/$I36*100</f>
+        <f t="shared" si="0"/>
         <v>70.418846765190381</v>
       </c>
       <c r="W36" s="5">
-        <f>C36/$I36*100</f>
+        <f t="shared" si="1"/>
         <v>3.6177682525616559</v>
       </c>
       <c r="X36" s="5">
-        <f>D36/$I36*100</f>
+        <f t="shared" si="2"/>
         <v>13.975535999788487</v>
       </c>
       <c r="Y36" s="5">
-        <f>E36/$I36*100</f>
+        <f t="shared" si="3"/>
         <v>4.6393593162948957E-2</v>
       </c>
       <c r="Z36" s="5">
-        <f>F36/$I36*100</f>
+        <f t="shared" si="4"/>
         <v>4.9645237037664186E-2</v>
       </c>
       <c r="AD36">
@@ -36665,16 +38223,16 @@
         <v>532</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11695.467606342001</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>71.751335008233141</v>
       </c>
       <c r="M37" s="5">
@@ -36699,23 +38257,23 @@
       <c r="T37" s="5"/>
       <c r="U37" s="9"/>
       <c r="V37" s="5">
-        <f>B37/$I37*100</f>
+        <f t="shared" si="0"/>
         <v>70.905245340538485</v>
       </c>
       <c r="W37" s="5">
-        <f>C37/$I37*100</f>
+        <f t="shared" si="1"/>
         <v>3.5844654879183557</v>
       </c>
       <c r="X37" s="5">
-        <f>D37/$I37*100</f>
+        <f t="shared" si="2"/>
         <v>13.618435616343538</v>
       </c>
       <c r="Y37" s="5">
-        <f>E37/$I37*100</f>
+        <f t="shared" si="3"/>
         <v>4.5966524648273173E-2</v>
       </c>
       <c r="Z37" s="5">
-        <f>F37/$I37*100</f>
+        <f t="shared" si="4"/>
         <v>4.5674790626612519E-2</v>
       </c>
       <c r="AD37">
@@ -36763,16 +38321,16 @@
         <v>532</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11532.713136597</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>67.83948903880588</v>
       </c>
       <c r="M38" s="5">
@@ -36799,23 +38357,23 @@
       <c r="T38" s="5"/>
       <c r="U38" s="9"/>
       <c r="V38" s="5">
-        <f>B38/$I38*100</f>
+        <f t="shared" si="0"/>
         <v>71.324608551107843</v>
       </c>
       <c r="W38" s="5">
-        <f>C38/$I38*100</f>
+        <f t="shared" si="1"/>
         <v>3.6350509635905226</v>
       </c>
       <c r="X38" s="5">
-        <f>D38/$I38*100</f>
+        <f t="shared" si="2"/>
         <v>12.965226883647318</v>
       </c>
       <c r="Y38" s="5">
-        <f>E38/$I38*100</f>
+        <f t="shared" si="3"/>
         <v>5.0189057262096555E-2</v>
       </c>
       <c r="Z38" s="5">
-        <f>F38/$I38*100</f>
+        <f t="shared" si="4"/>
         <v>3.919331508087566E-2</v>
       </c>
       <c r="AD38">
@@ -36866,16 +38424,16 @@
         <v>532</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11385.743893008999</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>65.06139367433714</v>
       </c>
       <c r="M39" s="5">
@@ -36900,23 +38458,23 @@
       <c r="T39" s="5"/>
       <c r="U39" s="9"/>
       <c r="V39" s="5">
-        <f>B39/$I39*100</f>
+        <f t="shared" si="0"/>
         <v>71.658800484785772</v>
       </c>
       <c r="W39" s="5">
-        <f>C39/$I39*100</f>
+        <f t="shared" si="1"/>
         <v>3.6819728595635004</v>
       </c>
       <c r="X39" s="5">
-        <f>D39/$I39*100</f>
+        <f t="shared" si="2"/>
         <v>12.406095985237382</v>
       </c>
       <c r="Y39" s="5">
-        <f>E39/$I39*100</f>
+        <f t="shared" si="3"/>
         <v>5.4456872192664374E-2</v>
       </c>
       <c r="Z39" s="5">
-        <f>F39/$I39*100</f>
+        <f t="shared" si="4"/>
         <v>3.6007809832410746E-2</v>
       </c>
       <c r="AD39">
@@ -36964,16 +38522,16 @@
         <v>532</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11480.063846300998</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>64.859117775711852</v>
       </c>
       <c r="M40" s="5">
@@ -36998,23 +38556,23 @@
       <c r="T40" s="5"/>
       <c r="U40" s="9"/>
       <c r="V40" s="5">
-        <f>B40/$I40*100</f>
+        <f t="shared" si="0"/>
         <v>72.209964256174828</v>
       </c>
       <c r="W40" s="5">
-        <f>C40/$I40*100</f>
+        <f t="shared" si="1"/>
         <v>3.6517218511382872</v>
       </c>
       <c r="X40" s="5">
-        <f>D40/$I40*100</f>
+        <f t="shared" si="2"/>
         <v>12.019278938458111</v>
       </c>
       <c r="Y40" s="5">
-        <f>E40/$I40*100</f>
+        <f t="shared" si="3"/>
         <v>6.2750870521692745E-2</v>
       </c>
       <c r="Z40" s="5">
-        <f>F40/$I40*100</f>
+        <f t="shared" si="4"/>
         <v>3.5532122082355268E-2</v>
       </c>
       <c r="AD40">
@@ -37062,16 +38620,16 @@
         <v>532</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11515.394229122998</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>62.583664288711944</v>
       </c>
       <c r="M41" s="5">
@@ -37096,23 +38654,23 @@
       <c r="T41" s="5"/>
       <c r="U41" s="9"/>
       <c r="V41" s="5">
-        <f>B41/$I41*100</f>
+        <f t="shared" si="0"/>
         <v>72.512932113796495</v>
       </c>
       <c r="W41" s="5">
-        <f>C41/$I41*100</f>
+        <f t="shared" si="1"/>
         <v>3.5678761849153848</v>
       </c>
       <c r="X41" s="5">
-        <f>D41/$I41*100</f>
+        <f t="shared" si="2"/>
         <v>11.824750763254618</v>
       </c>
       <c r="Y41" s="5">
-        <f>E41/$I41*100</f>
+        <f t="shared" si="3"/>
         <v>6.4736993381838775E-2</v>
       </c>
       <c r="Z41" s="5">
-        <f>F41/$I41*100</f>
+        <f t="shared" si="4"/>
         <v>3.7452767462295221E-2</v>
       </c>
       <c r="AD41">
@@ -37160,16 +38718,16 @@
         <v>532</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11749.006155509998</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>61.192740393281241</v>
       </c>
       <c r="M42" s="5">
@@ -37194,23 +38752,23 @@
       <c r="T42" s="5"/>
       <c r="U42" s="9"/>
       <c r="V42" s="5">
-        <f>B42/$I42*100</f>
+        <f t="shared" si="0"/>
         <v>73.26151579181267</v>
       </c>
       <c r="W42" s="5">
-        <f>C42/$I42*100</f>
+        <f t="shared" si="1"/>
         <v>3.4227632650563029</v>
       </c>
       <c r="X42" s="5">
-        <f>D42/$I42*100</f>
+        <f t="shared" si="2"/>
         <v>11.436261426843004</v>
       </c>
       <c r="Y42" s="5">
-        <f>E42/$I42*100</f>
+        <f t="shared" si="3"/>
         <v>7.0313351535063545E-2</v>
       </c>
       <c r="Z42" s="5">
-        <f>F42/$I42*100</f>
+        <f t="shared" si="4"/>
         <v>3.5299239400389731E-2</v>
       </c>
       <c r="AD42">
@@ -37258,16 +38816,16 @@
         <v>532</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12092.466287744999</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>202.52588490000002</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>59.708250595798276</v>
       </c>
       <c r="M43" s="5">
@@ -37296,23 +38854,23 @@
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="5">
-        <f>B43/$I43*100</f>
+        <f t="shared" si="0"/>
         <v>74.223899297500125</v>
       </c>
       <c r="W43" s="5">
-        <f>C43/$I43*100</f>
+        <f t="shared" si="1"/>
         <v>3.1428988450864019</v>
       </c>
       <c r="X43" s="5">
-        <f>D43/$I43*100</f>
+        <f t="shared" si="2"/>
         <v>11.111439362553419</v>
       </c>
       <c r="Y43" s="5">
-        <f>E43/$I43*100</f>
+        <f t="shared" si="3"/>
         <v>6.8019871251043598E-2</v>
       </c>
       <c r="Z43" s="5">
-        <f>F43/$I43*100</f>
+        <f t="shared" si="4"/>
         <v>2.9728968098453872E-2</v>
       </c>
       <c r="AD43">
@@ -37363,16 +38921,16 @@
         <v>520</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12047.313171469001</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>208.94864799999999</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>57.656813225558658</v>
       </c>
       <c r="M44" s="5">
@@ -37399,23 +38957,23 @@
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="5">
-        <f>B44/$I44*100</f>
+        <f t="shared" si="0"/>
         <v>74.9295703657655</v>
       </c>
       <c r="W44" s="5">
-        <f>C44/$I44*100</f>
+        <f t="shared" si="1"/>
         <v>3.0494794679202579</v>
       </c>
       <c r="X44" s="5">
-        <f>D44/$I44*100</f>
+        <f t="shared" si="2"/>
         <v>10.559835648772097</v>
       </c>
       <c r="Y44" s="5">
-        <f>E44/$I44*100</f>
+        <f t="shared" si="3"/>
         <v>6.8646675671929766E-2</v>
       </c>
       <c r="Z44" s="5">
-        <f>F44/$I44*100</f>
+        <f t="shared" si="4"/>
         <v>2.7734639429088385E-2</v>
       </c>
       <c r="AD44">
@@ -37463,16 +39021,16 @@
         <v>510</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12072.594883022</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>213.6288232</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>56.512013230160413</v>
       </c>
       <c r="M45" s="5">
@@ -37499,23 +39057,23 @@
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="5">
-        <f>B45/$I45*100</f>
+        <f t="shared" si="0"/>
         <v>75.431173564903631</v>
       </c>
       <c r="W45" s="5">
-        <f>C45/$I45*100</f>
+        <f t="shared" si="1"/>
         <v>2.9381148248321756</v>
       </c>
       <c r="X45" s="5">
-        <f>D45/$I45*100</f>
+        <f t="shared" si="2"/>
         <v>10.360119809527786</v>
       </c>
       <c r="Y45" s="5">
-        <f>E45/$I45*100</f>
+        <f t="shared" si="3"/>
         <v>6.8874008285438534E-2</v>
       </c>
       <c r="Z45" s="5">
-        <f>F45/$I45*100</f>
+        <f t="shared" si="4"/>
         <v>2.5625261610912303E-2</v>
       </c>
       <c r="AD45">
@@ -37563,16 +39121,16 @@
         <v>500</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12101.860575282</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>217.3311205</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>55.683974515200646</v>
       </c>
       <c r="M46" s="5">
@@ -37599,23 +39157,23 @@
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="5">
-        <f>B46/$I46*100</f>
+        <f t="shared" si="0"/>
         <v>75.885438795728334</v>
       </c>
       <c r="W46" s="5">
-        <f>C46/$I46*100</f>
+        <f t="shared" si="1"/>
         <v>2.879689707480201</v>
       </c>
       <c r="X46" s="5">
-        <f>D46/$I46*100</f>
+        <f t="shared" si="2"/>
         <v>10.157893576387982</v>
       </c>
       <c r="Y46" s="5">
-        <f>E46/$I46*100</f>
+        <f t="shared" si="3"/>
         <v>6.929975723839947E-2</v>
       </c>
       <c r="Z46" s="5">
-        <f>F46/$I46*100</f>
+        <f t="shared" si="4"/>
         <v>2.395386943988528E-2</v>
       </c>
       <c r="AD46">
@@ -37663,16 +39221,16 @@
         <v>490</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11968.629252107001</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>220.40369699999999</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.303214578596659</v>
       </c>
       <c r="M47" s="5">
@@ -37699,23 +39257,23 @@
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="5">
-        <f>B47/$I47*100</f>
+        <f t="shared" si="0"/>
         <v>76.105833075215784</v>
       </c>
       <c r="W47" s="5">
-        <f>C47/$I47*100</f>
+        <f t="shared" si="1"/>
         <v>2.8598543700377621</v>
       </c>
       <c r="X47" s="5">
-        <f>D47/$I47*100</f>
+        <f t="shared" si="2"/>
         <v>10.151538446109917</v>
       </c>
       <c r="Y47" s="5">
-        <f>E47/$I47*100</f>
+        <f t="shared" si="3"/>
         <v>7.0670081108168512E-2</v>
       </c>
       <c r="Z47" s="5">
-        <f>F47/$I47*100</f>
+        <f t="shared" si="4"/>
         <v>2.2499614202068571E-2</v>
       </c>
       <c r="AD47">
@@ -37763,16 +39321,16 @@
         <v>480</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11835.472545881999</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>223.03538889999999</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.065446717913204</v>
       </c>
       <c r="M48" s="5">
@@ -37801,23 +39359,23 @@
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="5">
-        <f>B48/$I48*100</f>
+        <f t="shared" si="0"/>
         <v>76.330708089414642</v>
       </c>
       <c r="W48" s="5">
-        <f>C48/$I48*100</f>
+        <f t="shared" si="1"/>
         <v>2.8390188748053902</v>
       </c>
       <c r="X48" s="5">
-        <f>D48/$I48*100</f>
+        <f t="shared" si="2"/>
         <v>10.144976276572667</v>
       </c>
       <c r="Y48" s="5">
-        <f>E48/$I48*100</f>
+        <f t="shared" si="3"/>
         <v>6.9244496163792704E-2</v>
       </c>
       <c r="Z48" s="5">
-        <f>F48/$I48*100</f>
+        <f t="shared" si="4"/>
         <v>2.1485842995637612E-2</v>
       </c>
       <c r="AD48">
@@ -37868,16 +39426,16 @@
         <v>470</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11959.069885074001</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>225.34045020000002</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.071119164179251</v>
       </c>
       <c r="M49" s="5">
@@ -37904,23 +39462,23 @@
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="5">
-        <f>B49/$I49*100</f>
+        <f t="shared" si="0"/>
         <v>76.9726109259461</v>
       </c>
       <c r="W49" s="5">
-        <f>C49/$I49*100</f>
+        <f t="shared" si="1"/>
         <v>2.7572146945268865</v>
       </c>
       <c r="X49" s="5">
-        <f>D49/$I49*100</f>
+        <f t="shared" si="2"/>
         <v>9.9604441018167797</v>
       </c>
       <c r="Y49" s="5">
-        <f>E49/$I49*100</f>
+        <f t="shared" si="3"/>
         <v>6.6331133969712686E-2</v>
       </c>
       <c r="Z49" s="5">
-        <f>F49/$I49*100</f>
+        <f t="shared" si="4"/>
         <v>2.0079004722574553E-2</v>
       </c>
       <c r="AD49">
@@ -37968,16 +39526,16 @@
         <v>460</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12080.381868788998</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>227.39342440000001</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.125467021151898</v>
       </c>
       <c r="M50" s="5">
@@ -38004,23 +39562,23 @@
       </c>
       <c r="U50" s="9"/>
       <c r="V50" s="5">
-        <f t="shared" ref="V50:V73" si="3">B50/$I50*100</f>
+        <f t="shared" ref="V50:V73" si="8">B50/$I50*100</f>
         <v>77.595781067305666</v>
       </c>
       <c r="W50" s="5">
-        <f t="shared" ref="W50:W73" si="4">C50/$I50*100</f>
+        <f t="shared" ref="W50:W73" si="9">C50/$I50*100</f>
         <v>2.6775905638852597</v>
       </c>
       <c r="X50" s="5">
-        <f t="shared" ref="X50:X73" si="5">D50/$I50*100</f>
+        <f t="shared" ref="X50:X73" si="10">D50/$I50*100</f>
         <v>9.7815373043207821</v>
       </c>
       <c r="Y50" s="5">
-        <f t="shared" ref="Y50:Y73" si="6">E50/$I50*100</f>
+        <f t="shared" ref="Y50:Y73" si="11">E50/$I50*100</f>
         <v>6.3489383724000259E-2</v>
       </c>
       <c r="Z50" s="5">
-        <f t="shared" ref="Z50:Z73" si="7">F50/$I50*100</f>
+        <f t="shared" ref="Z50:Z73" si="12">F50/$I50*100</f>
         <v>1.8765006881584983E-2</v>
       </c>
       <c r="AD50">
@@ -38068,16 +39626,16 @@
         <v>450</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12202.605561795001</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>229.24571610000004</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.229372262171573</v>
       </c>
       <c r="M51" s="5">
@@ -38104,23 +39662,23 @@
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>78.180638976555244</v>
       </c>
       <c r="W51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.6257367057996426</v>
       </c>
       <c r="X51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.6054702503026892</v>
       </c>
       <c r="Y51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.0601702067244391E-2</v>
       </c>
       <c r="Z51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.7452295882345401E-2</v>
       </c>
       <c r="AD51">
@@ -38168,16 +39726,16 @@
         <v>450</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12385.221646146001</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>230.93431240000001</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.630928714887673</v>
       </c>
       <c r="M52" s="5">
@@ -38204,23 +39762,23 @@
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>78.608268880109733</v>
       </c>
       <c r="W52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.5623556103152434</v>
       </c>
       <c r="X52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.3868989043225639</v>
       </c>
       <c r="Y52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.748959151825634E-2</v>
       </c>
       <c r="Z52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.6089953574792152E-2</v>
       </c>
       <c r="AD52">
@@ -38268,16 +39826,16 @@
         <v>450</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12565.504791508998</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>232.48673840000001</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.048264765492526</v>
       </c>
       <c r="M53" s="5">
@@ -38306,23 +39864,23 @@
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.019573807409259</v>
       </c>
       <c r="W53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.5012807301811204</v>
       </c>
       <c r="X53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.1763828284810867</v>
       </c>
       <c r="Y53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.4478034218137669E-2</v>
       </c>
       <c r="Z53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.4773073106099025E-2</v>
       </c>
       <c r="AD53">
@@ -38373,16 +39931,16 @@
         <v>450</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>233.92404590000001</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.491707614608238</v>
       </c>
       <c r="M54" s="5">
@@ -38405,23 +39963,23 @@
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD54">
@@ -38469,16 +40027,16 @@
         <v>450</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>235.2627057</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>54.181646322913124</v>
       </c>
       <c r="M55" s="5">
@@ -38501,23 +40059,23 @@
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD55">
@@ -38565,16 +40123,16 @@
         <v>450</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>236.51585300000002</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.894572188397859</v>
       </c>
       <c r="M56" s="5">
@@ -38597,23 +40155,23 @@
       </c>
       <c r="U56" s="9"/>
       <c r="V56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD56">
@@ -38661,16 +40219,16 @@
         <v>450</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>237.69413579999997</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.627409318732546</v>
       </c>
       <c r="M57" s="5">
@@ -38693,23 +40251,23 @@
       </c>
       <c r="U57" s="9"/>
       <c r="V57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD57">
@@ -38757,16 +40315,16 @@
         <v>450</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>238.80630870000002</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.377654814062275</v>
       </c>
       <c r="M58" s="5">
@@ -38789,23 +40347,23 @@
       </c>
       <c r="U58" s="9"/>
       <c r="V58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD58">
@@ -38856,16 +40414,16 @@
         <v>450</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>239.85965880000001</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>53.14324541684455</v>
       </c>
       <c r="M59" s="5">
@@ -38888,23 +40446,23 @@
       </c>
       <c r="U59" s="9"/>
       <c r="V59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD59">
@@ -38952,16 +40510,16 @@
         <v>450</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>240.86031829999999</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.922460632690274</v>
       </c>
       <c r="M60" s="5">
@@ -38984,23 +40542,23 @@
       </c>
       <c r="U60" s="9"/>
       <c r="V60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD60">
@@ -39048,16 +40606,16 @@
         <v>450</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>241.81349740000002</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.71385117152272</v>
       </c>
       <c r="M61" s="5">
@@ -39080,23 +40638,23 @@
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD61">
@@ -39144,16 +40702,16 @@
         <v>450</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>242.72366120000004</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.516185073138622</v>
       </c>
       <c r="M62" s="5">
@@ -39176,23 +40734,23 @@
       </c>
       <c r="U62" s="9"/>
       <c r="V62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD62">
@@ -39240,16 +40798,16 @@
         <v>450</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>243.59466650000002</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.32840643171059</v>
       </c>
       <c r="M63" s="5">
@@ -39272,23 +40830,23 @@
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD63">
@@ -39339,16 +40897,16 @@
         <v>450</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>244.42986730000001</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.149603704379203</v>
       </c>
       <c r="M64" s="5">
@@ -39371,23 +40929,23 @@
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD64">
@@ -39435,16 +40993,16 @@
         <v>450</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>245.23219999999998</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.978984461294232</v>
       </c>
       <c r="M65" s="5">
@@ -39467,23 +41025,23 @@
       </c>
       <c r="U65" s="9"/>
       <c r="V65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD65">
@@ -39531,16 +41089,16 @@
         <v>450</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>246.00424960000001</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.815855758326691</v>
       </c>
       <c r="M66" s="5">
@@ -39563,23 +41121,23 @@
       </c>
       <c r="U66" s="9"/>
       <c r="V66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD66">
@@ -39627,16 +41185,16 @@
         <v>450</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J67" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>246.74830409999998</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.659608197521948</v>
       </c>
       <c r="M67" s="5">
@@ -39659,23 +41217,23 @@
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W67" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X67" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y67" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD67">
@@ -39723,16 +41281,16 @@
         <v>450</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J68" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>247.46639890000003</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.509703013700729</v>
       </c>
       <c r="M68" s="5">
@@ -39755,23 +41313,23 @@
       </c>
       <c r="U68" s="9"/>
       <c r="V68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W68" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X68" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD68">
@@ -39822,16 +41380,16 @@
         <v>450</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>248.16035240000002</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.365661718044031</v>
       </c>
       <c r="M69" s="5">
@@ -39854,23 +41412,23 @@
       </c>
       <c r="U69" s="9"/>
       <c r="V69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W69" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X69" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD69">
@@ -39918,16 +41476,16 @@
         <v>450</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J70" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>248.83179619999999</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.227057425424789</v>
       </c>
       <c r="M70" s="5">
@@ -39950,23 +41508,23 @@
       </c>
       <c r="U70" s="9"/>
       <c r="V70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W70" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD70">
@@ -40014,16 +41572,16 @@
         <v>450</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>249.4822001</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.093507705558338</v>
       </c>
       <c r="M71" s="5">
@@ -40046,23 +41604,23 @@
       </c>
       <c r="U71" s="9"/>
       <c r="V71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W71" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X71" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y71" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD71">
@@ -40110,16 +41668,16 @@
         <v>450</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>250.11289269999997</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50.964668696620926</v>
       </c>
       <c r="M72" s="5">
@@ -40142,23 +41700,23 @@
       </c>
       <c r="U72" s="9"/>
       <c r="V72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W72" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y72" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD72">
@@ -40206,16 +41764,16 @@
         <v>450</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12746.920713208998</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>250.72507910000002</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50.840230099698061</v>
       </c>
       <c r="M73" s="5">
@@ -40240,23 +41798,23 @@
       </c>
       <c r="U73" s="9"/>
       <c r="V73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>79.393880511964468</v>
       </c>
       <c r="W73" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>2.4656821601966037</v>
       </c>
       <c r="X73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8.9710247496481053</v>
       </c>
       <c r="Y73" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.3702695372588399E-2</v>
       </c>
       <c r="Z73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.456282070599527E-2</v>
       </c>
       <c r="AD73">
@@ -40299,15 +41857,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72633EE9-48B6-45B9-AA20-5B238FD67D43}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -40326,8 +41884,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -40346,8 +41910,14 @@
       <c r="F2">
         <v>75</v>
       </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -40366,8 +41936,14 @@
       <c r="F3">
         <v>75</v>
       </c>
+      <c r="G3">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -40386,8 +41962,14 @@
       <c r="F4">
         <v>75</v>
       </c>
+      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>99</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -40406,8 +41988,14 @@
       <c r="F5">
         <v>75</v>
       </c>
+      <c r="G5">
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <v>99</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -40426,8 +42014,14 @@
       <c r="F6">
         <v>75</v>
       </c>
+      <c r="G6">
+        <v>99</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -40446,8 +42040,14 @@
       <c r="F7">
         <v>75</v>
       </c>
+      <c r="G7">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>99</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -40466,8 +42066,14 @@
       <c r="F8">
         <v>75</v>
       </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -40486,8 +42092,14 @@
       <c r="F9">
         <v>75</v>
       </c>
+      <c r="G9">
+        <v>99</v>
+      </c>
+      <c r="H9">
+        <v>99</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -40506,8 +42118,14 @@
       <c r="F10">
         <v>75</v>
       </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>99</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -40526,8 +42144,14 @@
       <c r="F11">
         <v>75</v>
       </c>
+      <c r="G11">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -40546,8 +42170,14 @@
       <c r="F12">
         <v>75</v>
       </c>
+      <c r="G12">
+        <v>99</v>
+      </c>
+      <c r="H12">
+        <v>99</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -40566,8 +42196,14 @@
       <c r="F13">
         <v>75</v>
       </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>99</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -40586,8 +42222,14 @@
       <c r="F14">
         <v>75</v>
       </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>99</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -40606,8 +42248,14 @@
       <c r="F15">
         <v>75</v>
       </c>
+      <c r="G15">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>99</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -40626,8 +42274,14 @@
       <c r="F16">
         <v>75</v>
       </c>
+      <c r="G16">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>99</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -40646,8 +42300,14 @@
       <c r="F17">
         <v>75</v>
       </c>
+      <c r="G17">
+        <v>99</v>
+      </c>
+      <c r="H17">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -40666,8 +42326,14 @@
       <c r="F18">
         <v>75</v>
       </c>
+      <c r="G18">
+        <v>99</v>
+      </c>
+      <c r="H18">
+        <v>99</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -40686,8 +42352,14 @@
       <c r="F19">
         <v>75</v>
       </c>
+      <c r="G19">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>99</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -40706,8 +42378,14 @@
       <c r="F20">
         <v>75</v>
       </c>
+      <c r="G20">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -40726,8 +42404,14 @@
       <c r="F21">
         <v>75</v>
       </c>
+      <c r="G21">
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -40746,8 +42430,14 @@
       <c r="F22">
         <v>75</v>
       </c>
+      <c r="G22">
+        <v>99</v>
+      </c>
+      <c r="H22">
+        <v>99</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -40766,8 +42456,14 @@
       <c r="F23">
         <v>75</v>
       </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>99</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -40786,8 +42482,14 @@
       <c r="F24">
         <v>75</v>
       </c>
+      <c r="G24">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>99</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -40806,8 +42508,14 @@
       <c r="F25">
         <v>75</v>
       </c>
+      <c r="G25">
+        <v>99</v>
+      </c>
+      <c r="H25">
+        <v>99</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -40826,8 +42534,14 @@
       <c r="F26">
         <v>75</v>
       </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>99</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -40846,8 +42560,14 @@
       <c r="F27">
         <v>75</v>
       </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>99</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -40866,8 +42586,14 @@
       <c r="F28">
         <v>75</v>
       </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>99</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -40886,8 +42612,14 @@
       <c r="F29">
         <v>75</v>
       </c>
+      <c r="G29">
+        <v>99</v>
+      </c>
+      <c r="H29">
+        <v>99</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -40906,8 +42638,14 @@
       <c r="F30">
         <v>75</v>
       </c>
+      <c r="G30">
+        <v>99</v>
+      </c>
+      <c r="H30">
+        <v>99</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -40926,8 +42664,14 @@
       <c r="F31">
         <v>75</v>
       </c>
+      <c r="G31">
+        <v>99</v>
+      </c>
+      <c r="H31">
+        <v>99</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -40946,8 +42690,14 @@
       <c r="F32">
         <v>75</v>
       </c>
+      <c r="G32">
+        <v>99</v>
+      </c>
+      <c r="H32">
+        <v>99</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -40966,8 +42716,14 @@
       <c r="F33">
         <v>75</v>
       </c>
+      <c r="G33">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>99</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -40986,8 +42742,14 @@
       <c r="F34">
         <v>75</v>
       </c>
+      <c r="G34">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <v>99</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -41006,8 +42768,14 @@
       <c r="F35">
         <v>75</v>
       </c>
+      <c r="G35">
+        <v>99</v>
+      </c>
+      <c r="H35">
+        <v>99</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -41026,8 +42794,14 @@
       <c r="F36">
         <v>75</v>
       </c>
+      <c r="G36">
+        <v>99</v>
+      </c>
+      <c r="H36">
+        <v>99</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -41046,8 +42820,14 @@
       <c r="F37">
         <v>75</v>
       </c>
+      <c r="G37">
+        <v>99</v>
+      </c>
+      <c r="H37">
+        <v>99</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -41066,8 +42846,14 @@
       <c r="F38">
         <v>75</v>
       </c>
+      <c r="G38">
+        <v>99</v>
+      </c>
+      <c r="H38">
+        <v>99</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -41086,8 +42872,14 @@
       <c r="F39">
         <v>75</v>
       </c>
+      <c r="G39">
+        <v>99</v>
+      </c>
+      <c r="H39">
+        <v>99</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -41106,8 +42898,14 @@
       <c r="F40">
         <v>75</v>
       </c>
+      <c r="G40">
+        <v>99</v>
+      </c>
+      <c r="H40">
+        <v>99</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -41126,8 +42924,14 @@
       <c r="F41">
         <v>75</v>
       </c>
+      <c r="G41">
+        <v>99</v>
+      </c>
+      <c r="H41">
+        <v>99</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -41146,8 +42950,14 @@
       <c r="F42">
         <v>75</v>
       </c>
+      <c r="G42">
+        <v>99</v>
+      </c>
+      <c r="H42">
+        <v>99</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -41166,8 +42976,14 @@
       <c r="F43">
         <v>75</v>
       </c>
+      <c r="G43">
+        <v>99</v>
+      </c>
+      <c r="H43">
+        <v>99</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -41186,8 +43002,14 @@
       <c r="F44">
         <v>75</v>
       </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>99</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -41206,8 +43028,14 @@
       <c r="F45">
         <v>75</v>
       </c>
+      <c r="G45">
+        <v>99</v>
+      </c>
+      <c r="H45">
+        <v>99</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -41226,8 +43054,14 @@
       <c r="F46">
         <v>75</v>
       </c>
+      <c r="G46">
+        <v>99</v>
+      </c>
+      <c r="H46">
+        <v>99</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -41246,8 +43080,14 @@
       <c r="F47">
         <v>75</v>
       </c>
+      <c r="G47">
+        <v>99</v>
+      </c>
+      <c r="H47">
+        <v>99</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -41266,8 +43106,14 @@
       <c r="F48">
         <v>75</v>
       </c>
+      <c r="G48">
+        <v>99</v>
+      </c>
+      <c r="H48">
+        <v>99</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -41286,8 +43132,14 @@
       <c r="F49">
         <v>75</v>
       </c>
+      <c r="G49">
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <v>99</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -41306,8 +43158,14 @@
       <c r="F50">
         <v>75</v>
       </c>
+      <c r="G50">
+        <v>99</v>
+      </c>
+      <c r="H50">
+        <v>99</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -41326,8 +43184,14 @@
       <c r="F51">
         <v>75</v>
       </c>
+      <c r="G51">
+        <v>99</v>
+      </c>
+      <c r="H51">
+        <v>99</v>
+      </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -41346,8 +43210,14 @@
       <c r="F52">
         <v>75</v>
       </c>
+      <c r="G52">
+        <v>99</v>
+      </c>
+      <c r="H52">
+        <v>99</v>
+      </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -41366,8 +43236,14 @@
       <c r="F53">
         <v>75</v>
       </c>
+      <c r="G53">
+        <v>99</v>
+      </c>
+      <c r="H53">
+        <v>99</v>
+      </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -41386,8 +43262,14 @@
       <c r="F54">
         <v>75</v>
       </c>
+      <c r="G54">
+        <v>99</v>
+      </c>
+      <c r="H54">
+        <v>99</v>
+      </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -41406,8 +43288,14 @@
       <c r="F55">
         <v>75</v>
       </c>
+      <c r="G55">
+        <v>99</v>
+      </c>
+      <c r="H55">
+        <v>99</v>
+      </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -41426,8 +43314,14 @@
       <c r="F56">
         <v>75</v>
       </c>
+      <c r="G56">
+        <v>99</v>
+      </c>
+      <c r="H56">
+        <v>99</v>
+      </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -41445,6 +43339,12 @@
       </c>
       <c r="F57">
         <v>75</v>
+      </c>
+      <c r="G57">
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -41455,15 +43355,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886825C-AE4A-4EAF-970C-700F7CC3D78A}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -41482,8 +43382,14 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -41502,8 +43408,14 @@
       <c r="F2">
         <v>80</v>
       </c>
+      <c r="G2">
+        <v>95.3</v>
+      </c>
+      <c r="H2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -41522,8 +43434,14 @@
       <c r="F3">
         <v>80</v>
       </c>
+      <c r="G3">
+        <v>95.37</v>
+      </c>
+      <c r="H3">
+        <v>93</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -41542,8 +43460,14 @@
       <c r="F4">
         <v>80</v>
       </c>
+      <c r="G4">
+        <v>95.44</v>
+      </c>
+      <c r="H4">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -41562,8 +43486,14 @@
       <c r="F5">
         <v>80</v>
       </c>
+      <c r="G5">
+        <v>95.51</v>
+      </c>
+      <c r="H5">
+        <v>93</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -41582,8 +43512,14 @@
       <c r="F6">
         <v>80</v>
       </c>
+      <c r="G6">
+        <v>95.58</v>
+      </c>
+      <c r="H6">
+        <v>93</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -41602,8 +43538,14 @@
       <c r="F7">
         <v>80</v>
       </c>
+      <c r="G7">
+        <v>95.65</v>
+      </c>
+      <c r="H7">
+        <v>93</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -41622,8 +43564,14 @@
       <c r="F8">
         <v>80</v>
       </c>
+      <c r="G8">
+        <v>95.72</v>
+      </c>
+      <c r="H8">
+        <v>93</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -41642,8 +43590,14 @@
       <c r="F9">
         <v>80</v>
       </c>
+      <c r="G9">
+        <v>95.79</v>
+      </c>
+      <c r="H9">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -41662,8 +43616,14 @@
       <c r="F10">
         <v>80</v>
       </c>
+      <c r="G10">
+        <v>95.86</v>
+      </c>
+      <c r="H10">
+        <v>93</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -41682,8 +43642,14 @@
       <c r="F11">
         <v>80</v>
       </c>
+      <c r="G11">
+        <v>95.93</v>
+      </c>
+      <c r="H11">
+        <v>93</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -41702,8 +43668,14 @@
       <c r="F12">
         <v>80</v>
       </c>
+      <c r="G12">
+        <v>96</v>
+      </c>
+      <c r="H12">
+        <v>93</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -41722,8 +43694,14 @@
       <c r="F13">
         <v>80</v>
       </c>
+      <c r="G13">
+        <v>96.5</v>
+      </c>
+      <c r="H13">
+        <v>93.7</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -41742,8 +43720,14 @@
       <c r="F14">
         <v>80</v>
       </c>
+      <c r="G14">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>94.283333330000005</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -41762,8 +43746,14 @@
       <c r="F15">
         <v>80</v>
       </c>
+      <c r="G15">
+        <v>97.5</v>
+      </c>
+      <c r="H15">
+        <v>94.866666670000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -41782,8 +43772,14 @@
       <c r="F16">
         <v>80</v>
       </c>
+      <c r="G16">
+        <v>98</v>
+      </c>
+      <c r="H16">
+        <v>95.45</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2010</v>
       </c>
@@ -41802,8 +43798,14 @@
       <c r="F17">
         <v>80</v>
       </c>
+      <c r="G17">
+        <v>98.5</v>
+      </c>
+      <c r="H17">
+        <v>96.033333330000005</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -41822,8 +43824,14 @@
       <c r="F18">
         <v>80</v>
       </c>
+      <c r="G18">
+        <v>99</v>
+      </c>
+      <c r="H18">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -41842,8 +43850,14 @@
       <c r="F19">
         <v>80</v>
       </c>
+      <c r="G19">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -41862,8 +43876,14 @@
       <c r="F20">
         <v>80</v>
       </c>
+      <c r="G20">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -41882,8 +43902,14 @@
       <c r="F21">
         <v>80</v>
       </c>
+      <c r="G21">
+        <v>99</v>
+      </c>
+      <c r="H21">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -41902,8 +43928,14 @@
       <c r="F22">
         <v>80</v>
       </c>
+      <c r="G22">
+        <v>99</v>
+      </c>
+      <c r="H22">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -41922,8 +43954,14 @@
       <c r="F23">
         <v>80</v>
       </c>
+      <c r="G23">
+        <v>99</v>
+      </c>
+      <c r="H23">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -41942,8 +43980,14 @@
       <c r="F24">
         <v>80</v>
       </c>
+      <c r="G24">
+        <v>99</v>
+      </c>
+      <c r="H24">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -41962,8 +44006,14 @@
       <c r="F25">
         <v>80</v>
       </c>
+      <c r="G25">
+        <v>99</v>
+      </c>
+      <c r="H25">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -41982,8 +44032,14 @@
       <c r="F26">
         <v>80</v>
       </c>
+      <c r="G26">
+        <v>99</v>
+      </c>
+      <c r="H26">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -42002,8 +44058,14 @@
       <c r="F27">
         <v>80</v>
       </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -42022,8 +44084,14 @@
       <c r="F28">
         <v>80</v>
       </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -42042,8 +44110,14 @@
       <c r="F29">
         <v>80</v>
       </c>
+      <c r="G29">
+        <v>99</v>
+      </c>
+      <c r="H29">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2023</v>
       </c>
@@ -42062,8 +44136,14 @@
       <c r="F30">
         <v>80</v>
       </c>
+      <c r="G30">
+        <v>99</v>
+      </c>
+      <c r="H30">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2024</v>
       </c>
@@ -42082,8 +44162,14 @@
       <c r="F31">
         <v>80</v>
       </c>
+      <c r="G31">
+        <v>99</v>
+      </c>
+      <c r="H31">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2025</v>
       </c>
@@ -42102,8 +44188,14 @@
       <c r="F32">
         <v>80</v>
       </c>
+      <c r="G32">
+        <v>99</v>
+      </c>
+      <c r="H32">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2026</v>
       </c>
@@ -42122,8 +44214,14 @@
       <c r="F33">
         <v>80</v>
       </c>
+      <c r="G33">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2027</v>
       </c>
@@ -42142,8 +44240,14 @@
       <c r="F34">
         <v>80</v>
       </c>
+      <c r="G34">
+        <v>99</v>
+      </c>
+      <c r="H34">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2028</v>
       </c>
@@ -42162,8 +44266,14 @@
       <c r="F35">
         <v>80</v>
       </c>
+      <c r="G35">
+        <v>99</v>
+      </c>
+      <c r="H35">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2029</v>
       </c>
@@ -42182,8 +44292,14 @@
       <c r="F36">
         <v>80</v>
       </c>
+      <c r="G36">
+        <v>99</v>
+      </c>
+      <c r="H36">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2030</v>
       </c>
@@ -42202,8 +44318,14 @@
       <c r="F37">
         <v>80</v>
       </c>
+      <c r="G37">
+        <v>99</v>
+      </c>
+      <c r="H37">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2031</v>
       </c>
@@ -42222,8 +44344,14 @@
       <c r="F38">
         <v>80</v>
       </c>
+      <c r="G38">
+        <v>99</v>
+      </c>
+      <c r="H38">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2032</v>
       </c>
@@ -42242,8 +44370,14 @@
       <c r="F39">
         <v>80</v>
       </c>
+      <c r="G39">
+        <v>99</v>
+      </c>
+      <c r="H39">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2033</v>
       </c>
@@ -42262,8 +44396,14 @@
       <c r="F40">
         <v>80</v>
       </c>
+      <c r="G40">
+        <v>99</v>
+      </c>
+      <c r="H40">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2034</v>
       </c>
@@ -42282,8 +44422,14 @@
       <c r="F41">
         <v>80</v>
       </c>
+      <c r="G41">
+        <v>99</v>
+      </c>
+      <c r="H41">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2035</v>
       </c>
@@ -42302,8 +44448,14 @@
       <c r="F42">
         <v>80</v>
       </c>
+      <c r="G42">
+        <v>99</v>
+      </c>
+      <c r="H42">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2036</v>
       </c>
@@ -42322,8 +44474,14 @@
       <c r="F43">
         <v>80</v>
       </c>
+      <c r="G43">
+        <v>99</v>
+      </c>
+      <c r="H43">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2037</v>
       </c>
@@ -42342,8 +44500,14 @@
       <c r="F44">
         <v>80</v>
       </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2038</v>
       </c>
@@ -42362,8 +44526,14 @@
       <c r="F45">
         <v>80</v>
       </c>
+      <c r="G45">
+        <v>99</v>
+      </c>
+      <c r="H45">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2039</v>
       </c>
@@ -42382,8 +44552,14 @@
       <c r="F46">
         <v>80</v>
       </c>
+      <c r="G46">
+        <v>99</v>
+      </c>
+      <c r="H46">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2040</v>
       </c>
@@ -42402,8 +44578,14 @@
       <c r="F47">
         <v>80</v>
       </c>
+      <c r="G47">
+        <v>99</v>
+      </c>
+      <c r="H47">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2041</v>
       </c>
@@ -42422,8 +44604,14 @@
       <c r="F48">
         <v>80</v>
       </c>
+      <c r="G48">
+        <v>99</v>
+      </c>
+      <c r="H48">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2042</v>
       </c>
@@ -42442,8 +44630,14 @@
       <c r="F49">
         <v>80</v>
       </c>
+      <c r="G49">
+        <v>99</v>
+      </c>
+      <c r="H49">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2043</v>
       </c>
@@ -42462,8 +44656,14 @@
       <c r="F50">
         <v>80</v>
       </c>
+      <c r="G50">
+        <v>99</v>
+      </c>
+      <c r="H50">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2044</v>
       </c>
@@ -42482,8 +44682,14 @@
       <c r="F51">
         <v>80</v>
       </c>
+      <c r="G51">
+        <v>99</v>
+      </c>
+      <c r="H51">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2045</v>
       </c>
@@ -42502,8 +44708,14 @@
       <c r="F52">
         <v>80</v>
       </c>
+      <c r="G52">
+        <v>99</v>
+      </c>
+      <c r="H52">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2046</v>
       </c>
@@ -42522,8 +44734,14 @@
       <c r="F53">
         <v>80</v>
       </c>
+      <c r="G53">
+        <v>99</v>
+      </c>
+      <c r="H53">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2047</v>
       </c>
@@ -42542,8 +44760,14 @@
       <c r="F54">
         <v>80</v>
       </c>
+      <c r="G54">
+        <v>99</v>
+      </c>
+      <c r="H54">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2048</v>
       </c>
@@ -42562,8 +44786,14 @@
       <c r="F55">
         <v>80</v>
       </c>
+      <c r="G55">
+        <v>99</v>
+      </c>
+      <c r="H55">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2049</v>
       </c>
@@ -42582,8 +44812,14 @@
       <c r="F56">
         <v>80</v>
       </c>
+      <c r="G56">
+        <v>99</v>
+      </c>
+      <c r="H56">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2050</v>
       </c>
@@ -42601,6 +44837,12 @@
       </c>
       <c r="F57">
         <v>80</v>
+      </c>
+      <c r="G57">
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <v>96.5</v>
       </c>
     </row>
   </sheetData>

--- a/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E714B69F-5F21-410D-8D67-8BB966FB66B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF3533-1044-47DA-9A33-78EC85D71F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
     <sheet name="VirginMatEff" sheetId="5" r:id="rId2"/>
     <sheet name="MFG Eff" sheetId="3" r:id="rId3"/>
     <sheet name="SF-all on one" sheetId="2" r:id="rId4"/>
+    <sheet name="ModuleLifetime" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t>Year</t>
   </si>
@@ -166,6 +167,21 @@
   </si>
   <si>
     <t>Backsheet</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Module Efficiency</t>
+  </si>
+  <si>
+    <t>Economic Lifetime</t>
+  </si>
+  <si>
+    <t>[%]</t>
+  </si>
+  <si>
+    <t>[years]</t>
   </si>
 </sst>
 </file>
@@ -13131,6 +13147,2005 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Properties </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>of Historical PV Modules and </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Current Technology Trends</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5698844759667903E-2"/>
+          <c:y val="8.4891651624061246E-2"/>
+          <c:w val="0.8068869305743015"/>
+          <c:h val="0.83475559964786761"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ModuleLifetime!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Module Efficiency</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$A$18:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$B$18:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.921698800000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.480425369999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.88587403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.205627280000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.470349479999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.6966295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.894483210000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23.070433690000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.228972280000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.373326200000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.505894179999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.62850877</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.742602300000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.849315969999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.949574089999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24.044135990000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.133633240000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24.218596949999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24.299478069999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.376662799999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.450484530000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.52123306</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24.589161900000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24.654494150000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24.717427180000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.778136459999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.8367787</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.893494459999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.94841027</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.001640479999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBE7-4BA7-88C4-1849B8EEB50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ModuleLifetime!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Economic Lifetime</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[years]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$A$18:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$F$18:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CBE7-4BA7-88C4-1849B8EEB50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ModuleLifetime!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>T50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[years]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$A$18:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$C$18:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBE7-4BA7-88C4-1849B8EEB50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ModuleLifetime!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>T90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[years]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$A$18:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$D$18:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBE7-4BA7-88C4-1849B8EEB50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="551222288"/>
+        <c:axId val="551219664"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ModuleLifetime!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Degradation Rate</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$A$18:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ModuleLifetime!$E$18:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBE7-4BA7-88C4-1849B8EEB50E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="545600744"/>
+        <c:axId val="545599760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="551222288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2050"/>
+          <c:min val="2010"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551219664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="551219664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years \</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Percent Efficiency</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551222288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="545599760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power Degradation Rate [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545600744"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="545600744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="545599760"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="74000">
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="75000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="10800000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52783370421639864"/>
+          <c:y val="0.64119463760934847"/>
+          <c:w val="0.3567983162288349"/>
+          <c:h val="0.25219681720719378"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="DejaVu Sans Condensed" panose="020B0606030804020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
@@ -26658,6 +28673,46 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -30624,6 +32679,522 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -35878,6 +38449,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142872</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>58736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>536574</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1442BC87-28AF-4563-BE70-09874CD5CDB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -43357,7 +45969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886825C-AE4A-4EAF-970C-700F7CC3D78A}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -47233,4 +49845,1273 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E72CE93-524C-4FA7-9EC7-337A4A16DA07}">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1995</v>
+      </c>
+      <c r="B3">
+        <v>12.5</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1996</v>
+      </c>
+      <c r="B4">
+        <v>12.7</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1997</v>
+      </c>
+      <c r="B5">
+        <v>12.88</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1998</v>
+      </c>
+      <c r="B6">
+        <v>13.06</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1999</v>
+      </c>
+      <c r="B7">
+        <v>13.24</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2000</v>
+      </c>
+      <c r="B8">
+        <v>13.42</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2001</v>
+      </c>
+      <c r="B9">
+        <v>13.6</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2002</v>
+      </c>
+      <c r="B10">
+        <v>13.722222220000001</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0.6</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2003</v>
+      </c>
+      <c r="B11">
+        <v>13.84444444</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2004</v>
+      </c>
+      <c r="B12">
+        <v>13.96666667</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0.6</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13">
+        <v>14.08888889</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2006</v>
+      </c>
+      <c r="B14">
+        <v>14.211111109999999</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0.6</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2007</v>
+      </c>
+      <c r="B15">
+        <v>14.33333333</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2008</v>
+      </c>
+      <c r="B16">
+        <v>14.455555560000001</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2009</v>
+      </c>
+      <c r="B17">
+        <v>14.57777778</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>0.6</v>
+      </c>
+      <c r="F17">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2010</v>
+      </c>
+      <c r="B18">
+        <v>14.7</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2011</v>
+      </c>
+      <c r="B19">
+        <v>15.1</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>15.4</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>0.3</v>
+      </c>
+      <c r="F21">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22">
+        <v>16.3</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>0.3</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
+      </c>
+      <c r="F23">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>17.5</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>0.3</v>
+      </c>
+      <c r="F24">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25">
+        <v>17.7</v>
+      </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0.3</v>
+      </c>
+      <c r="F25">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2018</v>
+      </c>
+      <c r="B26">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C26">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>0.3</v>
+      </c>
+      <c r="F26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27">
+        <v>19.2</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+      <c r="F28">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29">
+        <v>20.921698800000001</v>
+      </c>
+      <c r="C29">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2022</v>
+      </c>
+      <c r="B30">
+        <v>21.480425369999999</v>
+      </c>
+      <c r="C30">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2023</v>
+      </c>
+      <c r="B31">
+        <v>21.88587403</v>
+      </c>
+      <c r="C31">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2024</v>
+      </c>
+      <c r="B32">
+        <v>22.205627280000002</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>38</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2025</v>
+      </c>
+      <c r="B33">
+        <v>22.470349479999999</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2026</v>
+      </c>
+      <c r="B34">
+        <v>22.6966295</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2027</v>
+      </c>
+      <c r="B35">
+        <v>22.894483210000001</v>
+      </c>
+      <c r="C35">
+        <v>40</v>
+      </c>
+      <c r="D35">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>0.5</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2028</v>
+      </c>
+      <c r="B36">
+        <v>23.070433690000002</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2029</v>
+      </c>
+      <c r="B37">
+        <v>23.228972280000001</v>
+      </c>
+      <c r="C37">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>44</v>
+      </c>
+      <c r="E37">
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2030</v>
+      </c>
+      <c r="B38">
+        <v>23.373326200000001</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2031</v>
+      </c>
+      <c r="B39">
+        <v>23.505894179999999</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2032</v>
+      </c>
+      <c r="B40">
+        <v>23.62850877</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>44</v>
+      </c>
+      <c r="E40">
+        <v>0.5</v>
+      </c>
+      <c r="F40">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2033</v>
+      </c>
+      <c r="B41">
+        <v>23.742602300000001</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>44</v>
+      </c>
+      <c r="E41">
+        <v>0.5</v>
+      </c>
+      <c r="F41">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2034</v>
+      </c>
+      <c r="B42">
+        <v>23.849315969999999</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2035</v>
+      </c>
+      <c r="B43">
+        <v>23.949574089999999</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>44</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2036</v>
+      </c>
+      <c r="B44">
+        <v>24.044135990000001</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <v>44</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>35</v>
+      </c>
+      <c r="G44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2037</v>
+      </c>
+      <c r="B45">
+        <v>24.133633240000002</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>0.5</v>
+      </c>
+      <c r="F45">
+        <v>35</v>
+      </c>
+      <c r="G45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2038</v>
+      </c>
+      <c r="B46">
+        <v>24.218596949999998</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2039</v>
+      </c>
+      <c r="B47">
+        <v>24.299478069999999</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>44</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <v>35</v>
+      </c>
+      <c r="G47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2040</v>
+      </c>
+      <c r="B48">
+        <v>24.376662799999998</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>0.5</v>
+      </c>
+      <c r="F48">
+        <v>35</v>
+      </c>
+      <c r="G48">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2041</v>
+      </c>
+      <c r="B49">
+        <v>24.450484530000001</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>35</v>
+      </c>
+      <c r="G49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2042</v>
+      </c>
+      <c r="B50">
+        <v>24.52123306</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2043</v>
+      </c>
+      <c r="B51">
+        <v>24.589161900000001</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51">
+        <v>44</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>35</v>
+      </c>
+      <c r="G51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2044</v>
+      </c>
+      <c r="B52">
+        <v>24.654494150000001</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>0.5</v>
+      </c>
+      <c r="F52">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2045</v>
+      </c>
+      <c r="B53">
+        <v>24.717427180000001</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>44</v>
+      </c>
+      <c r="E53">
+        <v>0.5</v>
+      </c>
+      <c r="F53">
+        <v>35</v>
+      </c>
+      <c r="G53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2046</v>
+      </c>
+      <c r="B54">
+        <v>24.778136459999999</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>44</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>35</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2047</v>
+      </c>
+      <c r="B55">
+        <v>24.8367787</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>44</v>
+      </c>
+      <c r="E55">
+        <v>0.5</v>
+      </c>
+      <c r="F55">
+        <v>35</v>
+      </c>
+      <c r="G55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2048</v>
+      </c>
+      <c r="B56">
+        <v>24.893494459999999</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+      <c r="F56">
+        <v>35</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2049</v>
+      </c>
+      <c r="B57">
+        <v>24.94841027</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2050</v>
+      </c>
+      <c r="B58">
+        <v>25.001640479999999</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+      <c r="F58">
+        <v>35</v>
+      </c>
+      <c r="G58">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
+++ b/PV_ICE/baselines/SupportingMaterial/BaselineGraphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\SupportingMaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF3533-1044-47DA-9A33-78EC85D71F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA104A-C648-4039-9CC4-A304B7711A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="-28920" yWindow="-2865" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -15052,6 +15055,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="545599760"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
